--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\KSK_Simf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAF58B8-A7A8-4D45-833F-B55629924A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7374FB34-32C0-4ED5-B20B-CF4FBA92FC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2663,12 +2663,6 @@
     <t>Снеки «Пельмени Бульмени хрустящие с мясом» Фикс.вес 0,22 сфера ТМ «Горячая штучка»</t>
   </si>
   <si>
-    <t>SU003727</t>
-  </si>
-  <si>
-    <t>P004749</t>
-  </si>
-  <si>
     <t>Пельмени «Бульмени мини с мясом и оливковым маслом» Фикс.вес 0,7 сфера ТМ «Горячая штучка»</t>
   </si>
   <si>
@@ -3072,6 +3066,12 @@
   </si>
   <si>
     <t>Пельмени «Отборные с говядиной и свининой» 0,9 псевдозащип ТМ «Медвежье ушко»</t>
+  </si>
+  <si>
+    <t>SU003945</t>
+  </si>
+  <si>
+    <t>P005065</t>
   </si>
 </sst>
 </file>
@@ -6331,7 +6331,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6589,10 +6589,10 @@
         <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D11" s="4">
         <v>4301135793</v>
@@ -6601,14 +6601,14 @@
         <v>4620207491003</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G11" s="1" t="e">
         <f>VLOOKUP(E11,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6616,10 +6616,10 @@
         <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D12" s="4">
         <v>4301135793</v>
@@ -6628,14 +6628,14 @@
         <v>4620207491003</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G12" s="1" t="e">
         <f>VLOOKUP(E12,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6643,10 +6643,10 @@
         <v>189</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D13" s="4">
         <v>4301135793</v>
@@ -6655,25 +6655,25 @@
         <v>4620207491003</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G13" s="1" t="e">
         <f>VLOOKUP(E13,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D14" s="4">
         <v>4301135793</v>
@@ -6682,19 +6682,19 @@
         <v>4620207491003</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D15" s="4">
         <v>4301135793</v>
@@ -6703,7 +6703,7 @@
         <v>4620207491003</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -6712,10 +6712,10 @@
         <v>219</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D16" s="4">
         <v>4301135768</v>
@@ -6724,14 +6724,14 @@
         <v>4620207491034</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G16" s="1" t="e">
         <f>VLOOKUP(E16,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6739,10 +6739,10 @@
         <v>415</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D17" s="4">
         <v>4301135768</v>
@@ -6751,14 +6751,14 @@
         <v>4620207491034</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G17" s="1" t="e">
         <f>VLOOKUP(E17,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6766,10 +6766,10 @@
         <v>421</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D18" s="4">
         <v>4301135768</v>
@@ -6778,14 +6778,14 @@
         <v>4620207491034</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G18" s="1" t="e">
         <f>VLOOKUP(E18,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6793,10 +6793,10 @@
         <v>190</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D19" s="4">
         <v>4301135768</v>
@@ -6805,25 +6805,25 @@
         <v>4620207491034</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G19" s="1" t="e">
         <f>VLOOKUP(E19,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D20" s="4">
         <v>4301135768</v>
@@ -6832,19 +6832,19 @@
         <v>4620207491034</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D21" s="4">
         <v>4301135768</v>
@@ -6853,7 +6853,7 @@
         <v>4620207491034</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -6862,10 +6862,10 @@
         <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D22" s="4">
         <v>4301135760</v>
@@ -6874,14 +6874,14 @@
         <v>4620207491010</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G22" s="1" t="e">
         <f>VLOOKUP(E22,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6889,10 +6889,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D23" s="4">
         <v>4301135760</v>
@@ -6901,14 +6901,14 @@
         <v>4620207491010</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G23" s="1" t="e">
         <f>VLOOKUP(E23,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6916,10 +6916,10 @@
         <v>191</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D24" s="4">
         <v>4301135760</v>
@@ -6928,25 +6928,25 @@
         <v>4620207491010</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G24" s="1" t="e">
         <f>VLOOKUP(E24,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D25" s="4">
         <v>4301135760</v>
@@ -6955,19 +6955,19 @@
         <v>4620207491010</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D26" s="4">
         <v>4301135760</v>
@@ -6976,7 +6976,7 @@
         <v>4620207491010</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -6985,10 +6985,10 @@
         <v>129</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D27" s="4">
         <v>4301135763</v>
@@ -6997,14 +6997,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G27" s="1" t="e">
         <f>VLOOKUP(E27,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -7012,10 +7012,10 @@
         <v>188</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D28" s="4">
         <v>4301135763</v>
@@ -7024,14 +7024,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G28" s="1" t="e">
         <f>VLOOKUP(E28,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -7039,10 +7039,10 @@
         <v>129</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D29" s="4">
         <v>4301135763</v>
@@ -7051,14 +7051,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G29" s="1" t="e">
         <f>VLOOKUP(E29,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -7066,10 +7066,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D30" s="4">
         <v>4301135763</v>
@@ -7078,14 +7078,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G30" s="1" t="e">
         <f>VLOOKUP(E30,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -7093,10 +7093,10 @@
         <v>403</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D31" s="4">
         <v>4301136079</v>
@@ -7105,7 +7105,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G31" s="1">
         <f>VLOOKUP(E31,[1]Лист1!$D:$M,10,0)</f>
@@ -7117,10 +7117,10 @@
         <v>424</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D32" s="4">
         <v>4301136079</v>
@@ -7129,7 +7129,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G32" s="1">
         <f>VLOOKUP(E32,[1]Лист1!$D:$M,10,0)</f>
@@ -7141,10 +7141,10 @@
         <v>506</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D33" s="4">
         <v>4301136079</v>
@@ -7153,7 +7153,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G33" s="1">
         <f>VLOOKUP(E33,[1]Лист1!$D:$M,10,0)</f>
@@ -7165,10 +7165,10 @@
         <v>193</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D34" s="4">
         <v>4301136079</v>
@@ -7177,7 +7177,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G34" s="1">
         <f>VLOOKUP(E34,[1]Лист1!$D:$M,10,0)</f>
@@ -8270,10 +8270,10 @@
         <v>196</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D80" s="4">
         <v>4301135753</v>
@@ -8282,14 +8282,14 @@
         <v>4620207490914</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G80" s="1" t="e">
         <f>VLOOKUP(E80,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -8297,10 +8297,10 @@
         <v>692</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D81" s="4">
         <v>4301135753</v>
@@ -8309,14 +8309,14 @@
         <v>4620207490914</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G81" s="1" t="e">
         <f>VLOOKUP(E81,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -8324,10 +8324,10 @@
         <v>136</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D82" s="4">
         <v>4301135753</v>
@@ -8336,14 +8336,14 @@
         <v>4620207490914</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G82" s="1" t="e">
         <f>VLOOKUP(E82,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -8351,10 +8351,10 @@
         <v>231</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D83" s="4">
         <v>4301135778</v>
@@ -8363,14 +8363,14 @@
         <v>4620207490853</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G83" s="1" t="e">
         <f>VLOOKUP(E83,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -8378,10 +8378,10 @@
         <v>197</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D84" s="4">
         <v>4301135778</v>
@@ -8390,14 +8390,14 @@
         <v>4620207490853</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G84" s="1" t="e">
         <f>VLOOKUP(E84,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -8405,10 +8405,10 @@
         <v>696</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D85" s="4">
         <v>4301135778</v>
@@ -8417,14 +8417,14 @@
         <v>4620207490853</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G85" s="1" t="e">
         <f>VLOOKUP(E85,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -8432,10 +8432,10 @@
         <v>75</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D86" s="4">
         <v>4301135778</v>
@@ -8444,25 +8444,25 @@
         <v>4620207490853</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G86" s="1" t="e">
         <f>VLOOKUP(E86,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D87" s="4">
         <v>4301135778</v>
@@ -8471,19 +8471,19 @@
         <v>4620207490853</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D88" s="4">
         <v>4301135778</v>
@@ -8492,19 +8492,19 @@
         <v>4620207490853</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D89" s="4">
         <v>4301135778</v>
@@ -8513,7 +8513,7 @@
         <v>4620207490853</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -8522,10 +8522,10 @@
         <v>117</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D90" s="4">
         <v>4301131046</v>
@@ -8534,7 +8534,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G90" s="1">
         <f>VLOOKUP(E90,[1]Лист1!$D:$M,10,0)</f>
@@ -8546,10 +8546,10 @@
         <v>122</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D91" s="4">
         <v>4301131046</v>
@@ -8558,7 +8558,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G91" s="1">
         <f>VLOOKUP(E91,[1]Лист1!$D:$M,10,0)</f>
@@ -8570,10 +8570,10 @@
         <v>198</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D92" s="4">
         <v>4301131046</v>
@@ -8582,7 +8582,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G92" s="1">
         <f>VLOOKUP(E92,[1]Лист1!$D:$M,10,0)</f>
@@ -11018,10 +11018,10 @@
         <v>109</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D194" s="4">
         <v>4301071109</v>
@@ -11030,7 +11030,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -11042,10 +11042,10 @@
         <v>88</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D195" s="4">
         <v>4301071109</v>
@@ -11054,7 +11054,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -12970,7 +12970,7 @@
         <v>322</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D275" s="4">
         <v>4301071062</v>
@@ -12979,7 +12979,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G275" s="1">
         <f>VLOOKUP(E275,[1]Лист1!$D:$M,10,0)</f>
@@ -12994,7 +12994,7 @@
         <v>322</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D276" s="4">
         <v>4301071062</v>
@@ -13003,7 +13003,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="G276" s="1">
         <f>VLOOKUP(E276,[1]Лист1!$D:$M,10,0)</f>
@@ -13015,10 +13015,10 @@
         <v>406</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D277" s="4">
         <v>4301135571</v>
@@ -13027,7 +13027,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G277" s="1">
         <f>VLOOKUP(E277,[1]Лист1!$D:$M,10,0)</f>
@@ -13039,10 +13039,10 @@
         <v>326</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D278" s="4">
         <v>4301135571</v>
@@ -13051,7 +13051,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G278" s="1">
         <f>VLOOKUP(E278,[1]Лист1!$D:$M,10,0)</f>
@@ -13060,13 +13060,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D279" s="4">
         <v>4301135571</v>
@@ -13075,7 +13075,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G279" s="1">
         <f>VLOOKUP(E279,[1]Лист1!$D:$M,10,0)</f>
@@ -13084,13 +13084,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D280" s="4">
         <v>4301135571</v>
@@ -13099,7 +13099,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G280" s="1"/>
     </row>
@@ -13108,10 +13108,10 @@
         <v>325</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D281" s="4">
         <v>4301135571</v>
@@ -13120,7 +13120,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G281" s="1">
         <f>VLOOKUP(E281,[1]Лист1!$D:$M,10,0)</f>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>338</v>
@@ -14774,10 +14774,10 @@
         <v>576</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D354" s="4">
         <v>4301135549</v>
@@ -14795,10 +14795,10 @@
         <v>763</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D355" s="4">
         <v>4301135549</v>
@@ -14816,10 +14816,10 @@
         <v>550</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D356" s="4">
         <v>4301135549</v>
@@ -15971,10 +15971,10 @@
         <v>772</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D411" s="4">
         <v>4301135591</v>
@@ -15983,7 +15983,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G411" s="1">
         <v>180</v>
@@ -15994,10 +15994,10 @@
         <v>866</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D412" s="4">
         <v>4301135591</v>
@@ -16006,7 +16006,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G412" s="1">
         <v>180</v>
@@ -16017,10 +16017,10 @@
         <v>701</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D413" s="4">
         <v>4301135591</v>
@@ -16029,7 +16029,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G413" s="1">
         <v>180</v>
@@ -16037,7 +16037,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>704</v>
@@ -16607,22 +16607,22 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>874</v>
+        <v>1009</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>875</v>
+        <v>1010</v>
       </c>
       <c r="D440" s="4">
-        <v>4301135670</v>
+        <v>4301135826</v>
       </c>
       <c r="E440" s="3">
         <v>4620207490983</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G440" s="1">
         <v>180</v>
@@ -16630,22 +16630,22 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>874</v>
+        <v>1009</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>875</v>
+        <v>1010</v>
       </c>
       <c r="D441" s="4">
-        <v>4301135670</v>
+        <v>4301135826</v>
       </c>
       <c r="E441" s="3">
         <v>4620207490983</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G441" s="1">
         <v>180</v>
@@ -16653,22 +16653,22 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>874</v>
+        <v>1009</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>875</v>
+        <v>1010</v>
       </c>
       <c r="D442" s="4">
-        <v>4301135670</v>
+        <v>4301135826</v>
       </c>
       <c r="E442" s="3">
         <v>4620207490983</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G442" s="1">
         <v>180</v>
@@ -16679,19 +16679,19 @@
         <v>873</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>874</v>
+        <v>1009</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>875</v>
+        <v>1010</v>
       </c>
       <c r="D443" s="4">
-        <v>4301135670</v>
+        <v>4301135826</v>
       </c>
       <c r="E443" s="3">
         <v>4620207490983</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="G443" s="1">
         <v>180</v>
@@ -16699,13 +16699,13 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D444" s="4">
         <v>4301071074</v>
@@ -16714,19 +16714,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G444" s="1"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D445" s="4">
         <v>4301071074</v>
@@ -16735,19 +16735,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G445" s="1"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C446" s="3" t="s">
         <v>876</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="D446" s="4">
         <v>4301071074</v>
@@ -16756,19 +16756,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D447" s="4">
         <v>4301135763</v>
@@ -16777,19 +16777,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G447" s="1"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D448" s="4">
         <v>4301135763</v>
@@ -16798,19 +16798,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G448" s="1"/>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D449" s="4">
         <v>4301135763</v>
@@ -16819,19 +16819,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G449" s="1"/>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
+        <v>897</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>900</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>901</v>
       </c>
       <c r="D450" s="4">
         <v>4301135763</v>
@@ -16840,19 +16840,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G450" s="1"/>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
+        <v>901</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C451" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>904</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="D451" s="4">
         <v>4301135665</v>
@@ -16861,19 +16861,19 @@
         <v>4607111039729</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="G451" s="1"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
+        <v>905</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>907</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>909</v>
       </c>
       <c r="D452" s="4">
         <v>4301135702</v>
@@ -16882,13 +16882,13 @@
         <v>4620207490228</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="G452" s="1"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>748</v>
@@ -16907,12 +16907,12 @@
       </c>
       <c r="G453" s="1"/>
       <c r="H453" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B454" s="3" t="s">
         <v>754</v>
@@ -16931,12 +16931,12 @@
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>726</v>
@@ -16955,12 +16955,12 @@
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>666</v>
@@ -16979,12 +16979,12 @@
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>618</v>
@@ -17003,12 +17003,12 @@
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>614</v>
@@ -17027,12 +17027,12 @@
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>622</v>
@@ -17047,16 +17047,16 @@
         <v>4607111039293</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>626</v>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -17083,10 +17083,10 @@
         <v>643</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D461" s="4">
         <v>4301135760</v>
@@ -17095,11 +17095,11 @@
         <v>4620207491010</v>
       </c>
       <c r="F461" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
@@ -17123,18 +17123,18 @@
       </c>
       <c r="G462" s="1"/>
       <c r="H462" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
+        <v>923</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="C463" s="3" t="s">
         <v>925</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>927</v>
       </c>
       <c r="D463" s="4">
         <v>4301135768</v>
@@ -17143,19 +17143,19 @@
         <v>4620207491034</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G463" s="1"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D464" s="4">
         <v>4301071097</v>
@@ -17164,19 +17164,19 @@
         <v>4620207491096</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G464" s="1"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C465" s="3" t="s">
         <v>928</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>930</v>
       </c>
       <c r="D465" s="4">
         <v>4301071097</v>
@@ -17185,19 +17185,19 @@
         <v>4620207491096</v>
       </c>
       <c r="F465" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="G465" s="1"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D466" s="4">
         <v>4301132227</v>
@@ -17206,19 +17206,19 @@
         <v>4620207491133</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G466" s="1"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="C467" s="3" t="s">
         <v>931</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>932</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>933</v>
       </c>
       <c r="D467" s="4">
         <v>4301132227</v>
@@ -17227,19 +17227,19 @@
         <v>4620207491133</v>
       </c>
       <c r="F467" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="G467" s="1"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C468" s="3" t="s">
         <v>952</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>953</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>954</v>
       </c>
       <c r="D468" s="4">
         <v>4301135753</v>
@@ -17248,13 +17248,13 @@
         <v>4620207490914</v>
       </c>
       <c r="F468" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G468" s="1"/>
     </row>
     <row r="469" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>860</v>
@@ -17275,7 +17275,7 @@
     </row>
     <row r="470" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>857</v>
@@ -17296,13 +17296,13 @@
     </row>
     <row r="471" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D471" s="4">
         <v>4301071075</v>
@@ -17311,19 +17311,19 @@
         <v>4620207491102</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G471" s="1"/>
     </row>
     <row r="472" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
+        <v>958</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C472" s="3" t="s">
         <v>960</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>961</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>962</v>
       </c>
       <c r="D472" s="4">
         <v>4301071075</v>
@@ -17332,7 +17332,7 @@
         <v>4620207491102</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="G472" s="1"/>
     </row>
@@ -17380,13 +17380,13 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D475" s="4">
         <v>4301135753</v>
@@ -17395,19 +17395,19 @@
         <v>4620207490914</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D476" s="4">
         <v>4301131046</v>
@@ -17416,7 +17416,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G476" s="1"/>
     </row>
@@ -17506,7 +17506,7 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>622</v>
@@ -17521,7 +17521,7 @@
         <v>4607111039293</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G481" s="1"/>
     </row>
@@ -17569,13 +17569,13 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C484" s="3" t="s">
         <v>966</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>967</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>968</v>
       </c>
       <c r="D484" s="4">
         <v>4301071094</v>
@@ -17584,19 +17584,19 @@
         <v>4620207491140</v>
       </c>
       <c r="F484" s="5" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="G484" s="1"/>
     </row>
     <row r="485" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C485" s="3" t="s">
         <v>970</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>971</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>972</v>
       </c>
       <c r="D485" s="4">
         <v>4301071093</v>
@@ -17605,13 +17605,13 @@
         <v>4620207490709</v>
       </c>
       <c r="F485" s="5" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="G485" s="1"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="10" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>734</v>
@@ -17632,7 +17632,7 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B487" s="3" t="s">
         <v>757</v>
@@ -17653,7 +17653,7 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>748</v>
@@ -17674,7 +17674,7 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>754</v>
@@ -17695,7 +17695,7 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>666</v>
@@ -17716,7 +17716,7 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>722</v>
@@ -17737,7 +17737,7 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>779</v>
@@ -17758,13 +17758,13 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D493" s="4">
         <v>4301131046</v>
@@ -17773,19 +17773,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D494" s="4">
         <v>4301135793</v>
@@ -17794,19 +17794,19 @@
         <v>4620207491003</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D495" s="4">
         <v>4301135760</v>
@@ -17815,13 +17815,13 @@
         <v>4620207491010</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>183</v>
@@ -17842,7 +17842,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>167</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>614</v>
@@ -17884,7 +17884,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="10" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>618</v>
@@ -17905,7 +17905,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="10" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>622</v>
@@ -17920,13 +17920,13 @@
         <v>4607111039293</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="G500" s="1"/>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="10" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>626</v>
@@ -17947,7 +17947,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>652</v>
@@ -17968,7 +17968,7 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>649</v>
@@ -17989,7 +17989,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>740</v>
@@ -18010,13 +18010,13 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="10" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D505" s="4">
         <v>4301135753</v>
@@ -18025,13 +18025,13 @@
         <v>4620207490914</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G505" s="1"/>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="10" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>697</v>
@@ -18052,7 +18052,7 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="10" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>867</v>
@@ -18073,13 +18073,13 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="10" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="D508" s="4">
         <v>4301071063</v>
@@ -18088,13 +18088,13 @@
         <v>4607111039019</v>
       </c>
       <c r="F508" s="5" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="G508" s="1"/>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>494</v>
@@ -18115,13 +18115,13 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="10" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D510" s="4">
         <v>4301135692</v>
@@ -18130,19 +18130,19 @@
         <v>4620207490570</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C511" s="3" t="s">
         <v>1001</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>1003</v>
       </c>
       <c r="D511" s="4">
         <v>4301135692</v>
@@ -18151,7 +18151,7 @@
         <v>4620207490570</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="G511" s="1"/>
     </row>
@@ -18376,10 +18376,10 @@
         <v>799</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D521" s="4">
         <v>4301135760</v>
@@ -18388,11 +18388,11 @@
         <v>4620207491010</v>
       </c>
       <c r="F521" s="5" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
@@ -18496,10 +18496,10 @@
         <v>804</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D526" s="4">
         <v>4301135793</v>
@@ -18508,11 +18508,11 @@
         <v>4620207491003</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
@@ -18664,10 +18664,10 @@
         <v>811</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D533" s="4">
         <v>4301071109</v>
@@ -18676,7 +18676,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18784,10 +18784,10 @@
         <v>816</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D538" s="4">
         <v>4301135763</v>
@@ -18796,11 +18796,11 @@
         <v>4620207491027</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
@@ -18856,10 +18856,10 @@
         <v>819</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D541" s="4">
         <v>4301131046</v>
@@ -18868,7 +18868,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18880,10 +18880,10 @@
         <v>820</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D542" s="4">
         <v>4301136079</v>
@@ -18892,7 +18892,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18904,10 +18904,10 @@
         <v>821</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D543" s="4">
         <v>4301135753</v>
@@ -18916,7 +18916,7 @@
         <v>4620207490914</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
@@ -18928,10 +18928,10 @@
         <v>822</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D544" s="4">
         <v>4301135778</v>
@@ -18940,11 +18940,11 @@
         <v>4620207490853</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G544" s="21"/>
       <c r="H544" s="16" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
@@ -19024,10 +19024,10 @@
         <v>826</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D548" s="4">
         <v>4301135571</v>
@@ -19036,7 +19036,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F548" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G548" s="21"/>
       <c r="H548" s="22" t="s">
@@ -19048,10 +19048,10 @@
         <v>827</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D549" s="4">
         <v>4301135768</v>
@@ -19060,11 +19060,11 @@
         <v>4620207491034</v>
       </c>
       <c r="F549" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="G549" s="21"/>
       <c r="H549" s="16" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="550" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
@@ -19117,7 +19117,7 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="10" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>854</v>
@@ -19192,10 +19192,10 @@
         <v>833</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D555" s="4">
         <v>4301135549</v>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\KSK_Simf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7374FB34-32C0-4ED5-B20B-CF4FBA92FC51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D7369F-127D-4D67-BFFC-32486B8D11FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1523,15 +1523,6 @@
     <t>Чебуреки Мясные вес 2,7 кг ТМ Зареченские ВЕС ПОКОМ</t>
   </si>
   <si>
-    <t>SU003291</t>
-  </si>
-  <si>
-    <t>P004009</t>
-  </si>
-  <si>
-    <t>Пельмени Сочные Сочные 0,8 Сфера Стародворье</t>
-  </si>
-  <si>
     <t>Пельмени Медвежьи ушки с фермерскими сливками 0,7кг  ПОКОМ</t>
   </si>
   <si>
@@ -3072,6 +3063,15 @@
   </si>
   <si>
     <t>P005065</t>
+  </si>
+  <si>
+    <t>SU003965</t>
+  </si>
+  <si>
+    <t>P005098</t>
+  </si>
+  <si>
+    <t>Пельмени «Сочные» 0,8 сфера ТМ «Медвежье ушко»</t>
   </si>
 </sst>
 </file>
@@ -6331,7 +6331,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6493,10 +6493,10 @@
         <v>328</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D7" s="4">
         <v>4301135574</v>
@@ -6505,7 +6505,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G7" s="1">
         <f>VLOOKUP(E7,[1]Лист1!$D:$M,10,0)</f>
@@ -6517,10 +6517,10 @@
         <v>341</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D8" s="4">
         <v>4301135574</v>
@@ -6529,7 +6529,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G8" s="1">
         <f>VLOOKUP(E8,[1]Лист1!$D:$M,10,0)</f>
@@ -6541,10 +6541,10 @@
         <v>218</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D9" s="4">
         <v>4301135574</v>
@@ -6553,7 +6553,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G9" s="1">
         <f>VLOOKUP(E9,[1]Лист1!$D:$M,10,0)</f>
@@ -6565,10 +6565,10 @@
         <v>186</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D10" s="4">
         <v>4301135574</v>
@@ -6577,7 +6577,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G10" s="1">
         <f>VLOOKUP(E10,[1]Лист1!$D:$M,10,0)</f>
@@ -6589,10 +6589,10 @@
         <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D11" s="4">
         <v>4301135793</v>
@@ -6601,14 +6601,14 @@
         <v>4620207491003</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G11" s="1" t="e">
         <f>VLOOKUP(E11,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6616,10 +6616,10 @@
         <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D12" s="4">
         <v>4301135793</v>
@@ -6628,14 +6628,14 @@
         <v>4620207491003</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G12" s="1" t="e">
         <f>VLOOKUP(E12,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6643,10 +6643,10 @@
         <v>189</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D13" s="4">
         <v>4301135793</v>
@@ -6655,25 +6655,25 @@
         <v>4620207491003</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G13" s="1" t="e">
         <f>VLOOKUP(E13,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D14" s="4">
         <v>4301135793</v>
@@ -6682,19 +6682,19 @@
         <v>4620207491003</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D15" s="4">
         <v>4301135793</v>
@@ -6703,7 +6703,7 @@
         <v>4620207491003</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -6712,10 +6712,10 @@
         <v>219</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D16" s="4">
         <v>4301135768</v>
@@ -6724,14 +6724,14 @@
         <v>4620207491034</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G16" s="1" t="e">
         <f>VLOOKUP(E16,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6739,10 +6739,10 @@
         <v>415</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D17" s="4">
         <v>4301135768</v>
@@ -6751,14 +6751,14 @@
         <v>4620207491034</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G17" s="1" t="e">
         <f>VLOOKUP(E17,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6766,10 +6766,10 @@
         <v>421</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D18" s="4">
         <v>4301135768</v>
@@ -6778,14 +6778,14 @@
         <v>4620207491034</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G18" s="1" t="e">
         <f>VLOOKUP(E18,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6793,10 +6793,10 @@
         <v>190</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D19" s="4">
         <v>4301135768</v>
@@ -6805,25 +6805,25 @@
         <v>4620207491034</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G19" s="1" t="e">
         <f>VLOOKUP(E19,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D20" s="4">
         <v>4301135768</v>
@@ -6832,19 +6832,19 @@
         <v>4620207491034</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D21" s="4">
         <v>4301135768</v>
@@ -6853,7 +6853,7 @@
         <v>4620207491034</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -6862,10 +6862,10 @@
         <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D22" s="4">
         <v>4301135760</v>
@@ -6874,14 +6874,14 @@
         <v>4620207491010</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G22" s="1" t="e">
         <f>VLOOKUP(E22,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6889,10 +6889,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D23" s="4">
         <v>4301135760</v>
@@ -6901,14 +6901,14 @@
         <v>4620207491010</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G23" s="1" t="e">
         <f>VLOOKUP(E23,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6916,10 +6916,10 @@
         <v>191</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D24" s="4">
         <v>4301135760</v>
@@ -6928,25 +6928,25 @@
         <v>4620207491010</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G24" s="1" t="e">
         <f>VLOOKUP(E24,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D25" s="4">
         <v>4301135760</v>
@@ -6955,19 +6955,19 @@
         <v>4620207491010</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D26" s="4">
         <v>4301135760</v>
@@ -6976,7 +6976,7 @@
         <v>4620207491010</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -6985,10 +6985,10 @@
         <v>129</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D27" s="4">
         <v>4301135763</v>
@@ -6997,14 +6997,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G27" s="1" t="e">
         <f>VLOOKUP(E27,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -7012,10 +7012,10 @@
         <v>188</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D28" s="4">
         <v>4301135763</v>
@@ -7024,14 +7024,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G28" s="1" t="e">
         <f>VLOOKUP(E28,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -7039,10 +7039,10 @@
         <v>129</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D29" s="4">
         <v>4301135763</v>
@@ -7051,14 +7051,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G29" s="1" t="e">
         <f>VLOOKUP(E29,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -7066,10 +7066,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D30" s="4">
         <v>4301135763</v>
@@ -7078,14 +7078,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G30" s="1" t="e">
         <f>VLOOKUP(E30,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -7093,10 +7093,10 @@
         <v>403</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D31" s="4">
         <v>4301136079</v>
@@ -7105,7 +7105,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G31" s="1">
         <f>VLOOKUP(E31,[1]Лист1!$D:$M,10,0)</f>
@@ -7117,10 +7117,10 @@
         <v>424</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D32" s="4">
         <v>4301136079</v>
@@ -7129,7 +7129,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G32" s="1">
         <f>VLOOKUP(E32,[1]Лист1!$D:$M,10,0)</f>
@@ -7138,13 +7138,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D33" s="4">
         <v>4301136079</v>
@@ -7153,7 +7153,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G33" s="1">
         <f>VLOOKUP(E33,[1]Лист1!$D:$M,10,0)</f>
@@ -7165,10 +7165,10 @@
         <v>193</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D34" s="4">
         <v>4301136079</v>
@@ -7177,7 +7177,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G34" s="1">
         <f>VLOOKUP(E34,[1]Лист1!$D:$M,10,0)</f>
@@ -7192,7 +7192,7 @@
         <v>167</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D35" s="4">
         <v>4301136070</v>
@@ -7216,7 +7216,7 @@
         <v>167</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D36" s="4">
         <v>4301136070</v>
@@ -7240,7 +7240,7 @@
         <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D37" s="4">
         <v>4301136070</v>
@@ -7330,13 +7330,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D41" s="4">
         <v>4301135405</v>
@@ -7345,7 +7345,7 @@
         <v>4640242181523</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G41" s="1">
         <v>180</v>
@@ -7353,13 +7353,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D42" s="4">
         <v>4301135405</v>
@@ -7368,7 +7368,7 @@
         <v>4640242181523</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G42" s="1">
         <v>180</v>
@@ -7376,13 +7376,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D43" s="4">
         <v>4301135405</v>
@@ -7391,7 +7391,7 @@
         <v>4640242181523</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G43" s="1">
         <v>180</v>
@@ -7399,13 +7399,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D44" s="4">
         <v>4301135405</v>
@@ -7414,7 +7414,7 @@
         <v>4640242181523</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G44" s="1">
         <v>180</v>
@@ -7425,10 +7425,10 @@
         <v>131</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D45" s="4">
         <v>4301135405</v>
@@ -7437,13 +7437,13 @@
         <v>4640242181523</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G45" s="1">
         <v>180</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7451,10 +7451,10 @@
         <v>410</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D46" s="4">
         <v>4301135405</v>
@@ -7463,24 +7463,24 @@
         <v>4640242181523</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G46" s="1">
         <v>180</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D47" s="4">
         <v>4301135405</v>
@@ -7489,13 +7489,13 @@
         <v>4640242181523</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G47" s="1">
         <v>180</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -7503,10 +7503,10 @@
         <v>115</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D48" s="4">
         <v>4301135405</v>
@@ -7515,13 +7515,13 @@
         <v>4640242181523</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G48" s="1">
         <v>180</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,10 +7745,10 @@
         <v>395</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D58" s="4">
         <v>4301135375</v>
@@ -7757,7 +7757,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G58" s="1">
         <v>180</v>
@@ -7768,10 +7768,10 @@
         <v>398</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D59" s="4">
         <v>4301135375</v>
@@ -7780,7 +7780,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G59" s="1">
         <v>180</v>
@@ -7791,10 +7791,10 @@
         <v>409</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D60" s="4">
         <v>4301135375</v>
@@ -7803,7 +7803,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G60" s="1">
         <v>180</v>
@@ -7814,10 +7814,10 @@
         <v>287</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D61" s="4">
         <v>4301135375</v>
@@ -7826,7 +7826,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G61" s="1">
         <v>180</v>
@@ -7834,13 +7834,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D62" s="4">
         <v>4301135375</v>
@@ -7849,7 +7849,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G62" s="1">
         <v>180</v>
@@ -7857,13 +7857,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D63" s="4">
         <v>4301135375</v>
@@ -7872,7 +7872,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G63" s="1">
         <v>180</v>
@@ -7883,10 +7883,10 @@
         <v>134</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D64" s="4">
         <v>4301135375</v>
@@ -7895,7 +7895,7 @@
         <v>4640242181486</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G64" s="1">
         <v>180</v>
@@ -7906,10 +7906,10 @@
         <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D65" s="4">
         <v>4301135403</v>
@@ -7918,13 +7918,13 @@
         <v>4640242181509</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G65" s="1">
         <v>180</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7932,10 +7932,10 @@
         <v>394</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D66" s="4">
         <v>4301135403</v>
@@ -7944,13 +7944,13 @@
         <v>4640242181509</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G66" s="1">
         <v>180</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7958,10 +7958,10 @@
         <v>397</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D67" s="4">
         <v>4301135403</v>
@@ -7970,13 +7970,13 @@
         <v>4640242181509</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G67" s="1">
         <v>180</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7984,10 +7984,10 @@
         <v>116</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D68" s="4">
         <v>4301135403</v>
@@ -7996,24 +7996,24 @@
         <v>4640242181509</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G68" s="1">
         <v>180</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D69" s="4">
         <v>4301135403</v>
@@ -8022,19 +8022,19 @@
         <v>4640242181509</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D70" s="4">
         <v>4301135403</v>
@@ -8043,7 +8043,7 @@
         <v>4640242181509</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G70" s="1">
         <v>180</v>
@@ -8270,10 +8270,10 @@
         <v>196</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D80" s="4">
         <v>4301135753</v>
@@ -8282,25 +8282,25 @@
         <v>4620207490914</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G80" s="1" t="e">
         <f>VLOOKUP(E80,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D81" s="4">
         <v>4301135753</v>
@@ -8309,14 +8309,14 @@
         <v>4620207490914</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G81" s="1" t="e">
         <f>VLOOKUP(E81,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -8324,10 +8324,10 @@
         <v>136</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D82" s="4">
         <v>4301135753</v>
@@ -8336,14 +8336,14 @@
         <v>4620207490914</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G82" s="1" t="e">
         <f>VLOOKUP(E82,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -8351,10 +8351,10 @@
         <v>231</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D83" s="4">
         <v>4301135778</v>
@@ -8363,14 +8363,14 @@
         <v>4620207490853</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G83" s="1" t="e">
         <f>VLOOKUP(E83,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -8378,10 +8378,10 @@
         <v>197</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D84" s="4">
         <v>4301135778</v>
@@ -8390,25 +8390,25 @@
         <v>4620207490853</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G84" s="1" t="e">
         <f>VLOOKUP(E84,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D85" s="4">
         <v>4301135778</v>
@@ -8417,14 +8417,14 @@
         <v>4620207490853</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G85" s="1" t="e">
         <f>VLOOKUP(E85,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -8432,10 +8432,10 @@
         <v>75</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D86" s="4">
         <v>4301135778</v>
@@ -8444,25 +8444,25 @@
         <v>4620207490853</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G86" s="1" t="e">
         <f>VLOOKUP(E86,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D87" s="4">
         <v>4301135778</v>
@@ -8471,19 +8471,19 @@
         <v>4620207490853</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D88" s="4">
         <v>4301135778</v>
@@ -8492,19 +8492,19 @@
         <v>4620207490853</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D89" s="4">
         <v>4301135778</v>
@@ -8513,7 +8513,7 @@
         <v>4620207490853</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -8522,10 +8522,10 @@
         <v>117</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D90" s="4">
         <v>4301131046</v>
@@ -8534,7 +8534,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G90" s="1">
         <f>VLOOKUP(E90,[1]Лист1!$D:$M,10,0)</f>
@@ -8546,10 +8546,10 @@
         <v>122</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D91" s="4">
         <v>4301131046</v>
@@ -8558,7 +8558,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G91" s="1">
         <f>VLOOKUP(E91,[1]Лист1!$D:$M,10,0)</f>
@@ -8570,10 +8570,10 @@
         <v>198</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D92" s="4">
         <v>4301131046</v>
@@ -8582,7 +8582,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G92" s="1">
         <f>VLOOKUP(E92,[1]Лист1!$D:$M,10,0)</f>
@@ -8594,10 +8594,10 @@
         <v>118</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D93" s="4">
         <v>4301131047</v>
@@ -8606,7 +8606,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G93" s="1">
         <f>VLOOKUP(E93,[1]Лист1!$D:$M,10,0)</f>
@@ -8618,10 +8618,10 @@
         <v>123</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D94" s="4">
         <v>4301131047</v>
@@ -8630,7 +8630,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G94" s="1">
         <f>VLOOKUP(E94,[1]Лист1!$D:$M,10,0)</f>
@@ -8642,10 +8642,10 @@
         <v>199</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D95" s="4">
         <v>4301131047</v>
@@ -8654,7 +8654,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G95" s="1">
         <f>VLOOKUP(E95,[1]Лист1!$D:$M,10,0)</f>
@@ -8666,10 +8666,10 @@
         <v>200</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D96" s="4">
         <v>4301135518</v>
@@ -8678,13 +8678,13 @@
         <v>4640242181561</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G96" s="1">
         <v>180</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8692,10 +8692,10 @@
         <v>229</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D97" s="4">
         <v>4301135518</v>
@@ -8704,13 +8704,13 @@
         <v>4640242181561</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G97" s="1">
         <v>180</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8718,10 +8718,10 @@
         <v>343</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D98" s="4">
         <v>4301135518</v>
@@ -8730,13 +8730,13 @@
         <v>4640242181561</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G98" s="1">
         <v>180</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8744,10 +8744,10 @@
         <v>371</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D99" s="4">
         <v>4301135518</v>
@@ -8756,13 +8756,13 @@
         <v>4640242181561</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G99" s="1">
         <v>180</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8770,10 +8770,10 @@
         <v>76</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D100" s="4">
         <v>4301135518</v>
@@ -8782,24 +8782,24 @@
         <v>4640242181561</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G100" s="1">
         <v>180</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D101" s="4">
         <v>4301135518</v>
@@ -8808,7 +8808,7 @@
         <v>4640242181561</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G101" s="1">
         <v>180</v>
@@ -8816,13 +8816,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D102" s="4">
         <v>4301135518</v>
@@ -8831,7 +8831,7 @@
         <v>4640242181561</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G102" s="1">
         <v>180</v>
@@ -8839,13 +8839,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D103" s="4">
         <v>4301135518</v>
@@ -8854,7 +8854,7 @@
         <v>4640242181561</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G103" s="1">
         <v>180</v>
@@ -8865,10 +8865,10 @@
         <v>220</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D104" s="4">
         <v>4301132186</v>
@@ -8877,7 +8877,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G104" s="1">
         <v>180</v>
@@ -8888,10 +8888,10 @@
         <v>313</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D105" s="4">
         <v>4301132186</v>
@@ -8900,7 +8900,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G105" s="1">
         <v>180</v>
@@ -8911,10 +8911,10 @@
         <v>447</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D106" s="4">
         <v>4301132186</v>
@@ -8923,7 +8923,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G106" s="1">
         <v>180</v>
@@ -8934,10 +8934,10 @@
         <v>201</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D107" s="4">
         <v>4301132186</v>
@@ -8946,7 +8946,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G107" s="1">
         <v>180</v>
@@ -8957,10 +8957,10 @@
         <v>430</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D108" s="4">
         <v>4301132184</v>
@@ -8969,7 +8969,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G108" s="1">
         <f>VLOOKUP(E108,[1]Лист1!$D:$M,10,0)</f>
@@ -8981,10 +8981,10 @@
         <v>221</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D109" s="4">
         <v>4301132184</v>
@@ -8993,7 +8993,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G109" s="1">
         <f>VLOOKUP(E109,[1]Лист1!$D:$M,10,0)</f>
@@ -9005,10 +9005,10 @@
         <v>202</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D110" s="4">
         <v>4301132184</v>
@@ -9017,7 +9017,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="G110" s="1">
         <f>VLOOKUP(E110,[1]Лист1!$D:$M,10,0)</f>
@@ -9029,10 +9029,10 @@
         <v>405</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D111" s="4">
         <v>4301132188</v>
@@ -9041,7 +9041,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G111" s="1">
         <f>VLOOKUP(E111,[1]Лист1!$D:$M,10,0)</f>
@@ -9053,10 +9053,10 @@
         <v>222</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D112" s="4">
         <v>4301132188</v>
@@ -9065,7 +9065,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G112" s="1">
         <f>VLOOKUP(E112,[1]Лист1!$D:$M,10,0)</f>
@@ -9077,10 +9077,10 @@
         <v>203</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D113" s="4">
         <v>4301132188</v>
@@ -9089,7 +9089,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G113" s="1">
         <f>VLOOKUP(E113,[1]Лист1!$D:$M,10,0)</f>
@@ -9101,10 +9101,10 @@
         <v>204</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D114" s="4">
         <v>4301132179</v>
@@ -9113,7 +9113,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G114" s="1">
         <f>VLOOKUP(E114,[1]Лист1!$D:$M,10,0)</f>
@@ -9125,10 +9125,10 @@
         <v>98</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D115" s="4">
         <v>4301132179</v>
@@ -9137,7 +9137,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G115" s="1">
         <f>VLOOKUP(E115,[1]Лист1!$D:$M,10,0)</f>
@@ -9146,13 +9146,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D116" s="4">
         <v>4301132179</v>
@@ -9161,7 +9161,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G116" s="1">
         <f>VLOOKUP(E116,[1]Лист1!$D:$M,10,0)</f>
@@ -9173,10 +9173,10 @@
         <v>77</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D117" s="4">
         <v>4301132179</v>
@@ -9185,7 +9185,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G117" s="1">
         <f>VLOOKUP(E117,[1]Лист1!$D:$M,10,0)</f>
@@ -9197,10 +9197,10 @@
         <v>99</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D118" s="4">
         <v>4301132190</v>
@@ -9209,7 +9209,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G118" s="1">
         <f>VLOOKUP(E118,[1]Лист1!$D:$M,10,0)</f>
@@ -9218,13 +9218,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D119" s="4">
         <v>4301132190</v>
@@ -9233,7 +9233,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G119" s="1">
         <f>VLOOKUP(E119,[1]Лист1!$D:$M,10,0)</f>
@@ -9245,10 +9245,10 @@
         <v>78</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D120" s="4">
         <v>4301132190</v>
@@ -9257,7 +9257,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G120" s="1">
         <f>VLOOKUP(E120,[1]Лист1!$D:$M,10,0)</f>
@@ -9266,13 +9266,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D121" s="4">
         <v>4301132182</v>
@@ -9281,7 +9281,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G121" s="1">
         <f>VLOOKUP(E121,[1]Лист1!$D:$M,10,0)</f>
@@ -9290,13 +9290,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D122" s="4">
         <v>4301132182</v>
@@ -9305,7 +9305,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G122" s="1">
         <f>VLOOKUP(E122,[1]Лист1!$D:$M,10,0)</f>
@@ -9317,10 +9317,10 @@
         <v>79</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D123" s="4">
         <v>4301132182</v>
@@ -9329,7 +9329,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G123" s="1">
         <f>VLOOKUP(E123,[1]Лист1!$D:$M,10,0)</f>
@@ -9338,13 +9338,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="D124" s="4">
         <v>4301132182</v>
@@ -9353,11 +9353,11 @@
         <v>4607111035721</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="G124" s="21"/>
       <c r="H124" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -9485,10 +9485,10 @@
         <v>335</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D130" s="4">
         <v>4301135570</v>
@@ -9497,7 +9497,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G130" s="1">
         <f>VLOOKUP(E130,[1]Лист1!$D:$M,10,0)</f>
@@ -9509,10 +9509,10 @@
         <v>342</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D131" s="4">
         <v>4301135570</v>
@@ -9521,7 +9521,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G131" s="1">
         <f>VLOOKUP(E131,[1]Лист1!$D:$M,10,0)</f>
@@ -9533,10 +9533,10 @@
         <v>416</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D132" s="4">
         <v>4301135570</v>
@@ -9545,7 +9545,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G132" s="1">
         <f>VLOOKUP(E132,[1]Лист1!$D:$M,10,0)</f>
@@ -9557,10 +9557,10 @@
         <v>425</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D133" s="4">
         <v>4301135570</v>
@@ -9569,7 +9569,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G133" s="1">
         <f>VLOOKUP(E133,[1]Лист1!$D:$M,10,0)</f>
@@ -9578,13 +9578,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D134" s="4">
         <v>4301135570</v>
@@ -9593,7 +9593,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G134" s="1">
         <f>VLOOKUP(E134,[1]Лист1!$D:$M,10,0)</f>
@@ -9605,10 +9605,10 @@
         <v>205</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D135" s="4">
         <v>4301135570</v>
@@ -9617,7 +9617,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G135" s="1">
         <f>VLOOKUP(E135,[1]Лист1!$D:$M,10,0)</f>
@@ -10328,7 +10328,7 @@
         <v>142</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D165" s="4">
         <v>4301070969</v>
@@ -10351,7 +10351,7 @@
         <v>142</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D166" s="4">
         <v>4301070969</v>
@@ -10374,7 +10374,7 @@
         <v>142</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D167" s="4">
         <v>4301070969</v>
@@ -10397,7 +10397,7 @@
         <v>103</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D168" s="4">
         <v>4301070968</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>106</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>106</v>
@@ -10775,7 +10775,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>106</v>
@@ -11018,10 +11018,10 @@
         <v>109</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D194" s="4">
         <v>4301071109</v>
@@ -11030,7 +11030,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -11042,10 +11042,10 @@
         <v>88</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D195" s="4">
         <v>4301071109</v>
@@ -11054,7 +11054,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>152</v>
@@ -11237,7 +11237,7 @@
         <v>110</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D203" s="4">
         <v>4301071050</v>
@@ -11246,7 +11246,7 @@
         <v>4607111036216</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G203" s="1">
         <f>VLOOKUP(E203,[1]Лист1!$D:$M,10,0)</f>
@@ -11255,13 +11255,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D204" s="4">
         <v>4301071050</v>
@@ -11270,7 +11270,7 @@
         <v>4607111036216</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G204" s="1">
         <f>VLOOKUP(E204,[1]Лист1!$D:$M,10,0)</f>
@@ -11279,13 +11279,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D205" s="4">
         <v>4301071050</v>
@@ -11294,7 +11294,7 @@
         <v>4607111036216</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G205" s="1">
         <f>VLOOKUP(E205,[1]Лист1!$D:$M,10,0)</f>
@@ -11309,7 +11309,7 @@
         <v>110</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D206" s="4">
         <v>4301071050</v>
@@ -11318,7 +11318,7 @@
         <v>4607111036216</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G206" s="1">
         <f>VLOOKUP(E206,[1]Лист1!$D:$M,10,0)</f>
@@ -11333,7 +11333,7 @@
         <v>111</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D207" s="4">
         <v>4301071029</v>
@@ -11357,7 +11357,7 @@
         <v>111</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D208" s="4">
         <v>4301071029</v>
@@ -11399,22 +11399,22 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>494</v>
+        <v>1008</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>495</v>
+        <v>1009</v>
       </c>
       <c r="D210" s="4">
-        <v>4301071000</v>
+        <v>4301071100</v>
       </c>
       <c r="E210" s="3">
         <v>4607111038708</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>496</v>
+        <v>1010</v>
       </c>
       <c r="G210" s="1"/>
     </row>
@@ -11423,34 +11423,31 @@
         <v>156</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>494</v>
+        <v>1008</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>495</v>
+        <v>1009</v>
       </c>
       <c r="D211" s="4">
-        <v>4301071000</v>
+        <v>4301071100</v>
       </c>
       <c r="E211" s="3">
         <v>4607111038708</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G211" s="1" t="e">
-        <f>VLOOKUP(E211,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
-      </c>
+        <v>1010</v>
+      </c>
+      <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>230</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D212" s="4">
         <v>4301135504</v>
@@ -11459,13 +11456,13 @@
         <v>4640242181554</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G212" s="1">
         <v>180</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -11473,10 +11470,10 @@
         <v>389</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D213" s="4">
         <v>4301135504</v>
@@ -11485,13 +11482,13 @@
         <v>4640242181554</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G213" s="1">
         <v>180</v>
       </c>
       <c r="H213" s="16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -11499,10 +11496,10 @@
         <v>407</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D214" s="4">
         <v>4301135504</v>
@@ -11511,13 +11508,13 @@
         <v>4640242181554</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G214" s="1">
         <v>180</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -11525,10 +11522,10 @@
         <v>400</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D215" s="4">
         <v>4301135504</v>
@@ -11537,13 +11534,13 @@
         <v>4640242181554</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G215" s="1">
         <v>180</v>
       </c>
       <c r="H215" s="16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -11551,10 +11548,10 @@
         <v>160</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D216" s="4">
         <v>4301135504</v>
@@ -11563,24 +11560,24 @@
         <v>4640242181554</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G216" s="1">
         <v>180</v>
       </c>
       <c r="H216" s="16" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="D217" s="4">
         <v>4301135504</v>
@@ -11589,7 +11586,7 @@
         <v>4640242181554</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G217" s="1">
         <v>180</v>
@@ -11603,7 +11600,7 @@
         <v>162</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D218" s="4">
         <v>4301071056</v>
@@ -11612,7 +11609,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G218" s="1">
         <f>VLOOKUP(E218,[1]Лист1!$D:$M,10,0)</f>
@@ -11627,7 +11624,7 @@
         <v>162</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D219" s="4">
         <v>4301071056</v>
@@ -11636,7 +11633,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G219" s="1">
         <f>VLOOKUP(E219,[1]Лист1!$D:$M,10,0)</f>
@@ -11651,7 +11648,7 @@
         <v>162</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D220" s="4">
         <v>4301071056</v>
@@ -11660,7 +11657,7 @@
         <v>4640242180250</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G220" s="1">
         <f>VLOOKUP(E220,[1]Лист1!$D:$M,10,0)</f>
@@ -11672,10 +11669,10 @@
         <v>187</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D221" s="4">
         <v>4301135550</v>
@@ -11684,7 +11681,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G221" s="1">
         <f>VLOOKUP(E221,[1]Лист1!$D:$M,10,0)</f>
@@ -11696,10 +11693,10 @@
         <v>113</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D222" s="4">
         <v>4301135550</v>
@@ -11708,7 +11705,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G222" s="1">
         <f>VLOOKUP(E222,[1]Лист1!$D:$M,10,0)</f>
@@ -11717,13 +11714,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D223" s="4">
         <v>4301135550</v>
@@ -11732,7 +11729,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G223" s="1">
         <f>VLOOKUP(E223,[1]Лист1!$D:$M,10,0)</f>
@@ -11744,10 +11741,10 @@
         <v>92</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D224" s="4">
         <v>4301135550</v>
@@ -11756,7 +11753,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G224" s="1">
         <f>VLOOKUP(E224,[1]Лист1!$D:$M,10,0)</f>
@@ -11956,13 +11953,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D233" s="4">
         <v>4301135285</v>
@@ -11986,7 +11983,7 @@
         <v>183</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D234" s="4">
         <v>4301135285</v>
@@ -12010,7 +12007,7 @@
         <v>183</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D235" s="4">
         <v>4301135285</v>
@@ -12034,7 +12031,7 @@
         <v>183</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D236" s="4">
         <v>4301135285</v>
@@ -12055,10 +12052,10 @@
         <v>93</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D237" s="4">
         <v>4301135555</v>
@@ -12067,7 +12064,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G237" s="1">
         <f>VLOOKUP(E237,[1]Лист1!$D:$M,10,0)</f>
@@ -12079,10 +12076,10 @@
         <v>347</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D238" s="4">
         <v>4301135555</v>
@@ -12091,7 +12088,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G238" s="1">
         <f>VLOOKUP(E238,[1]Лист1!$D:$M,10,0)</f>
@@ -12100,13 +12097,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D239" s="4">
         <v>4301135555</v>
@@ -12115,7 +12112,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G239" s="1">
         <f>VLOOKUP(E239,[1]Лист1!$D:$M,10,0)</f>
@@ -12124,13 +12121,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D240" s="4">
         <v>4301135555</v>
@@ -12139,7 +12136,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G240" s="1">
         <f>VLOOKUP(E240,[1]Лист1!$D:$M,10,0)</f>
@@ -12151,10 +12148,10 @@
         <v>216</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D241" s="4">
         <v>4301135555</v>
@@ -12163,7 +12160,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G241" s="1">
         <f>VLOOKUP(E241,[1]Лист1!$D:$M,10,0)</f>
@@ -12175,10 +12172,10 @@
         <v>217</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D242" s="4">
         <v>4301135532</v>
@@ -12187,7 +12184,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G242" s="1">
         <f>VLOOKUP(E242,[1]Лист1!$D:$M,10,0)</f>
@@ -12196,13 +12193,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D243" s="4">
         <v>4301135532</v>
@@ -12211,7 +12208,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G243" s="1">
         <f>VLOOKUP(E243,[1]Лист1!$D:$M,10,0)</f>
@@ -12223,10 +12220,10 @@
         <v>114</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D244" s="4">
         <v>4301135532</v>
@@ -12235,7 +12232,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G244" s="1">
         <f>VLOOKUP(E244,[1]Лист1!$D:$M,10,0)</f>
@@ -12247,10 +12244,10 @@
         <v>94</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D245" s="4">
         <v>4301135532</v>
@@ -12259,7 +12256,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G245" s="1">
         <f>VLOOKUP(E245,[1]Лист1!$D:$M,10,0)</f>
@@ -12634,7 +12631,7 @@
         <v>240</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D261" s="4">
         <v>4301136066</v>
@@ -12658,7 +12655,7 @@
         <v>240</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D262" s="4">
         <v>4301136066</v>
@@ -12682,7 +12679,7 @@
         <v>240</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D263" s="4">
         <v>4301136066</v>
@@ -12916,7 +12913,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>316</v>
@@ -12970,7 +12967,7 @@
         <v>322</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D275" s="4">
         <v>4301071062</v>
@@ -12979,7 +12976,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="G275" s="1">
         <f>VLOOKUP(E275,[1]Лист1!$D:$M,10,0)</f>
@@ -12994,7 +12991,7 @@
         <v>322</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="D276" s="4">
         <v>4301071062</v>
@@ -13003,7 +13000,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="G276" s="1">
         <f>VLOOKUP(E276,[1]Лист1!$D:$M,10,0)</f>
@@ -13015,10 +13012,10 @@
         <v>406</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D277" s="4">
         <v>4301135571</v>
@@ -13027,7 +13024,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G277" s="1">
         <f>VLOOKUP(E277,[1]Лист1!$D:$M,10,0)</f>
@@ -13039,10 +13036,10 @@
         <v>326</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D278" s="4">
         <v>4301135571</v>
@@ -13051,7 +13048,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G278" s="1">
         <f>VLOOKUP(E278,[1]Лист1!$D:$M,10,0)</f>
@@ -13060,13 +13057,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D279" s="4">
         <v>4301135571</v>
@@ -13075,7 +13072,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G279" s="1">
         <f>VLOOKUP(E279,[1]Лист1!$D:$M,10,0)</f>
@@ -13084,13 +13081,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D280" s="4">
         <v>4301135571</v>
@@ -13099,7 +13096,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G280" s="1"/>
     </row>
@@ -13108,10 +13105,10 @@
         <v>325</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D281" s="4">
         <v>4301135571</v>
@@ -13120,7 +13117,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G281" s="1">
         <f>VLOOKUP(E281,[1]Лист1!$D:$M,10,0)</f>
@@ -13204,10 +13201,10 @@
         <v>428</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D285" s="4">
         <v>4301071054</v>
@@ -13216,7 +13213,7 @@
         <v>4607111035639</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G285" s="1">
         <f>VLOOKUP(E285,[1]Лист1!$D:$M,10,0)</f>
@@ -13228,10 +13225,10 @@
         <v>336</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D286" s="4">
         <v>4301071054</v>
@@ -13240,7 +13237,7 @@
         <v>4607111035639</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G286" s="1">
         <f>VLOOKUP(E286,[1]Лист1!$D:$M,10,0)</f>
@@ -13255,7 +13252,7 @@
         <v>338</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D287" s="4">
         <v>4301135540</v>
@@ -13264,7 +13261,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G287" s="1">
         <f>VLOOKUP(E287,[1]Лист1!$D:$M,10,0)</f>
@@ -13273,13 +13270,13 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>338</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D288" s="4">
         <v>4301135540</v>
@@ -13288,7 +13285,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G288" s="1">
         <f>VLOOKUP(E288,[1]Лист1!$D:$M,10,0)</f>
@@ -13303,7 +13300,7 @@
         <v>338</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D289" s="4">
         <v>4301135540</v>
@@ -13312,7 +13309,7 @@
         <v>4607111035646</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G289" s="1">
         <f>VLOOKUP(E289,[1]Лист1!$D:$M,10,0)</f>
@@ -13321,7 +13318,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>350</v>
@@ -13636,10 +13633,10 @@
         <v>423</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D303" s="4">
         <v>4301132170</v>
@@ -13648,7 +13645,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G303" s="1">
         <f>VLOOKUP(E303,[1]Лист1!$D:$M,10,0)</f>
@@ -13660,10 +13657,10 @@
         <v>451</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D304" s="4">
         <v>4301132170</v>
@@ -13672,7 +13669,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G304" s="1">
         <f>VLOOKUP(E304,[1]Лист1!$D:$M,10,0)</f>
@@ -13684,10 +13681,10 @@
         <v>454</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D305" s="4">
         <v>4301132170</v>
@@ -13696,7 +13693,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G305" s="1">
         <f>VLOOKUP(E305,[1]Лист1!$D:$M,10,0)</f>
@@ -13708,10 +13705,10 @@
         <v>422</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D306" s="4">
         <v>4301132170</v>
@@ -13720,7 +13717,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="G306" s="1">
         <f>VLOOKUP(E306,[1]Лист1!$D:$M,10,0)</f>
@@ -13831,7 +13828,7 @@
         <v>461</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D311" s="4">
         <v>4301135318</v>
@@ -13854,7 +13851,7 @@
         <v>461</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D312" s="4">
         <v>4301135318</v>
@@ -13877,7 +13874,7 @@
         <v>461</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D313" s="4">
         <v>4301135318</v>
@@ -13900,7 +13897,7 @@
         <v>464</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D314" s="4">
         <v>4301135319</v>
@@ -13923,7 +13920,7 @@
         <v>464</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D315" s="4">
         <v>4301135319</v>
@@ -13946,7 +13943,7 @@
         <v>464</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D316" s="4">
         <v>4301135319</v>
@@ -14026,7 +14023,7 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>481</v>
@@ -14072,7 +14069,7 @@
     </row>
     <row r="322" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>485</v>
@@ -14118,7 +14115,7 @@
     </row>
     <row r="324" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>485</v>
@@ -14164,7 +14161,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B326" s="12" t="s">
         <v>489</v>
@@ -14187,7 +14184,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B327" s="12" t="s">
         <v>489</v>
@@ -14256,13 +14253,13 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D330" s="4">
         <v>4301190046</v>
@@ -14271,7 +14268,7 @@
         <v>4607111038951</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G330" s="1">
         <v>365</v>
@@ -14279,13 +14276,13 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D331" s="4">
         <v>4301190046</v>
@@ -14294,7 +14291,7 @@
         <v>4607111038951</v>
       </c>
       <c r="F331" s="5" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G331" s="1">
         <v>365</v>
@@ -14302,13 +14299,13 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D332" s="4">
         <v>4301070996</v>
@@ -14317,7 +14314,7 @@
         <v>4607111038654</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G332" s="1">
         <v>180</v>
@@ -14325,13 +14322,13 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D333" s="4">
         <v>4301070996</v>
@@ -14340,7 +14337,7 @@
         <v>4607111038654</v>
       </c>
       <c r="F333" s="5" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G333" s="1">
         <v>180</v>
@@ -14348,13 +14345,13 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D334" s="4">
         <v>4301071021</v>
@@ -14363,19 +14360,19 @@
         <v>4640242181325</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G334" s="1"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D335" s="4">
         <v>4301071021</v>
@@ -14384,19 +14381,19 @@
         <v>4640242181325</v>
       </c>
       <c r="F335" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G335" s="1"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D336" s="4">
         <v>4301071021</v>
@@ -14405,19 +14402,19 @@
         <v>4640242181325</v>
       </c>
       <c r="F336" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G336" s="1"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D337" s="4">
         <v>4301071021</v>
@@ -14426,19 +14423,19 @@
         <v>4640242181325</v>
       </c>
       <c r="F337" s="5" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G337" s="1"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D338" s="4">
         <v>4301135309</v>
@@ -14447,13 +14444,13 @@
         <v>4640242181332</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>316</v>
@@ -14477,13 +14474,13 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D340" s="4">
         <v>4301071014</v>
@@ -14492,19 +14489,19 @@
         <v>4640242181264</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G340" s="1"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D341" s="4">
         <v>4301071014</v>
@@ -14513,19 +14510,19 @@
         <v>4640242181264</v>
       </c>
       <c r="F341" s="5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G341" s="1"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D342" s="4">
         <v>4301135310</v>
@@ -14534,19 +14531,19 @@
         <v>4640242181318</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D343" s="4">
         <v>4301135310</v>
@@ -14555,19 +14552,19 @@
         <v>4640242181318</v>
       </c>
       <c r="F343" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G343" s="1"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D344" s="4">
         <v>4301135310</v>
@@ -14576,19 +14573,19 @@
         <v>4640242181318</v>
       </c>
       <c r="F344" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G344" s="1"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D345" s="4">
         <v>4301135306</v>
@@ -14597,19 +14594,19 @@
         <v>4640242181578</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D346" s="4">
         <v>4301135306</v>
@@ -14618,19 +14615,19 @@
         <v>4640242181578</v>
       </c>
       <c r="F346" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G346" s="1"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D347" s="4">
         <v>4301135306</v>
@@ -14639,19 +14636,19 @@
         <v>4640242181578</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G347" s="1"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D348" s="13">
         <v>4301135305</v>
@@ -14660,19 +14657,19 @@
         <v>4640242181394</v>
       </c>
       <c r="F348" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D349" s="4">
         <v>4301135305</v>
@@ -14681,19 +14678,19 @@
         <v>4640242181394</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D350" s="13">
         <v>4301135305</v>
@@ -14702,19 +14699,19 @@
         <v>4640242181394</v>
       </c>
       <c r="F350" s="15" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D351" s="4">
         <v>4301070993</v>
@@ -14723,19 +14720,19 @@
         <v>4640242180670</v>
       </c>
       <c r="F351" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D352" s="4">
         <v>4301070993</v>
@@ -14744,19 +14741,19 @@
         <v>4640242180670</v>
       </c>
       <c r="F352" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G352" s="1"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D353" s="4">
         <v>4301070993</v>
@@ -14765,19 +14762,19 @@
         <v>4640242180670</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G353" s="1"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D354" s="4">
         <v>4301135549</v>
@@ -14786,19 +14783,19 @@
         <v>4607111039095</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D355" s="4">
         <v>4301135549</v>
@@ -14807,19 +14804,19 @@
         <v>4607111039095</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G355" s="1"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D356" s="4">
         <v>4301135549</v>
@@ -14828,19 +14825,19 @@
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G356" s="1"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D357" s="4">
         <v>4301132104</v>
@@ -14849,19 +14846,19 @@
         <v>4640242181219</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D358" s="4">
         <v>4301070991</v>
@@ -14870,19 +14867,19 @@
         <v>4607111038180</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D359" s="4">
         <v>4301135304</v>
@@ -14891,19 +14888,19 @@
         <v>4640242181240</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D360" s="4">
         <v>4301135374</v>
@@ -14912,19 +14909,19 @@
         <v>4640242181424</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D361" s="4">
         <v>4301135374</v>
@@ -14933,19 +14930,19 @@
         <v>4640242181424</v>
       </c>
       <c r="F361" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G361" s="1"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D362" s="4">
         <v>4301135374</v>
@@ -14954,19 +14951,19 @@
         <v>4640242181424</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G362" s="1"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D363" s="4">
         <v>4301135374</v>
@@ -14975,19 +14972,19 @@
         <v>4640242181424</v>
       </c>
       <c r="F363" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G363" s="1"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D364" s="4">
         <v>4301071046</v>
@@ -14996,19 +14993,19 @@
         <v>4607111039354</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D365" s="4">
         <v>4301071046</v>
@@ -15017,19 +15014,19 @@
         <v>4607111039354</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G365" s="1"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D366" s="4">
         <v>4301071046</v>
@@ -15038,19 +15035,19 @@
         <v>4607111039354</v>
       </c>
       <c r="F366" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G366" s="1"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D367" s="4">
         <v>4301071047</v>
@@ -15059,19 +15056,19 @@
         <v>4607111039330</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D368" s="4">
         <v>4301071047</v>
@@ -15080,19 +15077,19 @@
         <v>4607111039330</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G368" s="1"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D369" s="4">
         <v>4301071047</v>
@@ -15101,19 +15098,19 @@
         <v>4607111039330</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G369" s="1"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D370" s="4">
         <v>4301071047</v>
@@ -15122,19 +15119,19 @@
         <v>4607111039330</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G370" s="1"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D371" s="4">
         <v>4301071051</v>
@@ -15143,19 +15140,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G371" s="1"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D372" s="4">
         <v>4301071051</v>
@@ -15164,19 +15161,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G372" s="1"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D373" s="4">
         <v>4301071051</v>
@@ -15185,19 +15182,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G373" s="1"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D374" s="4">
         <v>4301071051</v>
@@ -15206,19 +15203,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G374" s="1"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D375" s="4">
         <v>4301071051</v>
@@ -15227,19 +15224,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G375" s="1"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D376" s="4">
         <v>4301071038</v>
@@ -15248,19 +15245,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G376" s="1"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D377" s="4">
         <v>4301071038</v>
@@ -15269,19 +15266,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G377" s="1"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D378" s="4">
         <v>4301071038</v>
@@ -15290,19 +15287,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G378" s="1"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D379" s="4">
         <v>4301071038</v>
@@ -15311,19 +15308,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G379" s="1"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D380" s="4">
         <v>4301071038</v>
@@ -15332,19 +15329,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G380" s="1"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D381" s="4">
         <v>4301071049</v>
@@ -15353,19 +15350,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G381" s="1"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D382" s="4">
         <v>4301071049</v>
@@ -15374,19 +15371,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G382" s="1"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D383" s="4">
         <v>4301071049</v>
@@ -15395,19 +15392,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G383" s="1"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D384" s="4">
         <v>4301071049</v>
@@ -15416,19 +15413,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F384" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G384" s="1"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D385" s="4">
         <v>4301071049</v>
@@ -15437,19 +15434,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F385" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G385" s="1"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D386" s="4">
         <v>4301071039</v>
@@ -15458,19 +15455,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D387" s="4">
         <v>4301071039</v>
@@ -15479,19 +15476,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G387" s="1"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D388" s="4">
         <v>4301071039</v>
@@ -15500,19 +15497,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G388" s="1"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D389" s="4">
         <v>4301071039</v>
@@ -15521,19 +15518,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G389" s="1"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D390" s="4">
         <v>4301071039</v>
@@ -15542,19 +15539,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F390" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G390" s="1"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D391" s="4">
         <v>4301135696</v>
@@ -15563,19 +15560,19 @@
         <v>4620207490235</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D392" s="4">
         <v>4301135696</v>
@@ -15584,19 +15581,19 @@
         <v>4620207490235</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G392" s="1"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D393" s="4">
         <v>4301135696</v>
@@ -15605,19 +15602,19 @@
         <v>4620207490235</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="G393" s="1"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D394" s="4">
         <v>4301135707</v>
@@ -15626,19 +15623,19 @@
         <v>4620207490198</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D395" s="4">
         <v>4301135707</v>
@@ -15647,19 +15644,19 @@
         <v>4620207490198</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G395" s="1"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D396" s="4">
         <v>4301135707</v>
@@ -15668,19 +15665,19 @@
         <v>4620207490198</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G396" s="1"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D397" s="4">
         <v>4301135697</v>
@@ -15689,19 +15686,19 @@
         <v>4620207490259</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D398" s="4">
         <v>4301135697</v>
@@ -15710,19 +15707,19 @@
         <v>4620207490259</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G398" s="1"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D399" s="4">
         <v>4301135697</v>
@@ -15731,19 +15728,19 @@
         <v>4620207490259</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="G399" s="1"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D400" s="4">
         <v>4301071044</v>
@@ -15752,19 +15749,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G400" s="1"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D401" s="4">
         <v>4301071044</v>
@@ -15773,19 +15770,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G401" s="1"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D402" s="4">
         <v>4301071044</v>
@@ -15794,19 +15791,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G402" s="1"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D403" s="4">
         <v>4301071044</v>
@@ -15815,19 +15812,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G403" s="1"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D404" s="4">
         <v>4301071044</v>
@@ -15836,19 +15833,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G404" s="1"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D405" s="4">
         <v>4301071045</v>
@@ -15857,19 +15854,19 @@
         <v>4607111039392</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D406" s="4">
         <v>4301071045</v>
@@ -15878,19 +15875,19 @@
         <v>4607111039392</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G406" s="1"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D407" s="4">
         <v>4301071045</v>
@@ -15899,19 +15896,19 @@
         <v>4607111039392</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G407" s="1"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D408" s="4">
         <v>4301071031</v>
@@ -15920,19 +15917,19 @@
         <v>4607111038982</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D409" s="4">
         <v>4301071031</v>
@@ -15941,19 +15938,19 @@
         <v>4607111038982</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D410" s="4">
         <v>4301071031</v>
@@ -15962,19 +15959,19 @@
         <v>4607111038982</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D411" s="4">
         <v>4301135591</v>
@@ -15983,7 +15980,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="G411" s="1">
         <v>180</v>
@@ -15991,13 +15988,13 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D412" s="4">
         <v>4301135591</v>
@@ -16006,7 +16003,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="G412" s="1">
         <v>180</v>
@@ -16014,13 +16011,13 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D413" s="4">
         <v>4301135591</v>
@@ -16029,7 +16026,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="G413" s="1">
         <v>180</v>
@@ -16037,13 +16034,13 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D414" s="4">
         <v>4301135402</v>
@@ -16052,19 +16049,19 @@
         <v>4640242181493</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G414" s="1"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D415" s="4">
         <v>4301135402</v>
@@ -16073,19 +16070,19 @@
         <v>4640242181493</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G415" s="1"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D416" s="4">
         <v>4301135607</v>
@@ -16094,19 +16091,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G416" s="1"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D417" s="4">
         <v>4301135607</v>
@@ -16115,19 +16112,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G417" s="1"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D418" s="4">
         <v>4301135607</v>
@@ -16136,19 +16133,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G418" s="1"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D419" s="4">
         <v>4301135607</v>
@@ -16157,19 +16154,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D420" s="4">
         <v>4301190068</v>
@@ -16178,19 +16175,19 @@
         <v>4620207490365</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D421" s="4">
         <v>4301190068</v>
@@ -16199,19 +16196,19 @@
         <v>4620207490365</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G421" s="1"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D422" s="4">
         <v>4301190068</v>
@@ -16220,19 +16217,19 @@
         <v>4620207490365</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G422" s="1"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D423" s="4">
         <v>4301190070</v>
@@ -16241,19 +16238,19 @@
         <v>4620207490419</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G423" s="1"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D424" s="4">
         <v>4301190070</v>
@@ -16262,19 +16259,19 @@
         <v>4620207490419</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="G424" s="1"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D425" s="4">
         <v>4301071032</v>
@@ -16283,7 +16280,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G425" s="1">
         <v>180</v>
@@ -16291,13 +16288,13 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D426" s="4">
         <v>4301071032</v>
@@ -16306,7 +16303,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G426" s="1">
         <v>180</v>
@@ -16314,13 +16311,13 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D427" s="4">
         <v>4301071032</v>
@@ -16329,7 +16326,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G427" s="1">
         <v>180</v>
@@ -16337,13 +16334,13 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D428" s="4">
         <v>4301071032</v>
@@ -16352,7 +16349,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G428" s="1">
         <v>180</v>
@@ -16360,13 +16357,13 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D429" s="4">
         <v>4301071032</v>
@@ -16375,7 +16372,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G429" s="1">
         <v>180</v>
@@ -16383,13 +16380,13 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D430" s="4">
         <v>4301135404</v>
@@ -16398,19 +16395,19 @@
         <v>4640242181516</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="G430" s="1"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D431" s="4">
         <v>4301071090</v>
@@ -16419,7 +16416,7 @@
         <v>4620207490075</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G431" s="1">
         <v>180</v>
@@ -16427,13 +16424,13 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D432" s="4">
         <v>4301071090</v>
@@ -16442,7 +16439,7 @@
         <v>4620207490075</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G432" s="1">
         <v>180</v>
@@ -16450,13 +16447,13 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D433" s="4">
         <v>4301071092</v>
@@ -16465,7 +16462,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G433" s="1">
         <v>180</v>
@@ -16473,13 +16470,13 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D434" s="4">
         <v>4301071092</v>
@@ -16488,7 +16485,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G434" s="1">
         <v>180</v>
@@ -16496,13 +16493,13 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D435" s="4">
         <v>4301071092</v>
@@ -16511,7 +16508,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="G435" s="1">
         <v>180</v>
@@ -16519,13 +16516,13 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D436" s="4">
         <v>4301071091</v>
@@ -16534,7 +16531,7 @@
         <v>4620207490044</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G436" s="1">
         <v>180</v>
@@ -16542,13 +16539,13 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D437" s="4">
         <v>4301071091</v>
@@ -16557,7 +16554,7 @@
         <v>4620207490044</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G437" s="1">
         <v>180</v>
@@ -16565,13 +16562,13 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D438" s="4">
         <v>4301132044</v>
@@ -16580,19 +16577,19 @@
         <v>4607111036971</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D439" s="4">
         <v>4301135127</v>
@@ -16601,19 +16598,19 @@
         <v>4607111036995</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D440" s="4">
         <v>4301135826</v>
@@ -16622,7 +16619,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G440" s="1">
         <v>180</v>
@@ -16630,13 +16627,13 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D441" s="4">
         <v>4301135826</v>
@@ -16645,7 +16642,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G441" s="1">
         <v>180</v>
@@ -16653,13 +16650,13 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D442" s="4">
         <v>4301135826</v>
@@ -16668,7 +16665,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G442" s="1">
         <v>180</v>
@@ -16676,13 +16673,13 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="D443" s="4">
         <v>4301135826</v>
@@ -16691,7 +16688,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="G443" s="1">
         <v>180</v>
@@ -16699,13 +16696,13 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D444" s="4">
         <v>4301071074</v>
@@ -16714,19 +16711,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G444" s="1"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D445" s="4">
         <v>4301071074</v>
@@ -16735,19 +16732,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G445" s="1"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="D446" s="4">
         <v>4301071074</v>
@@ -16756,19 +16753,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D447" s="4">
         <v>4301135763</v>
@@ -16777,19 +16774,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G447" s="1"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D448" s="4">
         <v>4301135763</v>
@@ -16798,19 +16795,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G448" s="1"/>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D449" s="4">
         <v>4301135763</v>
@@ -16819,19 +16816,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G449" s="1"/>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D450" s="4">
         <v>4301135763</v>
@@ -16840,19 +16837,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G450" s="1"/>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D451" s="4">
         <v>4301135665</v>
@@ -16861,19 +16858,19 @@
         <v>4607111039729</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="G451" s="1"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D452" s="4">
         <v>4301135702</v>
@@ -16882,19 +16879,19 @@
         <v>4620207490228</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="G452" s="1"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D453" s="4">
         <v>4301071090</v>
@@ -16903,22 +16900,22 @@
         <v>4620207490075</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G453" s="1"/>
       <c r="H453" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D454" s="4">
         <v>4301071091</v>
@@ -16927,22 +16924,22 @@
         <v>4620207490044</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D455" s="4">
         <v>4301071032</v>
@@ -16951,22 +16948,22 @@
         <v>4607111038999</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D456" s="4">
         <v>4301071044</v>
@@ -16975,22 +16972,22 @@
         <v>4607111039385</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D457" s="4">
         <v>4301071038</v>
@@ -16999,22 +16996,22 @@
         <v>4607111039248</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D458" s="4">
         <v>4301071051</v>
@@ -17023,22 +17020,22 @@
         <v>4607111039262</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D459" s="4">
         <v>4301071049</v>
@@ -17047,22 +17044,22 @@
         <v>4607111039293</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D460" s="4">
         <v>4301071039</v>
@@ -17071,22 +17068,22 @@
         <v>4607111039279</v>
       </c>
       <c r="F460" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D461" s="4">
         <v>4301135760</v>
@@ -17095,22 +17092,22 @@
         <v>4620207491010</v>
       </c>
       <c r="F461" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D462" s="4">
         <v>4301132190</v>
@@ -17119,22 +17116,22 @@
         <v>4607111036537</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G462" s="1"/>
       <c r="H462" s="16" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D463" s="4">
         <v>4301135768</v>
@@ -17143,19 +17140,19 @@
         <v>4620207491034</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G463" s="1"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D464" s="4">
         <v>4301071097</v>
@@ -17164,19 +17161,19 @@
         <v>4620207491096</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G464" s="1"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D465" s="4">
         <v>4301071097</v>
@@ -17185,19 +17182,19 @@
         <v>4620207491096</v>
       </c>
       <c r="F465" s="5" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="G465" s="1"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D466" s="4">
         <v>4301132227</v>
@@ -17206,19 +17203,19 @@
         <v>4620207491133</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G466" s="1"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D467" s="4">
         <v>4301132227</v>
@@ -17227,19 +17224,19 @@
         <v>4620207491133</v>
       </c>
       <c r="F467" s="5" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="G467" s="1"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D468" s="4">
         <v>4301135753</v>
@@ -17248,19 +17245,19 @@
         <v>4620207490914</v>
       </c>
       <c r="F468" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G468" s="1"/>
     </row>
     <row r="469" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D469" s="4">
         <v>4301070962</v>
@@ -17269,19 +17266,19 @@
         <v>4607111038609</v>
       </c>
       <c r="F469" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G469" s="1"/>
     </row>
     <row r="470" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D470" s="4">
         <v>4301070959</v>
@@ -17290,19 +17287,19 @@
         <v>4607111038616</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G470" s="1"/>
     </row>
     <row r="471" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D471" s="4">
         <v>4301071075</v>
@@ -17311,19 +17308,19 @@
         <v>4620207491102</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G471" s="1"/>
     </row>
     <row r="472" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="D472" s="4">
         <v>4301071075</v>
@@ -17332,19 +17329,19 @@
         <v>4620207491102</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="G472" s="1"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D473" s="4">
         <v>4301135574</v>
@@ -17353,19 +17350,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D474" s="4">
         <v>4301135550</v>
@@ -17374,19 +17371,19 @@
         <v>4607111034199</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D475" s="4">
         <v>4301135753</v>
@@ -17395,19 +17392,19 @@
         <v>4620207490914</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D476" s="4">
         <v>4301131046</v>
@@ -17416,19 +17413,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G476" s="1"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D477" s="4">
         <v>4301131047</v>
@@ -17437,19 +17434,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D478" s="4">
         <v>4301132188</v>
@@ -17458,19 +17455,19 @@
         <v>4607111036605</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D479" s="4">
         <v>4301132179</v>
@@ -17479,19 +17476,19 @@
         <v>4607111035691</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D480" s="4">
         <v>4301135570</v>
@@ -17500,19 +17497,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D481" s="4">
         <v>4301071049</v>
@@ -17521,19 +17518,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D482" s="4">
         <v>4301135555</v>
@@ -17542,19 +17539,19 @@
         <v>4607111034014</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D483" s="4">
         <v>4301135532</v>
@@ -17563,19 +17560,19 @@
         <v>4607111033994</v>
       </c>
       <c r="F483" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D484" s="4">
         <v>4301071094</v>
@@ -17584,19 +17581,19 @@
         <v>4620207491140</v>
       </c>
       <c r="F484" s="5" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="G484" s="1"/>
     </row>
     <row r="485" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="D485" s="4">
         <v>4301071093</v>
@@ -17605,19 +17602,19 @@
         <v>4620207490709</v>
       </c>
       <c r="F485" s="5" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="G485" s="1"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="10" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D486" s="4">
         <v>4301132190</v>
@@ -17626,19 +17623,19 @@
         <v>4607111036537</v>
       </c>
       <c r="F486" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G486" s="1"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D487" s="4">
         <v>4301132188</v>
@@ -17647,19 +17644,19 @@
         <v>4607111036605</v>
       </c>
       <c r="F487" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D488" s="4">
         <v>4301071090</v>
@@ -17668,19 +17665,19 @@
         <v>4620207490075</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G488" s="1"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D489" s="4">
         <v>4301071091</v>
@@ -17689,19 +17686,19 @@
         <v>4620207490044</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="G489" s="1"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D490" s="4">
         <v>4301071044</v>
@@ -17710,19 +17707,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G490" s="1"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D491" s="4">
         <v>4301135574</v>
@@ -17731,19 +17728,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G491" s="1"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D492" s="4">
         <v>4301131047</v>
@@ -17752,19 +17749,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G492" s="1"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D493" s="4">
         <v>4301131046</v>
@@ -17773,19 +17770,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D494" s="4">
         <v>4301135793</v>
@@ -17794,19 +17791,19 @@
         <v>4620207491003</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D495" s="4">
         <v>4301135760</v>
@@ -17815,19 +17812,19 @@
         <v>4620207491010</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>183</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D496" s="4">
         <v>4301135285</v>
@@ -17842,13 +17839,13 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D497" s="4">
         <v>4301136070</v>
@@ -17863,13 +17860,13 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D498" s="4">
         <v>4301071051</v>
@@ -17878,19 +17875,19 @@
         <v>4607111039262</v>
       </c>
       <c r="F498" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G498" s="1"/>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="10" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D499" s="4">
         <v>4301071038</v>
@@ -17899,19 +17896,19 @@
         <v>4607111039248</v>
       </c>
       <c r="F499" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G499" s="1"/>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="10" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D500" s="4">
         <v>4301071049</v>
@@ -17920,19 +17917,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="G500" s="1"/>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="10" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D501" s="4">
         <v>4301071039</v>
@@ -17941,19 +17938,19 @@
         <v>4607111039279</v>
       </c>
       <c r="F501" s="5" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G501" s="1"/>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="10" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D502" s="4">
         <v>4301135555</v>
@@ -17962,19 +17959,19 @@
         <v>4607111034014</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G502" s="1"/>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D503" s="4">
         <v>4301135532</v>
@@ -17983,19 +17980,19 @@
         <v>4607111033994</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G503" s="1"/>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D504" s="4">
         <v>4301135550</v>
@@ -18004,19 +18001,19 @@
         <v>4607111034199</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G504" s="1"/>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="10" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D505" s="4">
         <v>4301135753</v>
@@ -18025,19 +18022,19 @@
         <v>4620207490914</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G505" s="1"/>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="10" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D506" s="4">
         <v>4301135570</v>
@@ -18046,19 +18043,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G506" s="1"/>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="10" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D507" s="4">
         <v>4301132179</v>
@@ -18067,19 +18064,19 @@
         <v>4607111035691</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G507" s="1"/>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="10" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D508" s="4">
         <v>4301071063</v>
@@ -18088,40 +18085,40 @@
         <v>4607111039019</v>
       </c>
       <c r="F508" s="5" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G508" s="1"/>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>494</v>
+        <v>1008</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>495</v>
+        <v>1009</v>
       </c>
       <c r="D509" s="4">
-        <v>4301071000</v>
+        <v>4301071100</v>
       </c>
       <c r="E509" s="3">
         <v>4607111038708</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>496</v>
+        <v>1010</v>
       </c>
       <c r="G509" s="1"/>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="10" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D510" s="4">
         <v>4301135692</v>
@@ -18130,19 +18127,19 @@
         <v>4620207490570</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D511" s="4">
         <v>4301135692</v>
@@ -18151,19 +18148,19 @@
         <v>4620207490570</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="G511" s="1"/>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C512" s="18" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D512" s="19">
         <v>4301071038</v>
@@ -18172,16 +18169,16 @@
         <v>4607111039248</v>
       </c>
       <c r="F512" s="20" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="B513" s="18" t="s">
         <v>106</v>
@@ -18200,18 +18197,18 @@
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D514" s="19">
         <v>4301071039</v>
@@ -18220,22 +18217,22 @@
         <v>4607111039279</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D515" s="19">
         <v>4301071051</v>
@@ -18244,16 +18241,16 @@
         <v>4607111039262</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B516" s="18" t="s">
         <v>291</v>
@@ -18272,18 +18269,18 @@
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B517" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D517" s="19">
         <v>4301071029</v>
@@ -18296,12 +18293,12 @@
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>300</v>
@@ -18320,12 +18317,12 @@
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="B519" s="18" t="s">
         <v>316</v>
@@ -18344,18 +18341,18 @@
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B520" s="18" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C520" s="18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D520" s="19">
         <v>4301135375</v>
@@ -18364,22 +18361,22 @@
         <v>4640242181486</v>
       </c>
       <c r="F520" s="20" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D521" s="4">
         <v>4301135760</v>
@@ -18388,22 +18385,22 @@
         <v>4620207491010</v>
       </c>
       <c r="F521" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B522" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C522" s="18" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D522" s="19">
         <v>4301071050</v>
@@ -18412,22 +18409,22 @@
         <v>4607111036216</v>
       </c>
       <c r="F522" s="20" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G522" s="21"/>
       <c r="H522" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D523" s="19">
         <v>4301071049</v>
@@ -18436,22 +18433,22 @@
         <v>4607111039293</v>
       </c>
       <c r="F523" s="20" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="B524" s="18" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D524" s="19">
         <v>4301135532</v>
@@ -18460,22 +18457,22 @@
         <v>4607111033994</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="D525" s="4">
         <v>4301135555</v>
@@ -18484,22 +18481,22 @@
         <v>4607111034014</v>
       </c>
       <c r="F525" s="5" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D526" s="4">
         <v>4301135793</v>
@@ -18508,16 +18505,16 @@
         <v>4620207491003</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>380</v>
@@ -18536,18 +18533,18 @@
       </c>
       <c r="G527" s="21"/>
       <c r="H527" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D528" s="4">
         <v>4301135518</v>
@@ -18556,22 +18553,22 @@
         <v>4640242181561</v>
       </c>
       <c r="F528" s="5" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B529" s="18" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C529" s="18" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D529" s="19">
         <v>4301135374</v>
@@ -18580,22 +18577,22 @@
         <v>4640242181424</v>
       </c>
       <c r="F529" s="20" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B530" s="18" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D530" s="19">
         <v>4301132079</v>
@@ -18608,18 +18605,18 @@
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B531" s="18" t="s">
         <v>162</v>
       </c>
       <c r="C531" s="18" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D531" s="19">
         <v>4301071056</v>
@@ -18628,16 +18625,16 @@
         <v>4640242180250</v>
       </c>
       <c r="F531" s="20" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>297</v>
@@ -18656,18 +18653,18 @@
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="D533" s="4">
         <v>4301071109</v>
@@ -18676,22 +18673,22 @@
         <v>4607111035929</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D534" s="4">
         <v>4301135550</v>
@@ -18700,22 +18697,22 @@
         <v>4607111034199</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B535" s="18" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C535" s="18" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D535" s="19">
         <v>4301132186</v>
@@ -18724,22 +18721,22 @@
         <v>4607111036520</v>
       </c>
       <c r="F535" s="20" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B536" s="18" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C536" s="18" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D536" s="19">
         <v>4301071047</v>
@@ -18748,22 +18745,22 @@
         <v>4607111039330</v>
       </c>
       <c r="F536" s="20" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D537" s="4">
         <v>4301131047</v>
@@ -18772,22 +18769,22 @@
         <v>4607111034120</v>
       </c>
       <c r="F537" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="D538" s="4">
         <v>4301135763</v>
@@ -18796,22 +18793,22 @@
         <v>4620207491027</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B539" s="18" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C539" s="18" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D539" s="19">
         <v>4301135405</v>
@@ -18820,22 +18817,22 @@
         <v>4640242181523</v>
       </c>
       <c r="F539" s="20" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B540" s="18" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D540" s="19">
         <v>4301135402</v>
@@ -18844,22 +18841,22 @@
         <v>4640242181493</v>
       </c>
       <c r="F540" s="20" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D541" s="4">
         <v>4301131046</v>
@@ -18868,22 +18865,22 @@
         <v>4607111034137</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="D542" s="4">
         <v>4301136079</v>
@@ -18892,22 +18889,22 @@
         <v>4607025784319</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="D543" s="4">
         <v>4301135753</v>
@@ -18916,22 +18913,22 @@
         <v>4620207490914</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D544" s="4">
         <v>4301135778</v>
@@ -18940,22 +18937,22 @@
         <v>4620207490853</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="G544" s="21"/>
       <c r="H544" s="16" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D545" s="4">
         <v>4301132179</v>
@@ -18964,22 +18961,22 @@
         <v>4607111035691</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="G545" s="21"/>
       <c r="H545" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D546" s="4">
         <v>4301132190</v>
@@ -18988,16 +18985,16 @@
         <v>4607111036537</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G546" s="21"/>
       <c r="H546" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B547" s="18" t="s">
         <v>373</v>
@@ -19016,18 +19013,18 @@
       </c>
       <c r="G547" s="21"/>
       <c r="H547" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="D548" s="4">
         <v>4301135571</v>
@@ -19036,22 +19033,22 @@
         <v>4607111035028</v>
       </c>
       <c r="F548" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="G548" s="21"/>
       <c r="H548" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D549" s="4">
         <v>4301135768</v>
@@ -19060,16 +19057,16 @@
         <v>4620207491034</v>
       </c>
       <c r="F549" s="5" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="G549" s="21"/>
       <c r="H549" s="16" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="550" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B550" s="18" t="s">
         <v>485</v>
@@ -19088,12 +19085,12 @@
       </c>
       <c r="G550" s="21"/>
       <c r="H550" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="17" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B551" s="18" t="s">
         <v>366</v>
@@ -19112,18 +19109,18 @@
       </c>
       <c r="G551" s="21"/>
       <c r="H551" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="10" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D552" s="4">
         <v>4301070990</v>
@@ -19132,22 +19129,22 @@
         <v>4607111038494</v>
       </c>
       <c r="F552" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G552" s="1"/>
       <c r="H552" s="16" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B553" s="18" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C553" s="18" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D553" s="19">
         <v>4301070990</v>
@@ -19156,16 +19153,16 @@
         <v>4607111038494</v>
       </c>
       <c r="F553" s="20" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="G553" s="21"/>
       <c r="H553" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B554" s="18" t="s">
         <v>152</v>
@@ -19184,18 +19181,18 @@
       </c>
       <c r="G554" s="21"/>
       <c r="H554" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D555" s="4">
         <v>4301135549</v>
@@ -19204,22 +19201,22 @@
         <v>4607111039095</v>
       </c>
       <c r="F555" s="5" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B556" s="18" t="s">
         <v>183</v>
       </c>
       <c r="C556" s="18" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D556" s="19">
         <v>4301135285</v>
@@ -19232,18 +19229,18 @@
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D557" s="4">
         <v>4301135607</v>
@@ -19252,16 +19249,16 @@
         <v>4607111039613</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B558" s="18" t="s">
         <v>125</v>
@@ -19280,18 +19277,18 @@
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="D559" s="4">
         <v>4301135574</v>
@@ -19300,22 +19297,22 @@
         <v>4607111033659</v>
       </c>
       <c r="F559" s="5" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B560" s="18" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C560" s="18" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D560" s="19">
         <v>4301071044</v>
@@ -19324,22 +19321,22 @@
         <v>4607111039385</v>
       </c>
       <c r="F560" s="20" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D561" s="19">
         <v>4301071031</v>
@@ -19348,16 +19345,16 @@
         <v>4607111038982</v>
       </c>
       <c r="F561" s="20" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B562" s="18" t="s">
         <v>179</v>
@@ -19376,18 +19373,18 @@
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D563" s="4">
         <v>4301136070</v>
@@ -19400,18 +19397,18 @@
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B564" s="18" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C564" s="18" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D564" s="19">
         <v>4301071046</v>
@@ -19420,22 +19417,22 @@
         <v>4607111039354</v>
       </c>
       <c r="F564" s="20" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="565" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B565" s="18" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="C565" s="18" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D565" s="19">
         <v>4301070959</v>
@@ -19444,22 +19441,22 @@
         <v>4607111038616</v>
       </c>
       <c r="F565" s="20" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="566" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D566" s="19">
         <v>4301070962</v>
@@ -19468,16 +19465,16 @@
         <v>4607111038609</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B567" s="18" t="s">
         <v>252</v>
@@ -19496,18 +19493,18 @@
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D568" s="19">
         <v>4301135570</v>
@@ -19516,22 +19513,22 @@
         <v>4607111035806</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D569" s="19">
         <v>4301071032</v>
@@ -19540,22 +19537,22 @@
         <v>4607111038999</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D570" s="19">
         <v>4301071045</v>
@@ -19564,16 +19561,16 @@
         <v>4607111039392</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B571" s="18" t="s">
         <v>481</v>
@@ -19592,18 +19589,18 @@
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="B572" s="18" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C572" s="18" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D572" s="19">
         <v>4301071054</v>
@@ -19612,22 +19609,22 @@
         <v>4607111035639</v>
       </c>
       <c r="F572" s="20" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G572" s="21"/>
       <c r="H572" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B573" s="18" t="s">
         <v>338</v>
       </c>
       <c r="C573" s="18" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D573" s="19">
         <v>4301135540</v>
@@ -19636,11 +19633,11 @@
         <v>4607111035646</v>
       </c>
       <c r="F573" s="20" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G573" s="21"/>
       <c r="H573" s="22" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\KSK_Simf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D7369F-127D-4D67-BFFC-32486B8D11FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AEA64-2A93-403B-A258-3F3EE5F38D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1012">
   <si>
     <t>1С</t>
   </si>
@@ -3038,12 +3038,6 @@
     <t>P004806</t>
   </si>
   <si>
-    <t>SU003384</t>
-  </si>
-  <si>
-    <t>P004205</t>
-  </si>
-  <si>
     <t>Жареные вареники с картофелем и беконом Добросельские 0,2 кг. ТМ Стародворье  ПОКОМ</t>
   </si>
   <si>
@@ -3072,6 +3066,15 @@
   </si>
   <si>
     <t>Пельмени «Сочные» 0,8 сфера ТМ «Медвежье ушко»</t>
+  </si>
+  <si>
+    <t>SU003944</t>
+  </si>
+  <si>
+    <t>P005058</t>
+  </si>
+  <si>
+    <t>Снеки «Хотстеры с сыром» Фикс.вес 0,25 ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -6331,7 +6334,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11018,10 +11021,10 @@
         <v>109</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D194" s="4">
         <v>4301071109</v>
@@ -11030,7 +11033,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -11042,10 +11045,10 @@
         <v>88</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D195" s="4">
         <v>4301071109</v>
@@ -11054,7 +11057,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -11402,10 +11405,10 @@
         <v>520</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D210" s="4">
         <v>4301071100</v>
@@ -11414,7 +11417,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G210" s="1"/>
     </row>
@@ -11423,10 +11426,10 @@
         <v>156</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D211" s="4">
         <v>4301071100</v>
@@ -11435,7 +11438,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G211" s="1"/>
     </row>
@@ -13081,7 +13084,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>883</v>
@@ -14771,19 +14774,19 @@
         <v>573</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D354" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E354" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>547</v>
+        <v>1011</v>
       </c>
       <c r="G354" s="1"/>
     </row>
@@ -14792,19 +14795,19 @@
         <v>760</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D355" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E355" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>547</v>
+        <v>1011</v>
       </c>
       <c r="G355" s="1"/>
     </row>
@@ -14813,19 +14816,19 @@
         <v>547</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D356" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E356" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>547</v>
+        <v>1011</v>
       </c>
       <c r="G356" s="1"/>
     </row>
@@ -16607,10 +16610,10 @@
         <v>879</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D440" s="4">
         <v>4301135826</v>
@@ -16630,10 +16633,10 @@
         <v>890</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D441" s="4">
         <v>4301135826</v>
@@ -16653,10 +16656,10 @@
         <v>891</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D442" s="4">
         <v>4301135826</v>
@@ -16676,10 +16679,10 @@
         <v>870</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D443" s="4">
         <v>4301135826</v>
@@ -18094,10 +18097,10 @@
         <v>993</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D509" s="4">
         <v>4301071100</v>
@@ -18106,13 +18109,13 @@
         <v>4607111038708</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="G509" s="1"/>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="10" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>997</v>
@@ -18661,10 +18664,10 @@
         <v>808</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D533" s="4">
         <v>4301071109</v>
@@ -18673,7 +18676,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -19189,19 +19192,19 @@
         <v>830</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="D555" s="4">
-        <v>4301135549</v>
+        <v>4301135824</v>
       </c>
       <c r="E555" s="3">
         <v>4607111039095</v>
       </c>
       <c r="F555" s="5" t="s">
-        <v>547</v>
+        <v>1011</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\KSK_Simf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AEA64-2A93-403B-A258-3F3EE5F38D6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C8746B-DEB0-4B63-9429-D81F623734EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1967,12 +1967,6 @@
     <t>ЖАР-ладушки с мясом 0,2кг ТМ Стародворье  ПОКОМ</t>
   </si>
   <si>
-    <t>SU003721</t>
-  </si>
-  <si>
-    <t>P004811</t>
-  </si>
-  <si>
     <t>Снеки «ЖАР-ладушки с мясом» Фикс.вес 0,2 ТМ «Стародворье»</t>
   </si>
   <si>
@@ -3075,6 +3069,12 @@
   </si>
   <si>
     <t>Снеки «Хотстеры с сыром» Фикс.вес 0,25 ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>SU003963</t>
+  </si>
+  <si>
+    <t>P005095</t>
   </si>
 </sst>
 </file>
@@ -6334,7 +6334,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6496,10 +6496,10 @@
         <v>328</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D7" s="4">
         <v>4301135574</v>
@@ -6508,7 +6508,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G7" s="1">
         <f>VLOOKUP(E7,[1]Лист1!$D:$M,10,0)</f>
@@ -6520,10 +6520,10 @@
         <v>341</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D8" s="4">
         <v>4301135574</v>
@@ -6532,7 +6532,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G8" s="1">
         <f>VLOOKUP(E8,[1]Лист1!$D:$M,10,0)</f>
@@ -6544,10 +6544,10 @@
         <v>218</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D9" s="4">
         <v>4301135574</v>
@@ -6556,7 +6556,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G9" s="1">
         <f>VLOOKUP(E9,[1]Лист1!$D:$M,10,0)</f>
@@ -6568,10 +6568,10 @@
         <v>186</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D10" s="4">
         <v>4301135574</v>
@@ -6580,7 +6580,7 @@
         <v>4607111033659</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G10" s="1">
         <f>VLOOKUP(E10,[1]Лист1!$D:$M,10,0)</f>
@@ -6592,10 +6592,10 @@
         <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D11" s="4">
         <v>4301135793</v>
@@ -6604,14 +6604,14 @@
         <v>4620207491003</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G11" s="1" t="e">
         <f>VLOOKUP(E11,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6619,10 +6619,10 @@
         <v>96</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D12" s="4">
         <v>4301135793</v>
@@ -6631,14 +6631,14 @@
         <v>4620207491003</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G12" s="1" t="e">
         <f>VLOOKUP(E12,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6646,10 +6646,10 @@
         <v>189</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D13" s="4">
         <v>4301135793</v>
@@ -6658,25 +6658,25 @@
         <v>4620207491003</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G13" s="1" t="e">
         <f>VLOOKUP(E13,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D14" s="4">
         <v>4301135793</v>
@@ -6685,19 +6685,19 @@
         <v>4620207491003</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D15" s="4">
         <v>4301135793</v>
@@ -6706,7 +6706,7 @@
         <v>4620207491003</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -6715,10 +6715,10 @@
         <v>219</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D16" s="4">
         <v>4301135768</v>
@@ -6727,14 +6727,14 @@
         <v>4620207491034</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G16" s="1" t="e">
         <f>VLOOKUP(E16,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6742,10 +6742,10 @@
         <v>415</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D17" s="4">
         <v>4301135768</v>
@@ -6754,14 +6754,14 @@
         <v>4620207491034</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G17" s="1" t="e">
         <f>VLOOKUP(E17,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6769,10 +6769,10 @@
         <v>421</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D18" s="4">
         <v>4301135768</v>
@@ -6781,14 +6781,14 @@
         <v>4620207491034</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G18" s="1" t="e">
         <f>VLOOKUP(E18,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6796,10 +6796,10 @@
         <v>190</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D19" s="4">
         <v>4301135768</v>
@@ -6808,25 +6808,25 @@
         <v>4620207491034</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G19" s="1" t="e">
         <f>VLOOKUP(E19,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D20" s="4">
         <v>4301135768</v>
@@ -6835,19 +6835,19 @@
         <v>4620207491034</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D21" s="4">
         <v>4301135768</v>
@@ -6856,7 +6856,7 @@
         <v>4620207491034</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -6865,10 +6865,10 @@
         <v>74</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D22" s="4">
         <v>4301135760</v>
@@ -6877,14 +6877,14 @@
         <v>4620207491010</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G22" s="1" t="e">
         <f>VLOOKUP(E22,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -6892,10 +6892,10 @@
         <v>97</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D23" s="4">
         <v>4301135760</v>
@@ -6904,14 +6904,14 @@
         <v>4620207491010</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G23" s="1" t="e">
         <f>VLOOKUP(E23,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -6919,10 +6919,10 @@
         <v>191</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D24" s="4">
         <v>4301135760</v>
@@ -6931,25 +6931,25 @@
         <v>4620207491010</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G24" s="1" t="e">
         <f>VLOOKUP(E24,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D25" s="4">
         <v>4301135760</v>
@@ -6958,19 +6958,19 @@
         <v>4620207491010</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D26" s="4">
         <v>4301135760</v>
@@ -6979,7 +6979,7 @@
         <v>4620207491010</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -6988,10 +6988,10 @@
         <v>129</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D27" s="4">
         <v>4301135763</v>
@@ -7000,14 +7000,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G27" s="1" t="e">
         <f>VLOOKUP(E27,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -7015,10 +7015,10 @@
         <v>188</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D28" s="4">
         <v>4301135763</v>
@@ -7027,14 +7027,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G28" s="1" t="e">
         <f>VLOOKUP(E28,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -7042,10 +7042,10 @@
         <v>129</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D29" s="4">
         <v>4301135763</v>
@@ -7054,14 +7054,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G29" s="1" t="e">
         <f>VLOOKUP(E29,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -7069,10 +7069,10 @@
         <v>128</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D30" s="4">
         <v>4301135763</v>
@@ -7081,14 +7081,14 @@
         <v>4620207491027</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G30" s="1" t="e">
         <f>VLOOKUP(E30,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -7096,10 +7096,10 @@
         <v>403</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D31" s="4">
         <v>4301136079</v>
@@ -7108,7 +7108,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G31" s="1">
         <f>VLOOKUP(E31,[1]Лист1!$D:$M,10,0)</f>
@@ -7120,10 +7120,10 @@
         <v>424</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D32" s="4">
         <v>4301136079</v>
@@ -7132,7 +7132,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G32" s="1">
         <f>VLOOKUP(E32,[1]Лист1!$D:$M,10,0)</f>
@@ -7144,10 +7144,10 @@
         <v>503</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D33" s="4">
         <v>4301136079</v>
@@ -7156,7 +7156,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G33" s="1">
         <f>VLOOKUP(E33,[1]Лист1!$D:$M,10,0)</f>
@@ -7168,10 +7168,10 @@
         <v>193</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D34" s="4">
         <v>4301136079</v>
@@ -7180,7 +7180,7 @@
         <v>4607025784319</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G34" s="1">
         <f>VLOOKUP(E34,[1]Лист1!$D:$M,10,0)</f>
@@ -8273,10 +8273,10 @@
         <v>196</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D80" s="4">
         <v>4301135753</v>
@@ -8285,25 +8285,25 @@
         <v>4620207490914</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G80" s="1" t="e">
         <f>VLOOKUP(E80,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D81" s="4">
         <v>4301135753</v>
@@ -8312,14 +8312,14 @@
         <v>4620207490914</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G81" s="1" t="e">
         <f>VLOOKUP(E81,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -8327,10 +8327,10 @@
         <v>136</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D82" s="4">
         <v>4301135753</v>
@@ -8339,14 +8339,14 @@
         <v>4620207490914</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G82" s="1" t="e">
         <f>VLOOKUP(E82,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -8354,10 +8354,10 @@
         <v>231</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D83" s="4">
         <v>4301135778</v>
@@ -8366,14 +8366,14 @@
         <v>4620207490853</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G83" s="1" t="e">
         <f>VLOOKUP(E83,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -8381,10 +8381,10 @@
         <v>197</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D84" s="4">
         <v>4301135778</v>
@@ -8393,25 +8393,25 @@
         <v>4620207490853</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G84" s="1" t="e">
         <f>VLOOKUP(E84,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D85" s="4">
         <v>4301135778</v>
@@ -8420,14 +8420,14 @@
         <v>4620207490853</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G85" s="1" t="e">
         <f>VLOOKUP(E85,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -8435,10 +8435,10 @@
         <v>75</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D86" s="4">
         <v>4301135778</v>
@@ -8447,25 +8447,25 @@
         <v>4620207490853</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G86" s="1" t="e">
         <f>VLOOKUP(E86,[1]Лист1!$D:$M,10,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D87" s="4">
         <v>4301135778</v>
@@ -8474,19 +8474,19 @@
         <v>4620207490853</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G87" s="1"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D88" s="4">
         <v>4301135778</v>
@@ -8495,19 +8495,19 @@
         <v>4620207490853</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G88" s="1"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D89" s="4">
         <v>4301135778</v>
@@ -8516,7 +8516,7 @@
         <v>4620207490853</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -8525,10 +8525,10 @@
         <v>117</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D90" s="4">
         <v>4301131046</v>
@@ -8537,7 +8537,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G90" s="1">
         <f>VLOOKUP(E90,[1]Лист1!$D:$M,10,0)</f>
@@ -8549,10 +8549,10 @@
         <v>122</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D91" s="4">
         <v>4301131046</v>
@@ -8561,7 +8561,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G91" s="1">
         <f>VLOOKUP(E91,[1]Лист1!$D:$M,10,0)</f>
@@ -8573,10 +8573,10 @@
         <v>198</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D92" s="4">
         <v>4301131046</v>
@@ -8585,7 +8585,7 @@
         <v>4607111034137</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G92" s="1">
         <f>VLOOKUP(E92,[1]Лист1!$D:$M,10,0)</f>
@@ -8597,10 +8597,10 @@
         <v>118</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D93" s="4">
         <v>4301131047</v>
@@ -8609,7 +8609,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G93" s="1">
         <f>VLOOKUP(E93,[1]Лист1!$D:$M,10,0)</f>
@@ -8621,10 +8621,10 @@
         <v>123</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D94" s="4">
         <v>4301131047</v>
@@ -8633,7 +8633,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G94" s="1">
         <f>VLOOKUP(E94,[1]Лист1!$D:$M,10,0)</f>
@@ -8645,10 +8645,10 @@
         <v>199</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D95" s="4">
         <v>4301131047</v>
@@ -8657,7 +8657,7 @@
         <v>4607111034120</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G95" s="1">
         <f>VLOOKUP(E95,[1]Лист1!$D:$M,10,0)</f>
@@ -8868,10 +8868,10 @@
         <v>220</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D104" s="4">
         <v>4301132186</v>
@@ -8880,7 +8880,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G104" s="1">
         <v>180</v>
@@ -8891,10 +8891,10 @@
         <v>313</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D105" s="4">
         <v>4301132186</v>
@@ -8903,7 +8903,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G105" s="1">
         <v>180</v>
@@ -8914,10 +8914,10 @@
         <v>447</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D106" s="4">
         <v>4301132186</v>
@@ -8926,7 +8926,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G106" s="1">
         <v>180</v>
@@ -8937,10 +8937,10 @@
         <v>201</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D107" s="4">
         <v>4301132186</v>
@@ -8949,7 +8949,7 @@
         <v>4607111036520</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G107" s="1">
         <v>180</v>
@@ -8960,10 +8960,10 @@
         <v>430</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D108" s="4">
         <v>4301132184</v>
@@ -8972,7 +8972,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G108" s="1">
         <f>VLOOKUP(E108,[1]Лист1!$D:$M,10,0)</f>
@@ -8984,10 +8984,10 @@
         <v>221</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D109" s="4">
         <v>4301132184</v>
@@ -8996,7 +8996,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G109" s="1">
         <f>VLOOKUP(E109,[1]Лист1!$D:$M,10,0)</f>
@@ -9008,10 +9008,10 @@
         <v>202</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D110" s="4">
         <v>4301132184</v>
@@ -9020,7 +9020,7 @@
         <v>4607111036599</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G110" s="1">
         <f>VLOOKUP(E110,[1]Лист1!$D:$M,10,0)</f>
@@ -9032,10 +9032,10 @@
         <v>405</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D111" s="4">
         <v>4301132188</v>
@@ -9044,7 +9044,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G111" s="1">
         <f>VLOOKUP(E111,[1]Лист1!$D:$M,10,0)</f>
@@ -9056,10 +9056,10 @@
         <v>222</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D112" s="4">
         <v>4301132188</v>
@@ -9068,7 +9068,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G112" s="1">
         <f>VLOOKUP(E112,[1]Лист1!$D:$M,10,0)</f>
@@ -9080,10 +9080,10 @@
         <v>203</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D113" s="4">
         <v>4301132188</v>
@@ -9092,7 +9092,7 @@
         <v>4607111036605</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G113" s="1">
         <f>VLOOKUP(E113,[1]Лист1!$D:$M,10,0)</f>
@@ -9104,10 +9104,10 @@
         <v>204</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D114" s="4">
         <v>4301132179</v>
@@ -9116,7 +9116,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G114" s="1">
         <f>VLOOKUP(E114,[1]Лист1!$D:$M,10,0)</f>
@@ -9128,10 +9128,10 @@
         <v>98</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D115" s="4">
         <v>4301132179</v>
@@ -9140,7 +9140,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G115" s="1">
         <f>VLOOKUP(E115,[1]Лист1!$D:$M,10,0)</f>
@@ -9152,10 +9152,10 @@
         <v>639</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D116" s="4">
         <v>4301132179</v>
@@ -9164,7 +9164,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G116" s="1">
         <f>VLOOKUP(E116,[1]Лист1!$D:$M,10,0)</f>
@@ -9176,10 +9176,10 @@
         <v>77</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D117" s="4">
         <v>4301132179</v>
@@ -9188,7 +9188,7 @@
         <v>4607111035691</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G117" s="1">
         <f>VLOOKUP(E117,[1]Лист1!$D:$M,10,0)</f>
@@ -9200,10 +9200,10 @@
         <v>99</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D118" s="4">
         <v>4301132190</v>
@@ -9212,7 +9212,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G118" s="1">
         <f>VLOOKUP(E118,[1]Лист1!$D:$M,10,0)</f>
@@ -9221,13 +9221,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D119" s="4">
         <v>4301132190</v>
@@ -9236,7 +9236,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G119" s="1">
         <f>VLOOKUP(E119,[1]Лист1!$D:$M,10,0)</f>
@@ -9248,10 +9248,10 @@
         <v>78</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D120" s="4">
         <v>4301132190</v>
@@ -9260,7 +9260,7 @@
         <v>4607111036537</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G120" s="1">
         <f>VLOOKUP(E120,[1]Лист1!$D:$M,10,0)</f>
@@ -9269,13 +9269,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D121" s="4">
         <v>4301132182</v>
@@ -9284,7 +9284,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G121" s="1">
         <f>VLOOKUP(E121,[1]Лист1!$D:$M,10,0)</f>
@@ -9293,13 +9293,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D122" s="4">
         <v>4301132182</v>
@@ -9308,7 +9308,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G122" s="1">
         <f>VLOOKUP(E122,[1]Лист1!$D:$M,10,0)</f>
@@ -9320,10 +9320,10 @@
         <v>79</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D123" s="4">
         <v>4301132182</v>
@@ -9332,7 +9332,7 @@
         <v>4607111035721</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G123" s="1">
         <f>VLOOKUP(E123,[1]Лист1!$D:$M,10,0)</f>
@@ -9341,13 +9341,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D124" s="4">
         <v>4301132182</v>
@@ -9356,11 +9356,11 @@
         <v>4607111035721</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G124" s="21"/>
       <c r="H124" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -9488,10 +9488,10 @@
         <v>335</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D130" s="4">
         <v>4301135570</v>
@@ -9500,7 +9500,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G130" s="1">
         <f>VLOOKUP(E130,[1]Лист1!$D:$M,10,0)</f>
@@ -9512,10 +9512,10 @@
         <v>342</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D131" s="4">
         <v>4301135570</v>
@@ -9524,7 +9524,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G131" s="1">
         <f>VLOOKUP(E131,[1]Лист1!$D:$M,10,0)</f>
@@ -9536,10 +9536,10 @@
         <v>416</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D132" s="4">
         <v>4301135570</v>
@@ -9548,7 +9548,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G132" s="1">
         <f>VLOOKUP(E132,[1]Лист1!$D:$M,10,0)</f>
@@ -9560,10 +9560,10 @@
         <v>425</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D133" s="4">
         <v>4301135570</v>
@@ -9572,7 +9572,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G133" s="1">
         <f>VLOOKUP(E133,[1]Лист1!$D:$M,10,0)</f>
@@ -9581,13 +9581,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D134" s="4">
         <v>4301135570</v>
@@ -9596,7 +9596,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G134" s="1">
         <f>VLOOKUP(E134,[1]Лист1!$D:$M,10,0)</f>
@@ -9608,10 +9608,10 @@
         <v>205</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D135" s="4">
         <v>4301135570</v>
@@ -9620,7 +9620,7 @@
         <v>4607111035806</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G135" s="1">
         <f>VLOOKUP(E135,[1]Лист1!$D:$M,10,0)</f>
@@ -10778,7 +10778,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>106</v>
@@ -11021,10 +11021,10 @@
         <v>109</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D194" s="4">
         <v>4301071109</v>
@@ -11033,7 +11033,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -11045,10 +11045,10 @@
         <v>88</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D195" s="4">
         <v>4301071109</v>
@@ -11057,7 +11057,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -11090,7 +11090,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>152</v>
@@ -11258,7 +11258,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>110</v>
@@ -11282,7 +11282,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>110</v>
@@ -11405,10 +11405,10 @@
         <v>520</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D210" s="4">
         <v>4301071100</v>
@@ -11417,7 +11417,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G210" s="1"/>
     </row>
@@ -11426,10 +11426,10 @@
         <v>156</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D211" s="4">
         <v>4301071100</v>
@@ -11438,7 +11438,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G211" s="1"/>
     </row>
@@ -11672,10 +11672,10 @@
         <v>187</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D221" s="4">
         <v>4301135550</v>
@@ -11684,7 +11684,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G221" s="1">
         <f>VLOOKUP(E221,[1]Лист1!$D:$M,10,0)</f>
@@ -11696,10 +11696,10 @@
         <v>113</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D222" s="4">
         <v>4301135550</v>
@@ -11708,7 +11708,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G222" s="1">
         <f>VLOOKUP(E222,[1]Лист1!$D:$M,10,0)</f>
@@ -11717,13 +11717,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D223" s="4">
         <v>4301135550</v>
@@ -11732,7 +11732,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G223" s="1">
         <f>VLOOKUP(E223,[1]Лист1!$D:$M,10,0)</f>
@@ -11744,10 +11744,10 @@
         <v>92</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D224" s="4">
         <v>4301135550</v>
@@ -11756,7 +11756,7 @@
         <v>4607111034199</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G224" s="1">
         <f>VLOOKUP(E224,[1]Лист1!$D:$M,10,0)</f>
@@ -11956,7 +11956,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>183</v>
@@ -12055,10 +12055,10 @@
         <v>93</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D237" s="4">
         <v>4301135555</v>
@@ -12067,7 +12067,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G237" s="1">
         <f>VLOOKUP(E237,[1]Лист1!$D:$M,10,0)</f>
@@ -12079,10 +12079,10 @@
         <v>347</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D238" s="4">
         <v>4301135555</v>
@@ -12091,7 +12091,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G238" s="1">
         <f>VLOOKUP(E238,[1]Лист1!$D:$M,10,0)</f>
@@ -12100,13 +12100,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D239" s="4">
         <v>4301135555</v>
@@ -12115,7 +12115,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G239" s="1">
         <f>VLOOKUP(E239,[1]Лист1!$D:$M,10,0)</f>
@@ -12124,13 +12124,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D240" s="4">
         <v>4301135555</v>
@@ -12139,7 +12139,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G240" s="1">
         <f>VLOOKUP(E240,[1]Лист1!$D:$M,10,0)</f>
@@ -12151,10 +12151,10 @@
         <v>216</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D241" s="4">
         <v>4301135555</v>
@@ -12163,7 +12163,7 @@
         <v>4607111034014</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G241" s="1">
         <f>VLOOKUP(E241,[1]Лист1!$D:$M,10,0)</f>
@@ -12175,10 +12175,10 @@
         <v>217</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D242" s="4">
         <v>4301135532</v>
@@ -12187,7 +12187,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G242" s="1">
         <f>VLOOKUP(E242,[1]Лист1!$D:$M,10,0)</f>
@@ -12196,13 +12196,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D243" s="4">
         <v>4301135532</v>
@@ -12211,7 +12211,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G243" s="1">
         <f>VLOOKUP(E243,[1]Лист1!$D:$M,10,0)</f>
@@ -12223,10 +12223,10 @@
         <v>114</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D244" s="4">
         <v>4301135532</v>
@@ -12235,7 +12235,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G244" s="1">
         <f>VLOOKUP(E244,[1]Лист1!$D:$M,10,0)</f>
@@ -12247,10 +12247,10 @@
         <v>94</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D245" s="4">
         <v>4301135532</v>
@@ -12259,7 +12259,7 @@
         <v>4607111033994</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G245" s="1">
         <f>VLOOKUP(E245,[1]Лист1!$D:$M,10,0)</f>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>316</v>
@@ -12970,7 +12970,7 @@
         <v>322</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D275" s="4">
         <v>4301071062</v>
@@ -12979,7 +12979,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G275" s="1">
         <f>VLOOKUP(E275,[1]Лист1!$D:$M,10,0)</f>
@@ -12994,7 +12994,7 @@
         <v>322</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D276" s="4">
         <v>4301071062</v>
@@ -13003,7 +13003,7 @@
         <v>4607111036384</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G276" s="1">
         <f>VLOOKUP(E276,[1]Лист1!$D:$M,10,0)</f>
@@ -13015,10 +13015,10 @@
         <v>406</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D277" s="4">
         <v>4301135571</v>
@@ -13027,7 +13027,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G277" s="1">
         <f>VLOOKUP(E277,[1]Лист1!$D:$M,10,0)</f>
@@ -13039,10 +13039,10 @@
         <v>326</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D278" s="4">
         <v>4301135571</v>
@@ -13051,7 +13051,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G278" s="1">
         <f>VLOOKUP(E278,[1]Лист1!$D:$M,10,0)</f>
@@ -13060,13 +13060,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D279" s="4">
         <v>4301135571</v>
@@ -13075,7 +13075,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F279" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G279" s="1">
         <f>VLOOKUP(E279,[1]Лист1!$D:$M,10,0)</f>
@@ -13084,13 +13084,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D280" s="4">
         <v>4301135571</v>
@@ -13099,7 +13099,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G280" s="1"/>
     </row>
@@ -13108,10 +13108,10 @@
         <v>325</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D281" s="4">
         <v>4301135571</v>
@@ -13120,7 +13120,7 @@
         <v>4607111035028</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G281" s="1">
         <f>VLOOKUP(E281,[1]Лист1!$D:$M,10,0)</f>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>338</v>
@@ -13636,10 +13636,10 @@
         <v>423</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D303" s="4">
         <v>4301132170</v>
@@ -13648,7 +13648,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G303" s="1">
         <f>VLOOKUP(E303,[1]Лист1!$D:$M,10,0)</f>
@@ -13660,10 +13660,10 @@
         <v>451</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D304" s="4">
         <v>4301132170</v>
@@ -13672,7 +13672,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F304" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G304" s="1">
         <f>VLOOKUP(E304,[1]Лист1!$D:$M,10,0)</f>
@@ -13684,10 +13684,10 @@
         <v>454</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D305" s="4">
         <v>4301132170</v>
@@ -13696,7 +13696,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F305" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G305" s="1">
         <f>VLOOKUP(E305,[1]Лист1!$D:$M,10,0)</f>
@@ -13708,10 +13708,10 @@
         <v>422</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D306" s="4">
         <v>4301132170</v>
@@ -13720,7 +13720,7 @@
         <v>4607111038487</v>
       </c>
       <c r="F306" s="5" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G306" s="1">
         <f>VLOOKUP(E306,[1]Лист1!$D:$M,10,0)</f>
@@ -14774,10 +14774,10 @@
         <v>573</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D354" s="4">
         <v>4301135824</v>
@@ -14786,19 +14786,19 @@
         <v>4607111039095</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D355" s="4">
         <v>4301135824</v>
@@ -14807,7 +14807,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G355" s="1"/>
     </row>
@@ -14816,10 +14816,10 @@
         <v>547</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D356" s="4">
         <v>4301135824</v>
@@ -14828,7 +14828,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G356" s="1"/>
     </row>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>603</v>
@@ -15044,7 +15044,7 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>607</v>
@@ -15065,7 +15065,7 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>607</v>
@@ -15128,7 +15128,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>611</v>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>611</v>
@@ -15191,7 +15191,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>611</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>615</v>
@@ -15254,7 +15254,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>615</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>615</v>
@@ -15338,7 +15338,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>619</v>
@@ -15359,7 +15359,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>619</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>619</v>
@@ -15443,7 +15443,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>623</v>
@@ -15464,7 +15464,7 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>623</v>
@@ -15485,7 +15485,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>623</v>
@@ -15548,43 +15548,43 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>642</v>
+        <v>1010</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>643</v>
+        <v>1011</v>
       </c>
       <c r="D391" s="4">
-        <v>4301135696</v>
+        <v>4301135829</v>
       </c>
       <c r="E391" s="3">
         <v>4620207490235</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>642</v>
+        <v>1010</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>643</v>
+        <v>1011</v>
       </c>
       <c r="D392" s="4">
-        <v>4301135696</v>
+        <v>4301135829</v>
       </c>
       <c r="E392" s="3">
         <v>4620207490235</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G392" s="1"/>
     </row>
@@ -15593,31 +15593,31 @@
         <v>641</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>642</v>
+        <v>1010</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>643</v>
+        <v>1011</v>
       </c>
       <c r="D393" s="4">
-        <v>4301135696</v>
+        <v>4301135829</v>
       </c>
       <c r="E393" s="3">
         <v>4620207490235</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G393" s="1"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
+        <v>650</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="B394" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>654</v>
       </c>
       <c r="D394" s="4">
         <v>4301135707</v>
@@ -15626,19 +15626,19 @@
         <v>4620207490198</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D395" s="4">
         <v>4301135707</v>
@@ -15647,19 +15647,19 @@
         <v>4620207490198</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G395" s="1"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D396" s="4">
         <v>4301135707</v>
@@ -15668,19 +15668,19 @@
         <v>4620207490198</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G396" s="1"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C397" s="3" t="s">
         <v>655</v>
-      </c>
-      <c r="B397" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>657</v>
       </c>
       <c r="D397" s="4">
         <v>4301135697</v>
@@ -15689,19 +15689,19 @@
         <v>4620207490259</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D398" s="4">
         <v>4301135697</v>
@@ -15710,19 +15710,19 @@
         <v>4620207490259</v>
       </c>
       <c r="F398" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G398" s="1"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D399" s="4">
         <v>4301135697</v>
@@ -15731,19 +15731,19 @@
         <v>4620207490259</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G399" s="1"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D400" s="4">
         <v>4301071044</v>
@@ -15752,19 +15752,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G400" s="1"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D401" s="4">
         <v>4301071044</v>
@@ -15773,19 +15773,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G401" s="1"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D402" s="4">
         <v>4301071044</v>
@@ -15794,19 +15794,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G402" s="1"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D403" s="4">
         <v>4301071044</v>
@@ -15815,19 +15815,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G403" s="1"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C404" s="3" t="s">
         <v>662</v>
-      </c>
-      <c r="B404" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="D404" s="4">
         <v>4301071044</v>
@@ -15836,19 +15836,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G404" s="1"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C405" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="B405" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="D405" s="4">
         <v>4301071045</v>
@@ -15857,19 +15857,19 @@
         <v>4607111039392</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D406" s="4">
         <v>4301071045</v>
@@ -15878,19 +15878,19 @@
         <v>4607111039392</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G406" s="1"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D407" s="4">
         <v>4301071045</v>
@@ -15899,19 +15899,19 @@
         <v>4607111039392</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G407" s="1"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D408" s="4">
         <v>4301071031</v>
@@ -15920,19 +15920,19 @@
         <v>4607111038982</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D409" s="4">
         <v>4301071031</v>
@@ -15941,19 +15941,19 @@
         <v>4607111038982</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G409" s="1"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="C410" s="3" t="s">
         <v>679</v>
-      </c>
-      <c r="B410" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="C410" s="3" t="s">
-        <v>681</v>
       </c>
       <c r="D410" s="4">
         <v>4301071031</v>
@@ -15962,19 +15962,19 @@
         <v>4607111038982</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G410" s="1"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D411" s="4">
         <v>4301135591</v>
@@ -15983,7 +15983,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G411" s="1">
         <v>180</v>
@@ -15991,13 +15991,13 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D412" s="4">
         <v>4301135591</v>
@@ -16006,7 +16006,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G412" s="1">
         <v>180</v>
@@ -16014,13 +16014,13 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D413" s="4">
         <v>4301135591</v>
@@ -16029,7 +16029,7 @@
         <v>4607111036568</v>
       </c>
       <c r="F413" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G413" s="1">
         <v>180</v>
@@ -16037,13 +16037,13 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D414" s="4">
         <v>4301135402</v>
@@ -16052,19 +16052,19 @@
         <v>4640242181493</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G414" s="1"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C415" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="B415" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>702</v>
       </c>
       <c r="D415" s="4">
         <v>4301135402</v>
@@ -16073,19 +16073,19 @@
         <v>4640242181493</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G415" s="1"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D416" s="4">
         <v>4301135607</v>
@@ -16094,19 +16094,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G416" s="1"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D417" s="4">
         <v>4301135607</v>
@@ -16115,19 +16115,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G417" s="1"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D418" s="4">
         <v>4301135607</v>
@@ -16136,19 +16136,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G418" s="1"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D419" s="4">
         <v>4301135607</v>
@@ -16157,19 +16157,19 @@
         <v>4607111039613</v>
       </c>
       <c r="F419" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G419" s="1"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D420" s="4">
         <v>4301190068</v>
@@ -16178,19 +16178,19 @@
         <v>4620207490365</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="D421" s="4">
         <v>4301190068</v>
@@ -16199,19 +16199,19 @@
         <v>4620207490365</v>
       </c>
       <c r="F421" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G421" s="1"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C422" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>715</v>
       </c>
       <c r="D422" s="4">
         <v>4301190068</v>
@@ -16220,19 +16220,19 @@
         <v>4620207490365</v>
       </c>
       <c r="F422" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="G422" s="1"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D423" s="4">
         <v>4301190070</v>
@@ -16241,19 +16241,19 @@
         <v>4620207490419</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G423" s="1"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C424" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>718</v>
       </c>
       <c r="D424" s="4">
         <v>4301190070</v>
@@ -16262,19 +16262,19 @@
         <v>4620207490419</v>
       </c>
       <c r="F424" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G424" s="1"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D425" s="4">
         <v>4301071032</v>
@@ -16283,7 +16283,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G425" s="1">
         <v>180</v>
@@ -16291,13 +16291,13 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D426" s="4">
         <v>4301071032</v>
@@ -16306,7 +16306,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F426" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G426" s="1">
         <v>180</v>
@@ -16314,13 +16314,13 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D427" s="4">
         <v>4301071032</v>
@@ -16329,7 +16329,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F427" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G427" s="1">
         <v>180</v>
@@ -16337,13 +16337,13 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D428" s="4">
         <v>4301071032</v>
@@ -16352,7 +16352,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F428" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G428" s="1">
         <v>180</v>
@@ -16360,13 +16360,13 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C429" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="B429" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="C429" s="3" t="s">
-        <v>724</v>
       </c>
       <c r="D429" s="4">
         <v>4301071032</v>
@@ -16375,7 +16375,7 @@
         <v>4607111038999</v>
       </c>
       <c r="F429" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G429" s="1">
         <v>180</v>
@@ -16383,13 +16383,13 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C430" s="3" t="s">
         <v>741</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="C430" s="3" t="s">
-        <v>743</v>
       </c>
       <c r="D430" s="4">
         <v>4301135404</v>
@@ -16398,19 +16398,19 @@
         <v>4640242181516</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G430" s="1"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D431" s="4">
         <v>4301071090</v>
@@ -16419,7 +16419,7 @@
         <v>4620207490075</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G431" s="1">
         <v>180</v>
@@ -16427,13 +16427,13 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C432" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="C432" s="3" t="s">
-        <v>746</v>
       </c>
       <c r="D432" s="4">
         <v>4301071090</v>
@@ -16442,7 +16442,7 @@
         <v>4620207490075</v>
       </c>
       <c r="F432" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G432" s="1">
         <v>180</v>
@@ -16450,13 +16450,13 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D433" s="4">
         <v>4301071092</v>
@@ -16465,7 +16465,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G433" s="1">
         <v>180</v>
@@ -16473,13 +16473,13 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D434" s="4">
         <v>4301071092</v>
@@ -16488,7 +16488,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F434" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G434" s="1">
         <v>180</v>
@@ -16496,13 +16496,13 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="C435" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="B435" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="C435" s="3" t="s">
-        <v>749</v>
       </c>
       <c r="D435" s="4">
         <v>4301071092</v>
@@ -16511,7 +16511,7 @@
         <v>4620207490174</v>
       </c>
       <c r="F435" s="5" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G435" s="1">
         <v>180</v>
@@ -16519,13 +16519,13 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D436" s="4">
         <v>4301071091</v>
@@ -16534,7 +16534,7 @@
         <v>4620207490044</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G436" s="1">
         <v>180</v>
@@ -16542,13 +16542,13 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="C437" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="B437" s="3" t="s">
-        <v>751</v>
-      </c>
-      <c r="C437" s="3" t="s">
-        <v>752</v>
       </c>
       <c r="D437" s="4">
         <v>4301071091</v>
@@ -16557,7 +16557,7 @@
         <v>4620207490044</v>
       </c>
       <c r="F437" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G437" s="1">
         <v>180</v>
@@ -16565,13 +16565,13 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C438" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="B438" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>763</v>
       </c>
       <c r="D438" s="4">
         <v>4301132044</v>
@@ -16580,19 +16580,19 @@
         <v>4607111036971</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G438" s="1"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="C439" s="3" t="s">
         <v>782</v>
-      </c>
-      <c r="B439" s="3" t="s">
-        <v>783</v>
-      </c>
-      <c r="C439" s="3" t="s">
-        <v>784</v>
       </c>
       <c r="D439" s="4">
         <v>4301135127</v>
@@ -16601,19 +16601,19 @@
         <v>4607111036995</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D440" s="4">
         <v>4301135826</v>
@@ -16622,7 +16622,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G440" s="1">
         <v>180</v>
@@ -16630,13 +16630,13 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D441" s="4">
         <v>4301135826</v>
@@ -16645,7 +16645,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F441" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G441" s="1">
         <v>180</v>
@@ -16653,13 +16653,13 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D442" s="4">
         <v>4301135826</v>
@@ -16668,7 +16668,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F442" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G442" s="1">
         <v>180</v>
@@ -16676,13 +16676,13 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D443" s="4">
         <v>4301135826</v>
@@ -16691,7 +16691,7 @@
         <v>4620207490983</v>
       </c>
       <c r="F443" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="G443" s="1">
         <v>180</v>
@@ -16699,13 +16699,13 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D444" s="4">
         <v>4301071074</v>
@@ -16714,19 +16714,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G444" s="1"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D445" s="4">
         <v>4301071074</v>
@@ -16735,19 +16735,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F445" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G445" s="1"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C446" s="3" t="s">
         <v>871</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C446" s="3" t="s">
-        <v>873</v>
       </c>
       <c r="D446" s="4">
         <v>4301071074</v>
@@ -16756,19 +16756,19 @@
         <v>4620207491157</v>
       </c>
       <c r="F446" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G446" s="1"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D447" s="4">
         <v>4301135763</v>
@@ -16777,19 +16777,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G447" s="1"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D448" s="4">
         <v>4301135763</v>
@@ -16798,19 +16798,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F448" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G448" s="1"/>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D449" s="4">
         <v>4301135763</v>
@@ -16819,19 +16819,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G449" s="1"/>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
+        <v>892</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C450" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="B450" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="C450" s="3" t="s">
-        <v>896</v>
       </c>
       <c r="D450" s="4">
         <v>4301135763</v>
@@ -16840,19 +16840,19 @@
         <v>4620207491027</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G450" s="1"/>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
+        <v>896</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C451" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="B451" s="3" t="s">
-        <v>899</v>
-      </c>
-      <c r="C451" s="3" t="s">
-        <v>900</v>
       </c>
       <c r="D451" s="4">
         <v>4301135665</v>
@@ -16861,19 +16861,19 @@
         <v>4607111039729</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G451" s="1"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
+        <v>900</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C452" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="B452" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="C452" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="D452" s="4">
         <v>4301135702</v>
@@ -16882,19 +16882,19 @@
         <v>4620207490228</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="G452" s="1"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D453" s="4">
         <v>4301071090</v>
@@ -16903,22 +16903,22 @@
         <v>4620207490075</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G453" s="1"/>
       <c r="H453" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D454" s="4">
         <v>4301071091</v>
@@ -16927,22 +16927,22 @@
         <v>4620207490044</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D455" s="4">
         <v>4301071032</v>
@@ -16951,22 +16951,22 @@
         <v>4607111038999</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D456" s="4">
         <v>4301071044</v>
@@ -16975,16 +16975,16 @@
         <v>4607111039385</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>615</v>
@@ -17003,12 +17003,12 @@
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>611</v>
@@ -17027,12 +17027,12 @@
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>619</v>
@@ -17047,16 +17047,16 @@
         <v>4607111039293</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B460" s="3" t="s">
         <v>623</v>
@@ -17075,7 +17075,7 @@
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
@@ -17083,10 +17083,10 @@
         <v>640</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D461" s="4">
         <v>4301135760</v>
@@ -17095,22 +17095,22 @@
         <v>4620207491010</v>
       </c>
       <c r="F461" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D462" s="4">
         <v>4301132190</v>
@@ -17119,22 +17119,22 @@
         <v>4607111036537</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G462" s="1"/>
       <c r="H462" s="16" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C463" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="C463" s="3" t="s">
-        <v>922</v>
       </c>
       <c r="D463" s="4">
         <v>4301135768</v>
@@ -17143,19 +17143,19 @@
         <v>4620207491034</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G463" s="1"/>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D464" s="4">
         <v>4301071097</v>
@@ -17164,19 +17164,19 @@
         <v>4620207491096</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G464" s="1"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
+        <v>921</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C465" s="3" t="s">
         <v>923</v>
-      </c>
-      <c r="B465" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="C465" s="3" t="s">
-        <v>925</v>
       </c>
       <c r="D465" s="4">
         <v>4301071097</v>
@@ -17185,19 +17185,19 @@
         <v>4620207491096</v>
       </c>
       <c r="F465" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="G465" s="1"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="D466" s="4">
         <v>4301132227</v>
@@ -17206,19 +17206,19 @@
         <v>4620207491133</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G466" s="1"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C467" s="3" t="s">
         <v>926</v>
-      </c>
-      <c r="B467" s="3" t="s">
-        <v>927</v>
-      </c>
-      <c r="C467" s="3" t="s">
-        <v>928</v>
       </c>
       <c r="D467" s="4">
         <v>4301132227</v>
@@ -17227,19 +17227,19 @@
         <v>4620207491133</v>
       </c>
       <c r="F467" s="5" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="G467" s="1"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
+        <v>945</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="C468" s="3" t="s">
         <v>947</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>948</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>949</v>
       </c>
       <c r="D468" s="4">
         <v>4301135753</v>
@@ -17248,19 +17248,19 @@
         <v>4620207490914</v>
       </c>
       <c r="F468" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G468" s="1"/>
     </row>
     <row r="469" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A469" s="10" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D469" s="4">
         <v>4301070962</v>
@@ -17269,19 +17269,19 @@
         <v>4607111038609</v>
       </c>
       <c r="F469" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G469" s="1"/>
     </row>
     <row r="470" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D470" s="4">
         <v>4301070959</v>
@@ -17290,19 +17290,19 @@
         <v>4607111038616</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G470" s="1"/>
     </row>
     <row r="471" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D471" s="4">
         <v>4301071075</v>
@@ -17311,19 +17311,19 @@
         <v>4620207491102</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G471" s="1"/>
     </row>
     <row r="472" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="C472" s="3" t="s">
         <v>955</v>
-      </c>
-      <c r="B472" s="3" t="s">
-        <v>956</v>
-      </c>
-      <c r="C472" s="3" t="s">
-        <v>957</v>
       </c>
       <c r="D472" s="4">
         <v>4301071075</v>
@@ -17332,19 +17332,19 @@
         <v>4620207491102</v>
       </c>
       <c r="F472" s="5" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G472" s="1"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D473" s="4">
         <v>4301135574</v>
@@ -17353,19 +17353,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D474" s="4">
         <v>4301135550</v>
@@ -17374,19 +17374,19 @@
         <v>4607111034199</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D475" s="4">
         <v>4301135753</v>
@@ -17395,19 +17395,19 @@
         <v>4620207490914</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D476" s="4">
         <v>4301131046</v>
@@ -17416,19 +17416,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G476" s="1"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D477" s="4">
         <v>4301131047</v>
@@ -17437,19 +17437,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D478" s="4">
         <v>4301132188</v>
@@ -17458,19 +17458,19 @@
         <v>4607111036605</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D479" s="4">
         <v>4301132179</v>
@@ -17479,19 +17479,19 @@
         <v>4607111035691</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D480" s="4">
         <v>4301135570</v>
@@ -17500,13 +17500,13 @@
         <v>4607111035806</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>619</v>
@@ -17521,19 +17521,19 @@
         <v>4607111039293</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D482" s="4">
         <v>4301135555</v>
@@ -17542,19 +17542,19 @@
         <v>4607111034014</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D483" s="4">
         <v>4301135532</v>
@@ -17563,19 +17563,19 @@
         <v>4607111033994</v>
       </c>
       <c r="F483" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
+        <v>959</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C484" s="3" t="s">
         <v>961</v>
-      </c>
-      <c r="B484" s="3" t="s">
-        <v>962</v>
-      </c>
-      <c r="C484" s="3" t="s">
-        <v>963</v>
       </c>
       <c r="D484" s="4">
         <v>4301071094</v>
@@ -17584,19 +17584,19 @@
         <v>4620207491140</v>
       </c>
       <c r="F484" s="5" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="G484" s="1"/>
     </row>
     <row r="485" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C485" s="3" t="s">
         <v>965</v>
-      </c>
-      <c r="B485" s="3" t="s">
-        <v>966</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>967</v>
       </c>
       <c r="D485" s="4">
         <v>4301071093</v>
@@ -17605,19 +17605,19 @@
         <v>4620207490709</v>
       </c>
       <c r="F485" s="5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G485" s="1"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="10" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D486" s="4">
         <v>4301132190</v>
@@ -17626,19 +17626,19 @@
         <v>4607111036537</v>
       </c>
       <c r="F486" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G486" s="1"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D487" s="4">
         <v>4301132188</v>
@@ -17647,19 +17647,19 @@
         <v>4607111036605</v>
       </c>
       <c r="F487" s="5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="D488" s="4">
         <v>4301071090</v>
@@ -17668,19 +17668,19 @@
         <v>4620207490075</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G488" s="1"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D489" s="4">
         <v>4301071091</v>
@@ -17689,19 +17689,19 @@
         <v>4620207490044</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G489" s="1"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D490" s="4">
         <v>4301071044</v>
@@ -17710,19 +17710,19 @@
         <v>4607111039385</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G490" s="1"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D491" s="4">
         <v>4301135574</v>
@@ -17731,19 +17731,19 @@
         <v>4607111033659</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G491" s="1"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D492" s="4">
         <v>4301131047</v>
@@ -17752,19 +17752,19 @@
         <v>4607111034120</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G492" s="1"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D493" s="4">
         <v>4301131046</v>
@@ -17773,19 +17773,19 @@
         <v>4607111034137</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D494" s="4">
         <v>4301135793</v>
@@ -17794,19 +17794,19 @@
         <v>4620207491003</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D495" s="4">
         <v>4301135760</v>
@@ -17815,13 +17815,13 @@
         <v>4620207491010</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>183</v>
@@ -17842,7 +17842,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="10" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>167</v>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="10" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B498" s="3" t="s">
         <v>611</v>
@@ -17884,7 +17884,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="10" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>615</v>
@@ -17905,7 +17905,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="10" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>619</v>
@@ -17920,13 +17920,13 @@
         <v>4607111039293</v>
       </c>
       <c r="F500" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="G500" s="1"/>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="10" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B501" s="3" t="s">
         <v>623</v>
@@ -17947,13 +17947,13 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="10" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D502" s="4">
         <v>4301135555</v>
@@ -17962,19 +17962,19 @@
         <v>4607111034014</v>
       </c>
       <c r="F502" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G502" s="1"/>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="10" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D503" s="4">
         <v>4301135532</v>
@@ -17983,19 +17983,19 @@
         <v>4607111033994</v>
       </c>
       <c r="F503" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G503" s="1"/>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="10" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D504" s="4">
         <v>4301135550</v>
@@ -18004,19 +18004,19 @@
         <v>4607111034199</v>
       </c>
       <c r="F504" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G504" s="1"/>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="10" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D505" s="4">
         <v>4301135753</v>
@@ -18025,19 +18025,19 @@
         <v>4620207490914</v>
       </c>
       <c r="F505" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G505" s="1"/>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="10" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D506" s="4">
         <v>4301135570</v>
@@ -18046,19 +18046,19 @@
         <v>4607111035806</v>
       </c>
       <c r="F506" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G506" s="1"/>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="10" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D507" s="4">
         <v>4301132179</v>
@@ -18067,19 +18067,19 @@
         <v>4607111035691</v>
       </c>
       <c r="F507" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G507" s="1"/>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="10" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>237</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D508" s="4">
         <v>4301071063</v>
@@ -18088,19 +18088,19 @@
         <v>4607111039019</v>
       </c>
       <c r="F508" s="5" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G508" s="1"/>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="10" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D509" s="4">
         <v>4301071100</v>
@@ -18109,19 +18109,19 @@
         <v>4607111038708</v>
       </c>
       <c r="F509" s="5" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="G509" s="1"/>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="10" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D510" s="4">
         <v>4301135692</v>
@@ -18130,19 +18130,19 @@
         <v>4620207490570</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="B511" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C511" s="3" t="s">
         <v>996</v>
-      </c>
-      <c r="B511" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="C511" s="3" t="s">
-        <v>998</v>
       </c>
       <c r="D511" s="4">
         <v>4301135692</v>
@@ -18151,13 +18151,13 @@
         <v>4620207490570</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="G511" s="1"/>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="17" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B512" s="18" t="s">
         <v>615</v>
@@ -18176,12 +18176,12 @@
       </c>
       <c r="G512" s="21"/>
       <c r="H512" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B513" s="18" t="s">
         <v>106</v>
@@ -18200,12 +18200,12 @@
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B514" s="18" t="s">
         <v>623</v>
@@ -18224,12 +18224,12 @@
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B515" s="18" t="s">
         <v>611</v>
@@ -18248,12 +18248,12 @@
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B516" s="18" t="s">
         <v>291</v>
@@ -18272,12 +18272,12 @@
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B517" s="18" t="s">
         <v>111</v>
@@ -18296,12 +18296,12 @@
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>300</v>
@@ -18320,12 +18320,12 @@
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B519" s="18" t="s">
         <v>316</v>
@@ -18344,12 +18344,12 @@
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B520" s="18" t="s">
         <v>548</v>
@@ -18368,18 +18368,18 @@
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D521" s="4">
         <v>4301135760</v>
@@ -18388,16 +18388,16 @@
         <v>4620207491010</v>
       </c>
       <c r="F521" s="5" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B522" s="18" t="s">
         <v>110</v>
@@ -18416,12 +18416,12 @@
       </c>
       <c r="G522" s="21"/>
       <c r="H522" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B523" s="18" t="s">
         <v>619</v>
@@ -18440,18 +18440,18 @@
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B524" s="18" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D524" s="19">
         <v>4301135532</v>
@@ -18460,22 +18460,22 @@
         <v>4607111033994</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D525" s="4">
         <v>4301135555</v>
@@ -18484,22 +18484,22 @@
         <v>4607111034014</v>
       </c>
       <c r="F525" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="D526" s="4">
         <v>4301135793</v>
@@ -18508,16 +18508,16 @@
         <v>4620207491003</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>380</v>
@@ -18536,12 +18536,12 @@
       </c>
       <c r="G527" s="21"/>
       <c r="H527" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>544</v>
@@ -18560,12 +18560,12 @@
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B529" s="18" t="s">
         <v>594</v>
@@ -18584,18 +18584,18 @@
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B530" s="18" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D530" s="19">
         <v>4301132079</v>
@@ -18608,12 +18608,12 @@
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B531" s="18" t="s">
         <v>162</v>
@@ -18632,12 +18632,12 @@
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>297</v>
@@ -18656,18 +18656,18 @@
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D533" s="4">
         <v>4301071109</v>
@@ -18676,22 +18676,22 @@
         <v>4607111035929</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D534" s="4">
         <v>4301135550</v>
@@ -18700,22 +18700,22 @@
         <v>4607111034199</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B535" s="18" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C535" s="18" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D535" s="19">
         <v>4301132186</v>
@@ -18724,16 +18724,16 @@
         <v>4607111036520</v>
       </c>
       <c r="F535" s="20" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B536" s="18" t="s">
         <v>607</v>
@@ -18752,18 +18752,18 @@
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D537" s="4">
         <v>4301131047</v>
@@ -18772,22 +18772,22 @@
         <v>4607111034120</v>
       </c>
       <c r="F537" s="5" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="D538" s="4">
         <v>4301135763</v>
@@ -18796,16 +18796,16 @@
         <v>4620207491027</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B539" s="18" t="s">
         <v>552</v>
@@ -18824,18 +18824,18 @@
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B540" s="18" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D540" s="19">
         <v>4301135402</v>
@@ -18844,22 +18844,22 @@
         <v>4640242181493</v>
       </c>
       <c r="F540" s="20" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D541" s="4">
         <v>4301131046</v>
@@ -18868,22 +18868,22 @@
         <v>4607111034137</v>
       </c>
       <c r="F541" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D542" s="4">
         <v>4301136079</v>
@@ -18892,22 +18892,22 @@
         <v>4607025784319</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D543" s="4">
         <v>4301135753</v>
@@ -18916,22 +18916,22 @@
         <v>4620207490914</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D544" s="4">
         <v>4301135778</v>
@@ -18940,22 +18940,22 @@
         <v>4620207490853</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="G544" s="21"/>
       <c r="H544" s="16" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D545" s="4">
         <v>4301132179</v>
@@ -18964,22 +18964,22 @@
         <v>4607111035691</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G545" s="21"/>
       <c r="H545" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D546" s="4">
         <v>4301132190</v>
@@ -18988,16 +18988,16 @@
         <v>4607111036537</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G546" s="21"/>
       <c r="H546" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B547" s="18" t="s">
         <v>373</v>
@@ -19016,18 +19016,18 @@
       </c>
       <c r="G547" s="21"/>
       <c r="H547" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D548" s="4">
         <v>4301135571</v>
@@ -19036,22 +19036,22 @@
         <v>4607111035028</v>
       </c>
       <c r="F548" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G548" s="21"/>
       <c r="H548" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D549" s="4">
         <v>4301135768</v>
@@ -19060,16 +19060,16 @@
         <v>4620207491034</v>
       </c>
       <c r="F549" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="G549" s="21"/>
       <c r="H549" s="16" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="550" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B550" s="18" t="s">
         <v>485</v>
@@ -19088,12 +19088,12 @@
       </c>
       <c r="G550" s="21"/>
       <c r="H550" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="17" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B551" s="18" t="s">
         <v>366</v>
@@ -19112,18 +19112,18 @@
       </c>
       <c r="G551" s="21"/>
       <c r="H551" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="10" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D552" s="4">
         <v>4301070990</v>
@@ -19132,22 +19132,22 @@
         <v>4607111038494</v>
       </c>
       <c r="F552" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G552" s="1"/>
       <c r="H552" s="16" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="17" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B553" s="18" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C553" s="18" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D553" s="19">
         <v>4301070990</v>
@@ -19156,16 +19156,16 @@
         <v>4607111038494</v>
       </c>
       <c r="F553" s="20" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G553" s="21"/>
       <c r="H553" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B554" s="18" t="s">
         <v>152</v>
@@ -19184,18 +19184,18 @@
       </c>
       <c r="G554" s="21"/>
       <c r="H554" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D555" s="4">
         <v>4301135824</v>
@@ -19204,16 +19204,16 @@
         <v>4607111039095</v>
       </c>
       <c r="F555" s="5" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B556" s="18" t="s">
         <v>183</v>
@@ -19232,18 +19232,18 @@
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D557" s="4">
         <v>4301135607</v>
@@ -19252,16 +19252,16 @@
         <v>4607111039613</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B558" s="18" t="s">
         <v>125</v>
@@ -19280,18 +19280,18 @@
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D559" s="4">
         <v>4301135574</v>
@@ -19300,22 +19300,22 @@
         <v>4607111033659</v>
       </c>
       <c r="F559" s="5" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B560" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C560" s="18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D560" s="19">
         <v>4301071044</v>
@@ -19324,22 +19324,22 @@
         <v>4607111039385</v>
       </c>
       <c r="F560" s="20" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D561" s="19">
         <v>4301071031</v>
@@ -19348,16 +19348,16 @@
         <v>4607111038982</v>
       </c>
       <c r="F561" s="20" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B562" s="18" t="s">
         <v>179</v>
@@ -19376,12 +19376,12 @@
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>167</v>
@@ -19400,12 +19400,12 @@
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B564" s="18" t="s">
         <v>603</v>
@@ -19424,18 +19424,18 @@
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="565" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B565" s="18" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C565" s="18" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D565" s="19">
         <v>4301070959</v>
@@ -19444,22 +19444,22 @@
         <v>4607111038616</v>
       </c>
       <c r="F565" s="20" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="566" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D566" s="19">
         <v>4301070962</v>
@@ -19468,16 +19468,16 @@
         <v>4607111038609</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B567" s="18" t="s">
         <v>252</v>
@@ -19496,18 +19496,18 @@
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D568" s="19">
         <v>4301135570</v>
@@ -19516,22 +19516,22 @@
         <v>4607111035806</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D569" s="19">
         <v>4301071032</v>
@@ -19540,22 +19540,22 @@
         <v>4607111038999</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D570" s="19">
         <v>4301071045</v>
@@ -19564,16 +19564,16 @@
         <v>4607111039392</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B571" s="18" t="s">
         <v>481</v>
@@ -19592,12 +19592,12 @@
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B572" s="18" t="s">
         <v>585</v>
@@ -19616,12 +19616,12 @@
       </c>
       <c r="G572" s="21"/>
       <c r="H572" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B573" s="18" t="s">
         <v>338</v>
@@ -19640,7 +19640,7 @@
       </c>
       <c r="G573" s="21"/>
       <c r="H573" s="22" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\KSK_Simf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C8746B-DEB0-4B63-9429-D81F623734EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E32082-D42C-4A4E-953D-FBE9B58EDA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$573</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$512</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$574</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$513</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1013">
   <si>
     <t>1С</t>
   </si>
@@ -3075,6 +3075,9 @@
   </si>
   <si>
     <t>P005095</t>
+  </si>
+  <si>
+    <t>Мини-пицца с ветчиной и сыром ТМ Зареченские ВЕС,  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6330,11 +6333,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H573"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11548,7 +11551,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>160</v>
+        <v>1012</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>631</v>
@@ -11565,16 +11568,11 @@
       <c r="F216" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="G216" s="1">
-        <v>180</v>
-      </c>
-      <c r="H216" s="16" t="s">
-        <v>634</v>
-      </c>
+      <c r="G216" s="1"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>635</v>
+        <v>160</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>631</v>
@@ -11594,34 +11592,36 @@
       <c r="G217" s="1">
         <v>180</v>
       </c>
+      <c r="H217" s="16" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>408</v>
+        <v>635</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>162</v>
+        <v>631</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D218" s="4">
-        <v>4301071056</v>
+        <v>4301135504</v>
       </c>
       <c r="E218" s="3">
-        <v>4640242180250</v>
+        <v>4640242181554</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="G218" s="1">
-        <f>VLOOKUP(E218,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>162</v>
@@ -11645,7 +11645,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>161</v>
+        <v>385</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>162</v>
@@ -11669,22 +11669,22 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>735</v>
+        <v>162</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>736</v>
+        <v>629</v>
       </c>
       <c r="D221" s="4">
-        <v>4301135550</v>
+        <v>4301071056</v>
       </c>
       <c r="E221" s="3">
-        <v>4607111034199</v>
+        <v>4640242180250</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>737</v>
+        <v>630</v>
       </c>
       <c r="G221" s="1">
         <f>VLOOKUP(E221,[1]Лист1!$D:$M,10,0)</f>
@@ -11693,7 +11693,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>735</v>
@@ -11717,7 +11717,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>768</v>
+        <v>113</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>735</v>
@@ -11741,7 +11741,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>92</v>
+        <v>768</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>735</v>
@@ -11765,31 +11765,31 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>242</v>
+        <v>92</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>261</v>
+        <v>735</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>262</v>
+        <v>736</v>
       </c>
       <c r="D225" s="4">
-        <v>4301131018</v>
+        <v>4301135550</v>
       </c>
       <c r="E225" s="3">
-        <v>4607111037930</v>
+        <v>4607111034199</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="G225" s="1" t="e">
+        <v>737</v>
+      </c>
+      <c r="G225" s="1">
         <f>VLOOKUP(E225,[1]Лист1!$D:$M,10,0)</f>
-        <v>#N/A</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>261</v>
@@ -11813,30 +11813,31 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>164</v>
+        <v>334</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>470</v>
+        <v>261</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>471</v>
+        <v>262</v>
       </c>
       <c r="D227" s="4">
-        <v>4301190022</v>
+        <v>4301131018</v>
       </c>
       <c r="E227" s="3">
-        <v>4607111037053</v>
+        <v>4607111037930</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="G227" s="1">
-        <v>365</v>
+        <v>263</v>
+      </c>
+      <c r="G227" s="1" t="e">
+        <f>VLOOKUP(E227,[1]Лист1!$D:$M,10,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>470</v>
@@ -11854,13 +11855,12 @@
         <v>472</v>
       </c>
       <c r="G228" s="1">
-        <f>VLOOKUP(E228,[1]Лист1!$D:$M,10,0)</f>
         <v>365</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>119</v>
+        <v>339</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>470</v>
@@ -11884,22 +11884,22 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="D230" s="4">
-        <v>4301190023</v>
+        <v>4301190022</v>
       </c>
       <c r="E230" s="3">
-        <v>4607111037060</v>
+        <v>4607111037053</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="G230" s="1">
         <f>VLOOKUP(E230,[1]Лист1!$D:$M,10,0)</f>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>340</v>
+        <v>165</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>411</v>
@@ -11932,7 +11932,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>411</v>
@@ -11956,31 +11956,31 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>769</v>
+        <v>120</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>183</v>
+        <v>411</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>521</v>
+        <v>412</v>
       </c>
       <c r="D233" s="4">
-        <v>4301135285</v>
+        <v>4301190023</v>
       </c>
       <c r="E233" s="3">
-        <v>4607111036407</v>
+        <v>4607111037060</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>184</v>
+        <v>413</v>
       </c>
       <c r="G233" s="1">
         <f>VLOOKUP(E233,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>441</v>
+        <v>769</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>183</v>
@@ -12004,7 +12004,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>184</v>
+        <v>441</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>183</v>
@@ -12028,7 +12028,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>183</v>
@@ -12052,22 +12052,22 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>647</v>
+        <v>183</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>648</v>
+        <v>521</v>
       </c>
       <c r="D237" s="4">
-        <v>4301135555</v>
+        <v>4301135285</v>
       </c>
       <c r="E237" s="3">
-        <v>4607111034014</v>
+        <v>4607111036407</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>649</v>
+        <v>184</v>
       </c>
       <c r="G237" s="1">
         <f>VLOOKUP(E237,[1]Лист1!$D:$M,10,0)</f>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>347</v>
+        <v>93</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>647</v>
@@ -12100,7 +12100,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>771</v>
+        <v>347</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>647</v>
@@ -12124,7 +12124,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>647</v>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>216</v>
+        <v>690</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>647</v>
@@ -12172,22 +12172,22 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D242" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E242" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="G242" s="1">
         <f>VLOOKUP(E242,[1]Лист1!$D:$M,10,0)</f>
@@ -12196,7 +12196,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>770</v>
+        <v>217</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>644</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>114</v>
+        <v>770</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>644</v>
@@ -12244,7 +12244,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>644</v>
@@ -12268,22 +12268,22 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>297</v>
+        <v>644</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>298</v>
+        <v>645</v>
       </c>
       <c r="D246" s="4">
-        <v>4301136051</v>
+        <v>4301135532</v>
       </c>
       <c r="E246" s="3">
-        <v>4640242180304</v>
+        <v>4607111033994</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>299</v>
+        <v>646</v>
       </c>
       <c r="G246" s="1">
         <f>VLOOKUP(E246,[1]Лист1!$D:$M,10,0)</f>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>345</v>
+        <v>166</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>297</v>
@@ -12316,7 +12316,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>297</v>
@@ -12340,7 +12340,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>493</v>
+        <v>414</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>297</v>
@@ -12364,7 +12364,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>121</v>
+        <v>493</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>297</v>
@@ -12388,22 +12388,22 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>344</v>
+        <v>121</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D251" s="4">
-        <v>4301136053</v>
+        <v>4301136051</v>
       </c>
       <c r="E251" s="3">
-        <v>4640242180236</v>
+        <v>4640242180304</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G251" s="1">
         <f>VLOOKUP(E251,[1]Лист1!$D:$M,10,0)</f>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>300</v>
@@ -12436,7 +12436,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>300</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>95</v>
+        <v>376</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>300</v>
@@ -12484,22 +12484,22 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>274</v>
+        <v>95</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="D255" s="4">
-        <v>4301070915</v>
+        <v>4301136053</v>
       </c>
       <c r="E255" s="3">
-        <v>4607111035882</v>
+        <v>4640242180236</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="G255" s="1">
         <f>VLOOKUP(E255,[1]Лист1!$D:$M,10,0)</f>
@@ -12508,7 +12508,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>323</v>
+        <v>274</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>234</v>
@@ -12532,7 +12532,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>236</v>
+        <v>323</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>234</v>
@@ -12556,22 +12556,22 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D258" s="4">
-        <v>4301070874</v>
+        <v>4301070915</v>
       </c>
       <c r="E258" s="3">
-        <v>4607111035332</v>
+        <v>4607111035882</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G258" s="1">
         <f>VLOOKUP(E258,[1]Лист1!$D:$M,10,0)</f>
@@ -12580,7 +12580,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>402</v>
+        <v>324</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>237</v>
@@ -12604,7 +12604,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>239</v>
+        <v>402</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>237</v>
@@ -12628,22 +12628,22 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>527</v>
+        <v>238</v>
       </c>
       <c r="D261" s="4">
-        <v>4301136066</v>
+        <v>4301070874</v>
       </c>
       <c r="E261" s="3">
-        <v>4607111035370</v>
+        <v>4607111035332</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G261" s="1">
         <f>VLOOKUP(E261,[1]Лист1!$D:$M,10,0)</f>
@@ -12652,7 +12652,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>240</v>
@@ -12676,7 +12676,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>241</v>
+        <v>327</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>240</v>
@@ -12700,31 +12700,31 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>244</v>
+        <v>527</v>
       </c>
       <c r="D264" s="4">
-        <v>4301051320</v>
+        <v>4301136066</v>
       </c>
       <c r="E264" s="3">
-        <v>4680115881334</v>
+        <v>4607111035370</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G264" s="1">
         <f>VLOOKUP(E264,[1]Лист1!$D:$M,10,0)</f>
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>243</v>
@@ -12748,7 +12748,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>243</v>
@@ -12772,22 +12772,22 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D267" s="4">
-        <v>4301051319</v>
+        <v>4301051320</v>
       </c>
       <c r="E267" s="3">
-        <v>4680115881204</v>
+        <v>4680115881334</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G267" s="1">
         <f>VLOOKUP(E267,[1]Лист1!$D:$M,10,0)</f>
@@ -12796,46 +12796,46 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>304</v>
+        <v>248</v>
       </c>
       <c r="D268" s="4">
-        <v>4301136027</v>
+        <v>4301051319</v>
       </c>
       <c r="E268" s="3">
-        <v>4640242180298</v>
+        <v>4680115881204</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="G268" s="1">
         <f>VLOOKUP(E268,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>404</v>
+        <v>275</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D269" s="4">
-        <v>4301130003</v>
+        <v>4301136027</v>
       </c>
       <c r="E269" s="3">
-        <v>4607111034687</v>
+        <v>4640242180298</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G269" s="1">
         <f>VLOOKUP(E269,[1]Лист1!$D:$M,10,0)</f>
@@ -12844,7 +12844,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>459</v>
+        <v>404</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>310</v>
@@ -12868,7 +12868,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>309</v>
+        <v>459</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>310</v>
@@ -12892,22 +12892,22 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="D272" s="4">
-        <v>4301070977</v>
+        <v>4301130003</v>
       </c>
       <c r="E272" s="3">
-        <v>4607111037411</v>
+        <v>4607111034687</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G272" s="1">
         <f>VLOOKUP(E272,[1]Лист1!$D:$M,10,0)</f>
@@ -12916,7 +12916,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>708</v>
+        <v>318</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>316</v>
@@ -12940,7 +12940,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>315</v>
+        <v>708</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>316</v>
@@ -12964,22 +12964,22 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>916</v>
+        <v>317</v>
       </c>
       <c r="D275" s="4">
-        <v>4301071062</v>
+        <v>4301070977</v>
       </c>
       <c r="E275" s="3">
-        <v>4607111036384</v>
+        <v>4607111037411</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>917</v>
+        <v>318</v>
       </c>
       <c r="G275" s="1">
         <f>VLOOKUP(E275,[1]Лист1!$D:$M,10,0)</f>
@@ -12988,7 +12988,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>322</v>
@@ -13012,22 +13012,22 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>406</v>
+        <v>321</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>881</v>
+        <v>322</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>882</v>
+        <v>916</v>
       </c>
       <c r="D277" s="4">
-        <v>4301135571</v>
+        <v>4301071062</v>
       </c>
       <c r="E277" s="3">
-        <v>4607111035028</v>
+        <v>4607111036384</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>883</v>
+        <v>917</v>
       </c>
       <c r="G277" s="1">
         <f>VLOOKUP(E277,[1]Лист1!$D:$M,10,0)</f>
@@ -13036,7 +13036,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>326</v>
+        <v>406</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>881</v>
@@ -13060,7 +13060,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>883</v>
+        <v>326</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>881</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>998</v>
+        <v>883</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>881</v>
@@ -13101,11 +13101,14 @@
       <c r="F280" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="G280" s="1"/>
+      <c r="G280" s="1">
+        <f>VLOOKUP(E280,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>325</v>
+        <v>998</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>881</v>
@@ -13122,29 +13125,26 @@
       <c r="F281" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="G281" s="1">
-        <f>VLOOKUP(E281,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
+      <c r="G281" s="1"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>426</v>
+        <v>325</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>331</v>
+        <v>881</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>332</v>
+        <v>882</v>
       </c>
       <c r="D282" s="4">
-        <v>4301130006</v>
+        <v>4301135571</v>
       </c>
       <c r="E282" s="3">
-        <v>4607111034670</v>
+        <v>4607111035028</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>333</v>
+        <v>883</v>
       </c>
       <c r="G282" s="1">
         <f>VLOOKUP(E282,[1]Лист1!$D:$M,10,0)</f>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>331</v>
@@ -13177,7 +13177,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>330</v>
+        <v>458</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>331</v>
@@ -13201,22 +13201,22 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>428</v>
+        <v>330</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>585</v>
+        <v>331</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>586</v>
+        <v>332</v>
       </c>
       <c r="D285" s="4">
-        <v>4301071054</v>
+        <v>4301130006</v>
       </c>
       <c r="E285" s="3">
-        <v>4607111035639</v>
+        <v>4607111034670</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>587</v>
+        <v>333</v>
       </c>
       <c r="G285" s="1">
         <f>VLOOKUP(E285,[1]Лист1!$D:$M,10,0)</f>
@@ -13225,7 +13225,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>336</v>
+        <v>428</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>585</v>
@@ -13249,22 +13249,22 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>338</v>
+        <v>585</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="D287" s="4">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E287" s="3">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="G287" s="1">
         <f>VLOOKUP(E287,[1]Лист1!$D:$M,10,0)</f>
@@ -13273,7 +13273,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>927</v>
+        <v>429</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>338</v>
@@ -13297,7 +13297,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>337</v>
+        <v>927</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>338</v>
@@ -13321,31 +13321,31 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>636</v>
+        <v>337</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>351</v>
+        <v>555</v>
       </c>
       <c r="D290" s="4">
-        <v>4301080154</v>
+        <v>4301135540</v>
       </c>
       <c r="E290" s="3">
-        <v>4607111036834</v>
+        <v>4607111035646</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>352</v>
+        <v>556</v>
       </c>
       <c r="G290" s="1">
         <f>VLOOKUP(E290,[1]Лист1!$D:$M,10,0)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>352</v>
+        <v>636</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>350</v>
@@ -13369,7 +13369,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>350</v>
@@ -13393,22 +13393,22 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D293" s="4">
-        <v>4301070941</v>
+        <v>4301080154</v>
       </c>
       <c r="E293" s="3">
-        <v>4607111036162</v>
+        <v>4607111036834</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G293" s="1">
         <f>VLOOKUP(E293,[1]Лист1!$D:$M,10,0)</f>
@@ -13417,46 +13417,46 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D294" s="4">
-        <v>4301070826</v>
+        <v>4301070941</v>
       </c>
       <c r="E294" s="3">
-        <v>4607111035752</v>
+        <v>4607111036162</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G294" s="1">
         <f>VLOOKUP(E294,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D295" s="4">
-        <v>4301070966</v>
+        <v>4301070826</v>
       </c>
       <c r="E295" s="3">
-        <v>4607111038135</v>
+        <v>4607111035752</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G295" s="1">
         <f>VLOOKUP(E295,[1]Лист1!$D:$M,10,0)</f>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>449</v>
+        <v>399</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>366</v>
@@ -13489,7 +13489,7 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>365</v>
+        <v>449</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>366</v>
@@ -13513,55 +13513,55 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D298" s="4">
-        <v>4301070911</v>
+        <v>4301070966</v>
       </c>
       <c r="E298" s="3">
-        <v>4607111036278</v>
+        <v>4607111038135</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G298" s="1">
         <f>VLOOKUP(E298,[1]Лист1!$D:$M,10,0)</f>
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D299" s="4">
-        <v>4301131019</v>
+        <v>4301070911</v>
       </c>
       <c r="E299" s="3">
-        <v>4640242180427</v>
+        <v>4607111036278</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G299" s="1">
         <f>VLOOKUP(E299,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>163</v>
+        <v>391</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>373</v>
@@ -13585,7 +13585,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>375</v>
+        <v>163</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>373</v>
@@ -13609,7 +13609,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>373</v>
@@ -13633,22 +13633,22 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>777</v>
+        <v>373</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>778</v>
+        <v>374</v>
       </c>
       <c r="D303" s="4">
-        <v>4301132170</v>
+        <v>4301131019</v>
       </c>
       <c r="E303" s="3">
-        <v>4607111038487</v>
+        <v>4640242180427</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>779</v>
+        <v>375</v>
       </c>
       <c r="G303" s="1">
         <f>VLOOKUP(E303,[1]Лист1!$D:$M,10,0)</f>
@@ -13657,7 +13657,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>777</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>777</v>
@@ -13705,7 +13705,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>777</v>
@@ -13729,22 +13729,22 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>433</v>
+        <v>777</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>434</v>
+        <v>778</v>
       </c>
       <c r="D307" s="4">
-        <v>4301070884</v>
+        <v>4301132170</v>
       </c>
       <c r="E307" s="3">
-        <v>4607111036315</v>
+        <v>4607111038487</v>
       </c>
       <c r="F307" s="5" t="s">
-        <v>435</v>
+        <v>779</v>
       </c>
       <c r="G307" s="1">
         <f>VLOOKUP(E307,[1]Лист1!$D:$M,10,0)</f>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>433</v>
@@ -13777,22 +13777,22 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D309" s="4">
-        <v>4301133002</v>
+        <v>4301070884</v>
       </c>
       <c r="E309" s="3">
-        <v>4607111035783</v>
+        <v>4607111036315</v>
       </c>
       <c r="F309" s="5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G309" s="1">
         <f>VLOOKUP(E309,[1]Лист1!$D:$M,10,0)</f>
@@ -13801,22 +13801,22 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D310" s="4">
-        <v>4301070958</v>
+        <v>4301133002</v>
       </c>
       <c r="E310" s="3">
-        <v>4607111038098</v>
+        <v>4607111035783</v>
       </c>
       <c r="F310" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G310" s="1">
         <f>VLOOKUP(E310,[1]Лист1!$D:$M,10,0)</f>
@@ -13825,30 +13825,31 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="D311" s="4">
-        <v>4301135318</v>
+        <v>4301070958</v>
       </c>
       <c r="E311" s="3">
-        <v>4607111037480</v>
+        <v>4607111038098</v>
       </c>
       <c r="F311" s="5" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="G311" s="1">
+        <f>VLOOKUP(E311,[1]Лист1!$D:$M,10,0)</f>
         <v>180</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>461</v>
@@ -13871,7 +13872,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>461</v>
@@ -13894,22 +13895,22 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D314" s="4">
-        <v>4301135319</v>
+        <v>4301135318</v>
       </c>
       <c r="E314" s="3">
-        <v>4607111037473</v>
+        <v>4607111037480</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="G314" s="1">
         <v>180</v>
@@ -13917,7 +13918,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>464</v>
@@ -13940,7 +13941,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>464</v>
@@ -13963,28 +13964,30 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="D317" s="4">
-        <v>4301135198</v>
+        <v>4301135319</v>
       </c>
       <c r="E317" s="3">
-        <v>4640242180663</v>
+        <v>4607111037473</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="G317" s="1"/>
+        <v>465</v>
+      </c>
+      <c r="G317" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>467</v>
@@ -14005,51 +14008,49 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="D319" s="4">
-        <v>4301135317</v>
+        <v>4301135198</v>
       </c>
       <c r="E319" s="3">
-        <v>4607111039057</v>
+        <v>4640242180663</v>
       </c>
       <c r="F319" s="5" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G319" s="1"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D320" s="4">
-        <v>4301070963</v>
+        <v>4301135317</v>
       </c>
       <c r="E320" s="3">
-        <v>4607111038630</v>
+        <v>4607111039057</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="G320" s="1">
-        <v>180</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="G320" s="1"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>481</v>
@@ -14070,24 +14071,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D322" s="4">
-        <v>4301070960</v>
+        <v>4301070963</v>
       </c>
       <c r="E322" s="3">
-        <v>4607111038623</v>
+        <v>4607111038630</v>
       </c>
       <c r="F322" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G322" s="1">
         <v>180</v>
@@ -14095,7 +14096,7 @@
     </row>
     <row r="323" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>485</v>
@@ -14118,7 +14119,7 @@
     </row>
     <row r="324" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>485</v>
@@ -14141,7 +14142,7 @@
     </row>
     <row r="325" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>485</v>
@@ -14162,24 +14163,24 @@
         <v>180</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="B326" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="C326" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="D326" s="13">
-        <v>4301070997</v>
-      </c>
-      <c r="E326" s="14">
-        <v>4607111038586</v>
-      </c>
-      <c r="F326" s="15" t="s">
-        <v>491</v>
+        <v>484</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D326" s="4">
+        <v>4301070960</v>
+      </c>
+      <c r="E326" s="3">
+        <v>4607111038623</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>487</v>
       </c>
       <c r="G326" s="1">
         <v>180</v>
@@ -14187,7 +14188,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B327" s="12" t="s">
         <v>489</v>
@@ -14210,7 +14211,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B328" s="12" t="s">
         <v>489</v>
@@ -14233,7 +14234,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B329" s="12" t="s">
         <v>489</v>
@@ -14256,30 +14257,30 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="B330" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="D330" s="4">
-        <v>4301190046</v>
-      </c>
-      <c r="E330" s="3">
-        <v>4607111038951</v>
-      </c>
-      <c r="F330" s="5" t="s">
-        <v>502</v>
+        <v>488</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D330" s="13">
+        <v>4301070997</v>
+      </c>
+      <c r="E330" s="14">
+        <v>4607111038586</v>
+      </c>
+      <c r="F330" s="15" t="s">
+        <v>491</v>
       </c>
       <c r="G330" s="1">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>500</v>
@@ -14302,30 +14303,30 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D332" s="4">
-        <v>4301070996</v>
+        <v>4301190046</v>
       </c>
       <c r="E332" s="3">
-        <v>4607111038654</v>
+        <v>4607111038951</v>
       </c>
       <c r="F332" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G332" s="1">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>505</v>
@@ -14348,28 +14349,30 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D334" s="4">
-        <v>4301071021</v>
+        <v>4301070996</v>
       </c>
       <c r="E334" s="3">
-        <v>4640242181325</v>
+        <v>4607111038654</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="G334" s="1"/>
+        <v>504</v>
+      </c>
+      <c r="G334" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>511</v>
@@ -14390,7 +14393,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>564</v>
+        <v>542</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>511</v>
@@ -14411,7 +14414,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>510</v>
+        <v>564</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>511</v>
@@ -14432,73 +14435,73 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D338" s="4">
-        <v>4301135309</v>
+        <v>4301071021</v>
       </c>
       <c r="E338" s="3">
-        <v>4640242181332</v>
+        <v>4640242181325</v>
       </c>
       <c r="F338" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G338" s="1"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>316</v>
+        <v>515</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>317</v>
+        <v>516</v>
       </c>
       <c r="D339" s="4">
-        <v>4301070977</v>
+        <v>4301135309</v>
       </c>
       <c r="E339" s="3">
-        <v>4607111037411</v>
+        <v>4640242181332</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G339" s="1">
-        <f>VLOOKUP(E339,[1]Лист1!$D:$M,10,0)</f>
-        <v>180</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="G339" s="1"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>524</v>
+        <v>316</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>525</v>
+        <v>317</v>
       </c>
       <c r="D340" s="4">
-        <v>4301071014</v>
+        <v>4301070977</v>
       </c>
       <c r="E340" s="3">
-        <v>4640242181264</v>
+        <v>4607111037411</v>
       </c>
       <c r="F340" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="G340" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="G340" s="1">
+        <f>VLOOKUP(E340,[1]Лист1!$D:$M,10,0)</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>524</v>
@@ -14519,28 +14522,28 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>558</v>
+        <v>523</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D342" s="4">
-        <v>4301135310</v>
+        <v>4301071014</v>
       </c>
       <c r="E342" s="3">
-        <v>4640242181318</v>
+        <v>4640242181264</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G342" s="1"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>529</v>
@@ -14561,7 +14564,7 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>528</v>
+        <v>598</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>529</v>
@@ -14582,28 +14585,28 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D345" s="4">
-        <v>4301135306</v>
+        <v>4301135310</v>
       </c>
       <c r="E345" s="3">
-        <v>4640242181578</v>
+        <v>4640242181318</v>
       </c>
       <c r="F345" s="5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G345" s="1"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>628</v>
+        <v>559</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>532</v>
@@ -14624,7 +14627,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>531</v>
+        <v>628</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>532</v>
@@ -14645,91 +14648,91 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="B348" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="C348" s="12" t="s">
-        <v>536</v>
-      </c>
-      <c r="D348" s="13">
-        <v>4301135305</v>
-      </c>
-      <c r="E348" s="14">
-        <v>4640242181394</v>
-      </c>
-      <c r="F348" s="15" t="s">
-        <v>534</v>
+        <v>531</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D348" s="4">
+        <v>4301135306</v>
+      </c>
+      <c r="E348" s="3">
+        <v>4640242181578</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>531</v>
       </c>
       <c r="G348" s="1"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="B349" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B349" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="C349" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="D349" s="4">
+      <c r="D349" s="13">
         <v>4301135305</v>
       </c>
-      <c r="E349" s="3">
+      <c r="E349" s="14">
         <v>4640242181394</v>
       </c>
-      <c r="F349" s="5" t="s">
-        <v>601</v>
+      <c r="F349" s="15" t="s">
+        <v>534</v>
       </c>
       <c r="G349" s="1"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="B350" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="B350" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C350" s="12" t="s">
+      <c r="C350" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D350" s="13">
+      <c r="D350" s="4">
         <v>4301135305</v>
       </c>
-      <c r="E350" s="14">
+      <c r="E350" s="3">
         <v>4640242181394</v>
       </c>
-      <c r="F350" s="15" t="s">
-        <v>534</v>
+      <c r="F350" s="5" t="s">
+        <v>601</v>
       </c>
       <c r="G350" s="1"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="D351" s="4">
-        <v>4301070993</v>
-      </c>
-      <c r="E351" s="3">
-        <v>4640242180670</v>
-      </c>
-      <c r="F351" s="5" t="s">
-        <v>537</v>
+        <v>534</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D351" s="13">
+        <v>4301135305</v>
+      </c>
+      <c r="E351" s="14">
+        <v>4640242181394</v>
+      </c>
+      <c r="F351" s="15" t="s">
+        <v>534</v>
       </c>
       <c r="G351" s="1"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>597</v>
+        <v>575</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>538</v>
@@ -14750,7 +14753,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>538</v>
@@ -14771,28 +14774,28 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>1007</v>
+        <v>538</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>1008</v>
+        <v>539</v>
       </c>
       <c r="D354" s="4">
-        <v>4301135824</v>
+        <v>4301070993</v>
       </c>
       <c r="E354" s="3">
-        <v>4607111039095</v>
+        <v>4640242180670</v>
       </c>
       <c r="F354" s="5" t="s">
-        <v>1009</v>
+        <v>537</v>
       </c>
       <c r="G354" s="1"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>758</v>
+        <v>573</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>1007</v>
@@ -14813,7 +14816,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>547</v>
+        <v>758</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>1007</v>
@@ -14834,91 +14837,91 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>566</v>
+        <v>1007</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>567</v>
+        <v>1008</v>
       </c>
       <c r="D357" s="4">
-        <v>4301132104</v>
+        <v>4301135824</v>
       </c>
       <c r="E357" s="3">
-        <v>4640242181219</v>
+        <v>4607111039095</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>568</v>
+        <v>1009</v>
       </c>
       <c r="G357" s="1"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D358" s="4">
-        <v>4301070991</v>
+        <v>4301132104</v>
       </c>
       <c r="E358" s="3">
-        <v>4607111038180</v>
+        <v>4640242181219</v>
       </c>
       <c r="F358" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G358" s="1"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>588</v>
+        <v>569</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="D359" s="4">
-        <v>4301135304</v>
+        <v>4301070991</v>
       </c>
       <c r="E359" s="3">
-        <v>4640242181240</v>
+        <v>4607111038180</v>
       </c>
       <c r="F359" s="5" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="G359" s="1"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D360" s="4">
-        <v>4301135374</v>
+        <v>4301135304</v>
       </c>
       <c r="E360" s="3">
-        <v>4640242181424</v>
+        <v>4640242181240</v>
       </c>
       <c r="F360" s="5" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G360" s="1"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>594</v>
@@ -14939,7 +14942,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>594</v>
@@ -14960,7 +14963,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>594</v>
@@ -14981,28 +14984,28 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>675</v>
+        <v>593</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D364" s="4">
-        <v>4301071046</v>
+        <v>4301135374</v>
       </c>
       <c r="E364" s="3">
-        <v>4607111039354</v>
+        <v>4640242181424</v>
       </c>
       <c r="F364" s="5" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="G364" s="1"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>603</v>
@@ -15023,7 +15026,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>603</v>
@@ -15044,28 +15047,28 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>676</v>
+        <v>602</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D367" s="4">
-        <v>4301071047</v>
+        <v>4301071046</v>
       </c>
       <c r="E367" s="3">
-        <v>4607111039330</v>
+        <v>4607111039354</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G367" s="1"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>727</v>
+        <v>676</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>607</v>
@@ -15086,7 +15089,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>609</v>
+        <v>727</v>
       </c>
       <c r="B369" s="3" t="s">
         <v>607</v>
@@ -15107,7 +15110,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>607</v>
@@ -15128,28 +15131,28 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>657</v>
+        <v>606</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D371" s="4">
-        <v>4301071051</v>
+        <v>4301071047</v>
       </c>
       <c r="E371" s="3">
-        <v>4607111039262</v>
+        <v>4607111039330</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G371" s="1"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>611</v>
@@ -15170,7 +15173,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>613</v>
+        <v>670</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>611</v>
@@ -15191,7 +15194,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>706</v>
+        <v>613</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>611</v>
@@ -15212,7 +15215,7 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>610</v>
+        <v>706</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>611</v>
@@ -15233,28 +15236,28 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>656</v>
+        <v>610</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D376" s="4">
-        <v>4301071038</v>
+        <v>4301071051</v>
       </c>
       <c r="E376" s="3">
-        <v>4607111039248</v>
+        <v>4607111039262</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="G376" s="1"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>615</v>
@@ -15275,7 +15278,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>615</v>
@@ -15296,7 +15299,7 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>617</v>
+        <v>671</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>615</v>
@@ -15317,7 +15320,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>615</v>
@@ -15338,28 +15341,28 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>659</v>
+        <v>614</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D381" s="4">
-        <v>4301071049</v>
+        <v>4301071038</v>
       </c>
       <c r="E381" s="3">
-        <v>4607111039293</v>
+        <v>4607111039248</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="G381" s="1"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>619</v>
@@ -15380,7 +15383,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>619</v>
@@ -15401,7 +15404,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>707</v>
+        <v>621</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>619</v>
@@ -15422,7 +15425,7 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>618</v>
+        <v>707</v>
       </c>
       <c r="B385" s="3" t="s">
         <v>619</v>
@@ -15443,28 +15446,28 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D386" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E386" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G386" s="1"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>683</v>
+        <v>658</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>623</v>
@@ -15485,7 +15488,7 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="10" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>623</v>
@@ -15506,7 +15509,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="10" t="s">
-        <v>625</v>
+        <v>673</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>623</v>
@@ -15527,7 +15530,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="10" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>623</v>
@@ -15548,28 +15551,28 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="10" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1010</v>
+        <v>623</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>1011</v>
+        <v>624</v>
       </c>
       <c r="D391" s="4">
-        <v>4301135829</v>
+        <v>4301071039</v>
       </c>
       <c r="E391" s="3">
-        <v>4620207490235</v>
+        <v>4607111039279</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="G391" s="1"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="10" t="s">
-        <v>668</v>
+        <v>642</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>1010</v>
@@ -15590,7 +15593,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="10" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>1010</v>
@@ -15611,28 +15614,28 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="10" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>651</v>
+        <v>1010</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>652</v>
+        <v>1011</v>
       </c>
       <c r="D394" s="4">
-        <v>4301135707</v>
+        <v>4301135829</v>
       </c>
       <c r="E394" s="3">
-        <v>4620207490198</v>
+        <v>4620207490235</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G394" s="1"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="10" t="s">
-        <v>701</v>
+        <v>650</v>
       </c>
       <c r="B395" s="3" t="s">
         <v>651</v>
@@ -15653,7 +15656,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="10" t="s">
-        <v>684</v>
+        <v>701</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>651</v>
@@ -15674,28 +15677,28 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="10" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D397" s="4">
-        <v>4301135697</v>
+        <v>4301135707</v>
       </c>
       <c r="E397" s="3">
-        <v>4620207490259</v>
+        <v>4620207490198</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="G397" s="1"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="10" t="s">
-        <v>709</v>
+        <v>653</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>654</v>
@@ -15716,7 +15719,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="10" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>654</v>
@@ -15737,28 +15740,28 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="10" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D400" s="4">
-        <v>4301071044</v>
+        <v>4301135697</v>
       </c>
       <c r="E400" s="3">
-        <v>4607111039385</v>
+        <v>4620207490259</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="G400" s="1"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="10" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>661</v>
@@ -15779,7 +15782,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="10" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>661</v>
@@ -15800,7 +15803,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="10" t="s">
-        <v>867</v>
+        <v>663</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>661</v>
@@ -15821,7 +15824,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="10" t="s">
-        <v>660</v>
+        <v>867</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>661</v>
@@ -15842,28 +15845,28 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="10" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D405" s="4">
-        <v>4301071045</v>
+        <v>4301071044</v>
       </c>
       <c r="E405" s="3">
-        <v>4607111039392</v>
+        <v>4607111039385</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G405" s="1"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="10" t="s">
-        <v>702</v>
+        <v>664</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>665</v>
@@ -15884,7 +15887,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="10" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>665</v>
@@ -15905,28 +15908,28 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="10" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="D408" s="4">
-        <v>4301071031</v>
+        <v>4301071045</v>
       </c>
       <c r="E408" s="3">
-        <v>4607111038982</v>
+        <v>4607111039392</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G408" s="1"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="10" t="s">
-        <v>726</v>
+        <v>680</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>678</v>
@@ -15947,7 +15950,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="10" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>678</v>
@@ -15968,30 +15971,28 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="10" t="s">
-        <v>767</v>
+        <v>677</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>885</v>
+        <v>678</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>886</v>
+        <v>679</v>
       </c>
       <c r="D411" s="4">
-        <v>4301135591</v>
+        <v>4301071031</v>
       </c>
       <c r="E411" s="3">
-        <v>4607111036568</v>
+        <v>4607111038982</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>887</v>
-      </c>
-      <c r="G411" s="1">
-        <v>180</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="G411" s="1"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="10" t="s">
-        <v>861</v>
+        <v>767</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>885</v>
@@ -16014,7 +16015,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="10" t="s">
-        <v>696</v>
+        <v>861</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>885</v>
@@ -16037,28 +16038,30 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="10" t="s">
-        <v>891</v>
+        <v>696</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>699</v>
+        <v>885</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>700</v>
+        <v>886</v>
       </c>
       <c r="D414" s="4">
-        <v>4301135402</v>
+        <v>4301135591</v>
       </c>
       <c r="E414" s="3">
-        <v>4640242181493</v>
+        <v>4607111036568</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="G414" s="1"/>
+        <v>887</v>
+      </c>
+      <c r="G414" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="10" t="s">
-        <v>698</v>
+        <v>891</v>
       </c>
       <c r="B415" s="3" t="s">
         <v>699</v>
@@ -16079,28 +16082,28 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="10" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D416" s="4">
-        <v>4301135607</v>
+        <v>4301135402</v>
       </c>
       <c r="E416" s="3">
-        <v>4607111039613</v>
+        <v>4640242181493</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="G416" s="1"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="10" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>703</v>
@@ -16121,7 +16124,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="10" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>703</v>
@@ -16142,7 +16145,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="10" t="s">
-        <v>710</v>
+        <v>764</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>703</v>
@@ -16163,28 +16166,28 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="10" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D420" s="4">
-        <v>4301190068</v>
+        <v>4301135607</v>
       </c>
       <c r="E420" s="3">
-        <v>4620207490365</v>
+        <v>4607111039613</v>
       </c>
       <c r="F420" s="5" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="G420" s="1"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="10" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>712</v>
@@ -16205,7 +16208,7 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="10" t="s">
-        <v>711</v>
+        <v>738</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>712</v>
@@ -16226,28 +16229,28 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="10" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D423" s="4">
-        <v>4301190070</v>
+        <v>4301190068</v>
       </c>
       <c r="E423" s="3">
-        <v>4620207490419</v>
+        <v>4620207490365</v>
       </c>
       <c r="F423" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G423" s="1"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="10" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>715</v>
@@ -16268,30 +16271,28 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="10" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="D425" s="4">
-        <v>4301071032</v>
+        <v>4301190070</v>
       </c>
       <c r="E425" s="3">
-        <v>4607111038999</v>
+        <v>4620207490419</v>
       </c>
       <c r="F425" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="G425" s="1">
-        <v>180</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="G425" s="1"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="10" t="s">
-        <v>784</v>
+        <v>723</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>721</v>
@@ -16314,7 +16315,7 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="10" t="s">
-        <v>865</v>
+        <v>784</v>
       </c>
       <c r="B427" s="3" t="s">
         <v>721</v>
@@ -16337,7 +16338,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="10" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>721</v>
@@ -16360,7 +16361,7 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="10" t="s">
-        <v>720</v>
+        <v>866</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>721</v>
@@ -16383,51 +16384,51 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="10" t="s">
-        <v>739</v>
+        <v>720</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>741</v>
+        <v>722</v>
       </c>
       <c r="D430" s="4">
-        <v>4301135404</v>
+        <v>4301071032</v>
       </c>
       <c r="E430" s="3">
-        <v>4640242181516</v>
+        <v>4607111038999</v>
       </c>
       <c r="F430" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="G430" s="1"/>
+        <v>723</v>
+      </c>
+      <c r="G430" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="10" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D431" s="4">
-        <v>4301071090</v>
+        <v>4301135404</v>
       </c>
       <c r="E431" s="3">
-        <v>4620207490075</v>
+        <v>4640242181516</v>
       </c>
       <c r="F431" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="G431" s="1">
-        <v>180</v>
-      </c>
+        <v>739</v>
+      </c>
+      <c r="G431" s="1"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="10" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>743</v>
@@ -16450,22 +16451,22 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="10" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D433" s="4">
-        <v>4301071092</v>
+        <v>4301071090</v>
       </c>
       <c r="E433" s="3">
-        <v>4620207490174</v>
+        <v>4620207490075</v>
       </c>
       <c r="F433" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="G433" s="1">
         <v>180</v>
@@ -16473,7 +16474,7 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="10" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>746</v>
@@ -16496,7 +16497,7 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="10" t="s">
-        <v>745</v>
+        <v>756</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>746</v>
@@ -16519,22 +16520,22 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="10" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D436" s="4">
-        <v>4301071091</v>
+        <v>4301071092</v>
       </c>
       <c r="E436" s="3">
-        <v>4620207490044</v>
+        <v>4620207490174</v>
       </c>
       <c r="F436" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G436" s="1">
         <v>180</v>
@@ -16542,7 +16543,7 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="10" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>749</v>
@@ -16565,72 +16566,72 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="10" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="D438" s="4">
-        <v>4301132044</v>
+        <v>4301071091</v>
       </c>
       <c r="E438" s="3">
-        <v>4607111036971</v>
+        <v>4620207490044</v>
       </c>
       <c r="F438" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="G438" s="1"/>
+        <v>748</v>
+      </c>
+      <c r="G438" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="10" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
       <c r="D439" s="4">
-        <v>4301135127</v>
+        <v>4301132044</v>
       </c>
       <c r="E439" s="3">
-        <v>4607111036995</v>
+        <v>4607111036971</v>
       </c>
       <c r="F439" s="5" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="G439" s="1"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="10" t="s">
-        <v>877</v>
+        <v>780</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1002</v>
+        <v>781</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>1003</v>
+        <v>782</v>
       </c>
       <c r="D440" s="4">
-        <v>4301135826</v>
+        <v>4301135127</v>
       </c>
       <c r="E440" s="3">
-        <v>4620207490983</v>
+        <v>4607111036995</v>
       </c>
       <c r="F440" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="G440" s="1">
-        <v>180</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="G440" s="1"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="10" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>1002</v>
@@ -16653,7 +16654,7 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>1002</v>
@@ -16676,7 +16677,7 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="10" t="s">
-        <v>868</v>
+        <v>889</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>1002</v>
@@ -16699,28 +16700,30 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="10" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>870</v>
+        <v>1002</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>871</v>
+        <v>1003</v>
       </c>
       <c r="D444" s="4">
-        <v>4301071074</v>
+        <v>4301135826</v>
       </c>
       <c r="E444" s="3">
-        <v>4620207491157</v>
+        <v>4620207490983</v>
       </c>
       <c r="F444" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="G444" s="1"/>
+        <v>876</v>
+      </c>
+      <c r="G444" s="1">
+        <v>180</v>
+      </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="10" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>870</v>
@@ -16741,7 +16744,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="10" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>870</v>
@@ -16762,28 +16765,28 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>904</v>
+        <v>869</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
       <c r="D447" s="4">
-        <v>4301135763</v>
+        <v>4301071074</v>
       </c>
       <c r="E447" s="3">
-        <v>4620207491027</v>
+        <v>4620207491157</v>
       </c>
       <c r="F447" s="5" t="s">
-        <v>895</v>
+        <v>869</v>
       </c>
       <c r="G447" s="1"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="10" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>893</v>
@@ -16804,7 +16807,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="10" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>893</v>
@@ -16825,7 +16828,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="10" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>893</v>
@@ -16846,88 +16849,85 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="10" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="D451" s="4">
-        <v>4301135665</v>
+        <v>4301135763</v>
       </c>
       <c r="E451" s="3">
-        <v>4607111039729</v>
+        <v>4620207491027</v>
       </c>
       <c r="F451" s="5" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="G451" s="1"/>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="10" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D452" s="4">
-        <v>4301135702</v>
+        <v>4301135665</v>
       </c>
       <c r="E452" s="3">
-        <v>4620207490228</v>
+        <v>4607111039729</v>
       </c>
       <c r="F452" s="5" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G452" s="1"/>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="10" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>743</v>
+        <v>901</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>744</v>
+        <v>902</v>
       </c>
       <c r="D453" s="4">
-        <v>4301071090</v>
+        <v>4301135702</v>
       </c>
       <c r="E453" s="3">
-        <v>4620207490075</v>
+        <v>4620207490228</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>742</v>
+        <v>903</v>
       </c>
       <c r="G453" s="1"/>
-      <c r="H453" s="16" t="s">
-        <v>915</v>
-      </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="10" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D454" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E454" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F454" s="5" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="16" t="s">
@@ -16936,22 +16936,22 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="10" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="D455" s="4">
-        <v>4301071032</v>
+        <v>4301071091</v>
       </c>
       <c r="E455" s="3">
-        <v>4607111038999</v>
+        <v>4620207490044</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>723</v>
+        <v>748</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="16" t="s">
@@ -16960,22 +16960,22 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="10" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>662</v>
+        <v>722</v>
       </c>
       <c r="D456" s="4">
-        <v>4301071044</v>
+        <v>4301071032</v>
       </c>
       <c r="E456" s="3">
-        <v>4607111039385</v>
+        <v>4607111038999</v>
       </c>
       <c r="F456" s="5" t="s">
-        <v>663</v>
+        <v>723</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="16" t="s">
@@ -16984,22 +16984,22 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="10" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>616</v>
+        <v>662</v>
       </c>
       <c r="D457" s="4">
-        <v>4301071038</v>
+        <v>4301071044</v>
       </c>
       <c r="E457" s="3">
-        <v>4607111039248</v>
+        <v>4607111039385</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>617</v>
+        <v>663</v>
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="16" t="s">
@@ -17008,22 +17008,22 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="10" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="D458" s="4">
-        <v>4301071051</v>
+        <v>4301071038</v>
       </c>
       <c r="E458" s="3">
-        <v>4607111039262</v>
+        <v>4607111039248</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="16" t="s">
@@ -17032,22 +17032,22 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="D459" s="4">
-        <v>4301071049</v>
+        <v>4301071051</v>
       </c>
       <c r="E459" s="3">
-        <v>4607111039293</v>
+        <v>4607111039262</v>
       </c>
       <c r="F459" s="5" t="s">
-        <v>914</v>
+        <v>613</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="16" t="s">
@@ -17056,22 +17056,22 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="10" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D460" s="4">
-        <v>4301071039</v>
+        <v>4301071049</v>
       </c>
       <c r="E460" s="3">
-        <v>4607111039279</v>
+        <v>4607111039293</v>
       </c>
       <c r="F460" s="5" t="s">
-        <v>625</v>
+        <v>914</v>
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="16" t="s">
@@ -17080,97 +17080,100 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="10" t="s">
-        <v>640</v>
+        <v>913</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>937</v>
+        <v>623</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>938</v>
+        <v>624</v>
       </c>
       <c r="D461" s="4">
-        <v>4301135760</v>
+        <v>4301071039</v>
       </c>
       <c r="E461" s="3">
-        <v>4620207491010</v>
+        <v>4607111039279</v>
       </c>
       <c r="F461" s="5" t="s">
-        <v>939</v>
+        <v>625</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="16" t="s">
-        <v>933</v>
+        <v>915</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="10" t="s">
-        <v>731</v>
+        <v>640</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>729</v>
+        <v>937</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>730</v>
+        <v>938</v>
       </c>
       <c r="D462" s="4">
-        <v>4301132190</v>
+        <v>4301135760</v>
       </c>
       <c r="E462" s="3">
-        <v>4607111036537</v>
+        <v>4620207491010</v>
       </c>
       <c r="F462" s="5" t="s">
-        <v>731</v>
+        <v>939</v>
       </c>
       <c r="G462" s="1"/>
       <c r="H462" s="16" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="10" t="s">
-        <v>918</v>
+        <v>731</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>919</v>
+        <v>729</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>920</v>
+        <v>730</v>
       </c>
       <c r="D463" s="4">
-        <v>4301135768</v>
+        <v>4301132190</v>
       </c>
       <c r="E463" s="3">
-        <v>4620207491034</v>
+        <v>4607111036537</v>
       </c>
       <c r="F463" s="5" t="s">
-        <v>918</v>
+        <v>731</v>
       </c>
       <c r="G463" s="1"/>
+      <c r="H463" s="16" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="10" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D464" s="4">
-        <v>4301071097</v>
+        <v>4301135768</v>
       </c>
       <c r="E464" s="3">
-        <v>4620207491096</v>
+        <v>4620207491034</v>
       </c>
       <c r="F464" s="5" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="G464" s="1"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="10" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>922</v>
@@ -17191,28 +17194,28 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="10" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D466" s="4">
-        <v>4301132227</v>
+        <v>4301071097</v>
       </c>
       <c r="E466" s="3">
-        <v>4620207491133</v>
+        <v>4620207491096</v>
       </c>
       <c r="F466" s="5" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="G466" s="1"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="10" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B467" s="3" t="s">
         <v>925</v>
@@ -17233,91 +17236,91 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="10" t="s">
+        <v>924</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D468" s="4">
+        <v>4301132227</v>
+      </c>
+      <c r="E468" s="3">
+        <v>4620207491133</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="G468" s="1"/>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="10" t="s">
         <v>945</v>
       </c>
-      <c r="B468" s="3" t="s">
+      <c r="B469" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="C468" s="3" t="s">
+      <c r="C469" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="D468" s="4">
+      <c r="D469" s="4">
         <v>4301135753</v>
       </c>
-      <c r="E468" s="3">
+      <c r="E469" s="3">
         <v>4620207490914</v>
       </c>
-      <c r="F468" s="5" t="s">
+      <c r="F469" s="5" t="s">
         <v>948</v>
-      </c>
-      <c r="G468" s="1"/>
-    </row>
-    <row r="469" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A469" s="10" t="s">
-        <v>950</v>
-      </c>
-      <c r="B469" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="C469" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="D469" s="4">
-        <v>4301070962</v>
-      </c>
-      <c r="E469" s="3">
-        <v>4607111038609</v>
-      </c>
-      <c r="F469" s="5" t="s">
-        <v>857</v>
       </c>
       <c r="G469" s="1"/>
     </row>
     <row r="470" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A470" s="10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="D470" s="4">
-        <v>4301070959</v>
+        <v>4301070962</v>
       </c>
       <c r="E470" s="3">
-        <v>4607111038616</v>
+        <v>4607111038609</v>
       </c>
       <c r="F470" s="5" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="G470" s="1"/>
     </row>
     <row r="471" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A471" s="10" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>954</v>
+        <v>852</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>955</v>
+        <v>853</v>
       </c>
       <c r="D471" s="4">
-        <v>4301071075</v>
+        <v>4301070959</v>
       </c>
       <c r="E471" s="3">
-        <v>4620207491102</v>
+        <v>4607111038616</v>
       </c>
       <c r="F471" s="5" t="s">
-        <v>956</v>
+        <v>854</v>
       </c>
       <c r="G471" s="1"/>
     </row>
     <row r="472" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A472" s="10" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>954</v>
@@ -17336,807 +17339,807 @@
       </c>
       <c r="G472" s="1"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A473" s="10" t="s">
-        <v>719</v>
+        <v>953</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>717</v>
+        <v>954</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>718</v>
+        <v>955</v>
       </c>
       <c r="D473" s="4">
-        <v>4301135574</v>
+        <v>4301071075</v>
       </c>
       <c r="E473" s="3">
-        <v>4607111033659</v>
+        <v>4620207491102</v>
       </c>
       <c r="F473" s="5" t="s">
-        <v>719</v>
+        <v>956</v>
       </c>
       <c r="G473" s="1"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="10" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>735</v>
+        <v>717</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>736</v>
+        <v>718</v>
       </c>
       <c r="D474" s="4">
-        <v>4301135550</v>
+        <v>4301135574</v>
       </c>
       <c r="E474" s="3">
-        <v>4607111034199</v>
+        <v>4607111033659</v>
       </c>
       <c r="F474" s="5" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
       <c r="G474" s="1"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="10" t="s">
-        <v>948</v>
+        <v>737</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>946</v>
+        <v>735</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>947</v>
+        <v>736</v>
       </c>
       <c r="D475" s="4">
-        <v>4301135753</v>
+        <v>4301135550</v>
       </c>
       <c r="E475" s="3">
-        <v>4620207490914</v>
+        <v>4607111034199</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>948</v>
+        <v>737</v>
       </c>
       <c r="G475" s="1"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="10" t="s">
-        <v>874</v>
+        <v>948</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>872</v>
+        <v>946</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>873</v>
+        <v>947</v>
       </c>
       <c r="D476" s="4">
-        <v>4301131046</v>
+        <v>4301135753</v>
       </c>
       <c r="E476" s="3">
-        <v>4607111034137</v>
+        <v>4620207490914</v>
       </c>
       <c r="F476" s="5" t="s">
-        <v>874</v>
+        <v>948</v>
       </c>
       <c r="G476" s="1"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="10" t="s">
-        <v>776</v>
+        <v>874</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>774</v>
+        <v>872</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>775</v>
+        <v>873</v>
       </c>
       <c r="D477" s="4">
-        <v>4301131047</v>
+        <v>4301131046</v>
       </c>
       <c r="E477" s="3">
-        <v>4607111034120</v>
+        <v>4607111034137</v>
       </c>
       <c r="F477" s="5" t="s">
-        <v>776</v>
+        <v>874</v>
       </c>
       <c r="G477" s="1"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="10" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="D478" s="4">
-        <v>4301132188</v>
+        <v>4301131047</v>
       </c>
       <c r="E478" s="3">
-        <v>4607111036605</v>
+        <v>4607111034120</v>
       </c>
       <c r="F478" s="5" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="G478" s="1"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="10" t="s">
-        <v>864</v>
+        <v>754</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>862</v>
+        <v>752</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>863</v>
+        <v>753</v>
       </c>
       <c r="D479" s="4">
-        <v>4301132179</v>
+        <v>4301132188</v>
       </c>
       <c r="E479" s="3">
-        <v>4607111035691</v>
+        <v>4607111036605</v>
       </c>
       <c r="F479" s="5" t="s">
-        <v>864</v>
+        <v>754</v>
       </c>
       <c r="G479" s="1"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="10" t="s">
-        <v>694</v>
+        <v>864</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>692</v>
+        <v>862</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>693</v>
+        <v>863</v>
       </c>
       <c r="D480" s="4">
-        <v>4301135570</v>
+        <v>4301132179</v>
       </c>
       <c r="E480" s="3">
-        <v>4607111035806</v>
+        <v>4607111035691</v>
       </c>
       <c r="F480" s="5" t="s">
-        <v>694</v>
+        <v>864</v>
       </c>
       <c r="G480" s="1"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="10" t="s">
-        <v>914</v>
+        <v>694</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
       <c r="D481" s="4">
-        <v>4301071049</v>
+        <v>4301135570</v>
       </c>
       <c r="E481" s="3">
-        <v>4607111039293</v>
+        <v>4607111035806</v>
       </c>
       <c r="F481" s="5" t="s">
-        <v>914</v>
+        <v>694</v>
       </c>
       <c r="G481" s="1"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="10" t="s">
-        <v>649</v>
+        <v>914</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="D482" s="4">
-        <v>4301135555</v>
+        <v>4301071049</v>
       </c>
       <c r="E482" s="3">
-        <v>4607111034014</v>
+        <v>4607111039293</v>
       </c>
       <c r="F482" s="5" t="s">
-        <v>649</v>
+        <v>914</v>
       </c>
       <c r="G482" s="1"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="10" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D483" s="4">
-        <v>4301135532</v>
+        <v>4301135555</v>
       </c>
       <c r="E483" s="3">
-        <v>4607111033994</v>
+        <v>4607111034014</v>
       </c>
       <c r="F483" s="5" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="G483" s="1"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="10" t="s">
+        <v>646</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="D484" s="4">
+        <v>4301135532</v>
+      </c>
+      <c r="E484" s="3">
+        <v>4607111033994</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="G484" s="1"/>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A485" s="10" t="s">
         <v>959</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="B485" s="3" t="s">
         <v>960</v>
       </c>
-      <c r="C484" s="3" t="s">
+      <c r="C485" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="D484" s="4">
+      <c r="D485" s="4">
         <v>4301071094</v>
       </c>
-      <c r="E484" s="3">
+      <c r="E485" s="3">
         <v>4620207491140</v>
       </c>
-      <c r="F484" s="5" t="s">
+      <c r="F485" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="G484" s="1"/>
-    </row>
-    <row r="485" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A485" s="10" t="s">
+      <c r="G485" s="1"/>
+    </row>
+    <row r="486" spans="1:7" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A486" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="B485" s="3" t="s">
+      <c r="B486" s="3" t="s">
         <v>964</v>
       </c>
-      <c r="C485" s="3" t="s">
+      <c r="C486" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="D485" s="4">
+      <c r="D486" s="4">
         <v>4301071093</v>
       </c>
-      <c r="E485" s="3">
+      <c r="E486" s="3">
         <v>4620207490709</v>
       </c>
-      <c r="F485" s="5" t="s">
+      <c r="F486" s="5" t="s">
         <v>966</v>
-      </c>
-      <c r="G485" s="1"/>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="10" t="s">
-        <v>968</v>
-      </c>
-      <c r="B486" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="C486" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="D486" s="4">
-        <v>4301132190</v>
-      </c>
-      <c r="E486" s="3">
-        <v>4607111036537</v>
-      </c>
-      <c r="F486" s="5" t="s">
-        <v>731</v>
       </c>
       <c r="G486" s="1"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="D487" s="4">
-        <v>4301132188</v>
+        <v>4301132190</v>
       </c>
       <c r="E487" s="3">
-        <v>4607111036605</v>
+        <v>4607111036537</v>
       </c>
       <c r="F487" s="5" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="G487" s="1"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="D488" s="4">
-        <v>4301071090</v>
+        <v>4301132188</v>
       </c>
       <c r="E488" s="3">
-        <v>4620207490075</v>
+        <v>4607111036605</v>
       </c>
       <c r="F488" s="5" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="G488" s="1"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D489" s="4">
-        <v>4301071091</v>
+        <v>4301071090</v>
       </c>
       <c r="E489" s="3">
-        <v>4620207490044</v>
+        <v>4620207490075</v>
       </c>
       <c r="F489" s="5" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G489" s="1"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="10" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>661</v>
+        <v>749</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="D490" s="4">
-        <v>4301071044</v>
+        <v>4301071091</v>
       </c>
       <c r="E490" s="3">
-        <v>4607111039385</v>
+        <v>4620207490044</v>
       </c>
       <c r="F490" s="5" t="s">
-        <v>663</v>
+        <v>748</v>
       </c>
       <c r="G490" s="1"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="10" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>717</v>
+        <v>661</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>718</v>
+        <v>662</v>
       </c>
       <c r="D491" s="4">
-        <v>4301135574</v>
+        <v>4301071044</v>
       </c>
       <c r="E491" s="3">
-        <v>4607111033659</v>
+        <v>4607111039385</v>
       </c>
       <c r="F491" s="5" t="s">
-        <v>719</v>
+        <v>663</v>
       </c>
       <c r="G491" s="1"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>774</v>
+        <v>717</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>775</v>
+        <v>718</v>
       </c>
       <c r="D492" s="4">
-        <v>4301131047</v>
+        <v>4301135574</v>
       </c>
       <c r="E492" s="3">
-        <v>4607111034120</v>
+        <v>4607111033659</v>
       </c>
       <c r="F492" s="5" t="s">
-        <v>776</v>
+        <v>719</v>
       </c>
       <c r="G492" s="1"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="10" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>872</v>
+        <v>774</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>873</v>
+        <v>775</v>
       </c>
       <c r="D493" s="4">
-        <v>4301131046</v>
+        <v>4301131047</v>
       </c>
       <c r="E493" s="3">
-        <v>4607111034137</v>
+        <v>4607111034120</v>
       </c>
       <c r="F493" s="5" t="s">
-        <v>874</v>
+        <v>776</v>
       </c>
       <c r="G493" s="1"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>930</v>
+        <v>872</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>931</v>
+        <v>873</v>
       </c>
       <c r="D494" s="4">
-        <v>4301135793</v>
+        <v>4301131046</v>
       </c>
       <c r="E494" s="3">
-        <v>4620207491003</v>
+        <v>4607111034137</v>
       </c>
       <c r="F494" s="5" t="s">
-        <v>932</v>
+        <v>874</v>
       </c>
       <c r="G494" s="1"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="10" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="D495" s="4">
-        <v>4301135760</v>
+        <v>4301135793</v>
       </c>
       <c r="E495" s="3">
-        <v>4620207491010</v>
+        <v>4620207491003</v>
       </c>
       <c r="F495" s="5" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="G495" s="1"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="10" t="s">
+        <v>977</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D496" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E496" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="G496" s="1"/>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A497" s="10" t="s">
         <v>978</v>
       </c>
-      <c r="B496" s="3" t="s">
+      <c r="B497" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C496" s="3" t="s">
+      <c r="C497" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="D496" s="4">
+      <c r="D497" s="4">
         <v>4301135285</v>
       </c>
-      <c r="E496" s="3">
+      <c r="E497" s="3">
         <v>4607111036407</v>
       </c>
-      <c r="F496" s="5" t="s">
+      <c r="F497" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G496" s="1"/>
-    </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A497" s="10" t="s">
+      <c r="G497" s="1"/>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A498" s="10" t="s">
         <v>979</v>
       </c>
-      <c r="B497" s="3" t="s">
+      <c r="B498" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C497" s="3" t="s">
+      <c r="C498" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D497" s="4">
+      <c r="D498" s="4">
         <v>4301136070</v>
       </c>
-      <c r="E497" s="3">
+      <c r="E498" s="3">
         <v>4607025784012</v>
       </c>
-      <c r="F497" s="5" t="s">
+      <c r="F498" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G497" s="1"/>
-    </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A498" s="10" t="s">
+      <c r="G498" s="1"/>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A499" s="10" t="s">
         <v>980</v>
       </c>
-      <c r="B498" s="3" t="s">
+      <c r="B499" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C498" s="3" t="s">
+      <c r="C499" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="D498" s="4">
+      <c r="D499" s="4">
         <v>4301071051</v>
       </c>
-      <c r="E498" s="3">
+      <c r="E499" s="3">
         <v>4607111039262</v>
       </c>
-      <c r="F498" s="5" t="s">
+      <c r="F499" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="G498" s="1"/>
-    </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A499" s="10" t="s">
+      <c r="G499" s="1"/>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A500" s="10" t="s">
         <v>981</v>
       </c>
-      <c r="B499" s="3" t="s">
+      <c r="B500" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C499" s="3" t="s">
+      <c r="C500" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="D499" s="4">
+      <c r="D500" s="4">
         <v>4301071038</v>
       </c>
-      <c r="E499" s="3">
+      <c r="E500" s="3">
         <v>4607111039248</v>
       </c>
-      <c r="F499" s="5" t="s">
+      <c r="F500" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="G499" s="1"/>
-    </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A500" s="10" t="s">
+      <c r="G500" s="1"/>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A501" s="10" t="s">
         <v>982</v>
       </c>
-      <c r="B500" s="3" t="s">
+      <c r="B501" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C500" s="3" t="s">
+      <c r="C501" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="D500" s="4">
+      <c r="D501" s="4">
         <v>4301071049</v>
       </c>
-      <c r="E500" s="3">
+      <c r="E501" s="3">
         <v>4607111039293</v>
       </c>
-      <c r="F500" s="5" t="s">
+      <c r="F501" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="G500" s="1"/>
-    </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A501" s="10" t="s">
+      <c r="G501" s="1"/>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A502" s="10" t="s">
         <v>983</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B502" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C501" s="3" t="s">
+      <c r="C502" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D501" s="4">
+      <c r="D502" s="4">
         <v>4301071039</v>
       </c>
-      <c r="E501" s="3">
+      <c r="E502" s="3">
         <v>4607111039279</v>
       </c>
-      <c r="F501" s="5" t="s">
+      <c r="F502" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="G501" s="1"/>
-    </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A502" s="10" t="s">
+      <c r="G502" s="1"/>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A503" s="10" t="s">
         <v>984</v>
       </c>
-      <c r="B502" s="3" t="s">
+      <c r="B503" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C502" s="3" t="s">
+      <c r="C503" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="D502" s="4">
+      <c r="D503" s="4">
         <v>4301135555</v>
       </c>
-      <c r="E502" s="3">
+      <c r="E503" s="3">
         <v>4607111034014</v>
       </c>
-      <c r="F502" s="5" t="s">
+      <c r="F503" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="G502" s="1"/>
-    </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A503" s="10" t="s">
+      <c r="G503" s="1"/>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A504" s="10" t="s">
         <v>985</v>
       </c>
-      <c r="B503" s="3" t="s">
+      <c r="B504" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C503" s="3" t="s">
+      <c r="C504" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="D503" s="4">
+      <c r="D504" s="4">
         <v>4301135532</v>
       </c>
-      <c r="E503" s="3">
+      <c r="E504" s="3">
         <v>4607111033994</v>
       </c>
-      <c r="F503" s="5" t="s">
+      <c r="F504" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="G503" s="1"/>
-    </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A504" s="10" t="s">
+      <c r="G504" s="1"/>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A505" s="10" t="s">
         <v>986</v>
       </c>
-      <c r="B504" s="3" t="s">
+      <c r="B505" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C504" s="3" t="s">
+      <c r="C505" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D504" s="4">
+      <c r="D505" s="4">
         <v>4301135550</v>
       </c>
-      <c r="E504" s="3">
+      <c r="E505" s="3">
         <v>4607111034199</v>
       </c>
-      <c r="F504" s="5" t="s">
+      <c r="F505" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="G504" s="1"/>
-    </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A505" s="10" t="s">
+      <c r="G505" s="1"/>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A506" s="10" t="s">
         <v>987</v>
       </c>
-      <c r="B505" s="3" t="s">
+      <c r="B506" s="3" t="s">
         <v>946</v>
       </c>
-      <c r="C505" s="3" t="s">
+      <c r="C506" s="3" t="s">
         <v>947</v>
       </c>
-      <c r="D505" s="4">
+      <c r="D506" s="4">
         <v>4301135753</v>
       </c>
-      <c r="E505" s="3">
+      <c r="E506" s="3">
         <v>4620207490914</v>
       </c>
-      <c r="F505" s="5" t="s">
+      <c r="F506" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="G505" s="1"/>
-    </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A506" s="10" t="s">
+      <c r="G506" s="1"/>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A507" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="B506" s="3" t="s">
+      <c r="B507" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="C506" s="3" t="s">
+      <c r="C507" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="D506" s="4">
+      <c r="D507" s="4">
         <v>4301135570</v>
       </c>
-      <c r="E506" s="3">
+      <c r="E507" s="3">
         <v>4607111035806</v>
       </c>
-      <c r="F506" s="5" t="s">
+      <c r="F507" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="G506" s="1"/>
-    </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A507" s="10" t="s">
+      <c r="G507" s="1"/>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A508" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="B507" s="3" t="s">
+      <c r="B508" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="C507" s="3" t="s">
+      <c r="C508" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="D507" s="4">
+      <c r="D508" s="4">
         <v>4301132179</v>
       </c>
-      <c r="E507" s="3">
+      <c r="E508" s="3">
         <v>4607111035691</v>
       </c>
-      <c r="F507" s="5" t="s">
+      <c r="F508" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="G507" s="1"/>
-    </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A508" s="10" t="s">
+      <c r="G508" s="1"/>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A509" s="10" t="s">
         <v>990</v>
       </c>
-      <c r="B508" s="3" t="s">
+      <c r="B509" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C508" s="3" t="s">
+      <c r="C509" s="3" t="s">
         <v>992</v>
       </c>
-      <c r="D508" s="4">
+      <c r="D509" s="4">
         <v>4301071063</v>
       </c>
-      <c r="E508" s="3">
+      <c r="E509" s="3">
         <v>4607111039019</v>
       </c>
-      <c r="F508" s="5" t="s">
+      <c r="F509" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="G508" s="1"/>
-    </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A509" s="10" t="s">
+      <c r="G509" s="1"/>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A510" s="10" t="s">
         <v>991</v>
       </c>
-      <c r="B509" s="3" t="s">
+      <c r="B510" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="C509" s="3" t="s">
+      <c r="C510" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="D509" s="4">
+      <c r="D510" s="4">
         <v>4301071100</v>
       </c>
-      <c r="E509" s="3">
+      <c r="E510" s="3">
         <v>4607111038708</v>
       </c>
-      <c r="F509" s="5" t="s">
+      <c r="F510" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="G509" s="1"/>
-    </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A510" s="10" t="s">
+      <c r="G510" s="1"/>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A511" s="10" t="s">
         <v>997</v>
-      </c>
-      <c r="B510" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="C510" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="D510" s="4">
-        <v>4301135692</v>
-      </c>
-      <c r="E510" s="3">
-        <v>4620207490570</v>
-      </c>
-      <c r="F510" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="G510" s="1"/>
-    </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A511" s="10" t="s">
-        <v>994</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>995</v>
@@ -18155,48 +18158,45 @@
       </c>
       <c r="G511" s="1"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A512" s="17" t="s">
-        <v>785</v>
-      </c>
-      <c r="B512" s="18" t="s">
-        <v>615</v>
-      </c>
-      <c r="C512" s="18" t="s">
-        <v>616</v>
-      </c>
-      <c r="D512" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E512" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F512" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="G512" s="21"/>
-      <c r="H512" s="22" t="s">
-        <v>846</v>
-      </c>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A512" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="B512" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="D512" s="4">
+        <v>4301135692</v>
+      </c>
+      <c r="E512" s="3">
+        <v>4620207490570</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="G512" s="1"/>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>106</v>
+        <v>615</v>
       </c>
       <c r="C513" s="18" t="s">
-        <v>259</v>
+        <v>616</v>
       </c>
       <c r="D513" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E513" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F513" s="20" t="s">
-        <v>260</v>
+        <v>617</v>
       </c>
       <c r="G513" s="21"/>
       <c r="H513" s="22" t="s">
@@ -18205,22 +18205,22 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>623</v>
+        <v>106</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>624</v>
+        <v>259</v>
       </c>
       <c r="D514" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E514" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>625</v>
+        <v>260</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18229,22 +18229,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="D515" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18253,22 +18253,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>291</v>
+        <v>611</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>292</v>
+        <v>612</v>
       </c>
       <c r="D516" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E516" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>293</v>
+        <v>613</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18277,22 +18277,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>519</v>
+        <v>292</v>
       </c>
       <c r="D517" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E517" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18301,22 +18301,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>791</v>
-      </c>
-      <c r="B518" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D518" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E518" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F518" s="5" t="s">
-        <v>302</v>
+        <v>790</v>
+      </c>
+      <c r="B518" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C518" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D518" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E518" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F518" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18325,22 +18325,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B519" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C519" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="D519" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E519" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F519" s="20" t="s">
-        <v>318</v>
+        <v>791</v>
+      </c>
+      <c r="B519" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C519" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D519" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E519" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>302</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18349,22 +18349,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B520" s="18" t="s">
-        <v>548</v>
+        <v>316</v>
       </c>
       <c r="C520" s="18" t="s">
-        <v>549</v>
+        <v>317</v>
       </c>
       <c r="D520" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E520" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F520" s="20" t="s">
-        <v>550</v>
+        <v>318</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18373,70 +18373,70 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="B521" s="3" t="s">
-        <v>937</v>
-      </c>
-      <c r="C521" s="3" t="s">
-        <v>938</v>
-      </c>
-      <c r="D521" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E521" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F521" s="5" t="s">
-        <v>939</v>
+        <v>793</v>
+      </c>
+      <c r="B521" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="C521" s="18" t="s">
+        <v>549</v>
+      </c>
+      <c r="D521" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E521" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F521" s="20" t="s">
+        <v>550</v>
       </c>
       <c r="G521" s="21"/>
-      <c r="H521" s="16" t="s">
-        <v>933</v>
+      <c r="H521" s="22" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>795</v>
-      </c>
-      <c r="B522" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C522" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="D522" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E522" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F522" s="20" t="s">
-        <v>627</v>
+        <v>794</v>
+      </c>
+      <c r="B522" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C522" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D522" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E522" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>939</v>
       </c>
       <c r="G522" s="21"/>
-      <c r="H522" s="22" t="s">
-        <v>846</v>
+      <c r="H522" s="16" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>619</v>
+        <v>110</v>
       </c>
       <c r="C523" s="18" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D523" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E523" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F523" s="20" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="G523" s="21"/>
       <c r="H523" s="22" t="s">
@@ -18445,22 +18445,22 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B524" s="18" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>645</v>
+        <v>620</v>
       </c>
       <c r="D524" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E524" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>646</v>
+        <v>621</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
@@ -18469,22 +18469,22 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>798</v>
-      </c>
-      <c r="B525" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="C525" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D525" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E525" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F525" s="5" t="s">
-        <v>649</v>
+        <v>797</v>
+      </c>
+      <c r="B525" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="C525" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="D525" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E525" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F525" s="20" t="s">
+        <v>646</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
@@ -18493,70 +18493,70 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>930</v>
+        <v>647</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>931</v>
+        <v>648</v>
       </c>
       <c r="D526" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E526" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F526" s="5" t="s">
-        <v>932</v>
+        <v>649</v>
       </c>
       <c r="G526" s="21"/>
-      <c r="H526" s="16" t="s">
-        <v>933</v>
+      <c r="H526" s="22" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>380</v>
+        <v>930</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>381</v>
+        <v>931</v>
       </c>
       <c r="D527" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E527" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F527" s="5" t="s">
-        <v>382</v>
+        <v>932</v>
       </c>
       <c r="G527" s="21"/>
-      <c r="H527" s="22" t="s">
-        <v>846</v>
+      <c r="H527" s="16" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>544</v>
+        <v>380</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>545</v>
+        <v>381</v>
       </c>
       <c r="D528" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E528" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F528" s="5" t="s">
-        <v>546</v>
+        <v>382</v>
       </c>
       <c r="G528" s="21"/>
       <c r="H528" s="22" t="s">
@@ -18565,22 +18565,22 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>802</v>
-      </c>
-      <c r="B529" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="C529" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="D529" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E529" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F529" s="20" t="s">
-        <v>596</v>
+        <v>801</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D529" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E529" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>546</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18589,22 +18589,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B530" s="18" t="s">
-        <v>847</v>
+        <v>594</v>
       </c>
       <c r="C530" s="18" t="s">
-        <v>848</v>
+        <v>595</v>
       </c>
       <c r="D530" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E530" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F530" s="20" t="s">
-        <v>423</v>
+        <v>596</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18613,22 +18613,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B531" s="18" t="s">
-        <v>162</v>
+        <v>847</v>
       </c>
       <c r="C531" s="18" t="s">
-        <v>629</v>
+        <v>848</v>
       </c>
       <c r="D531" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E531" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F531" s="20" t="s">
-        <v>630</v>
+        <v>423</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18637,22 +18637,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="B532" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C532" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D532" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E532" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F532" s="5" t="s">
-        <v>299</v>
+        <v>804</v>
+      </c>
+      <c r="B532" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C532" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="D532" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E532" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F532" s="20" t="s">
+        <v>630</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18661,22 +18661,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>999</v>
+        <v>297</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1000</v>
+        <v>298</v>
       </c>
       <c r="D533" s="4">
-        <v>4301071109</v>
+        <v>4301136051</v>
       </c>
       <c r="E533" s="3">
-        <v>4607111035929</v>
+        <v>4640242180304</v>
       </c>
       <c r="F533" s="5" t="s">
-        <v>1001</v>
+        <v>299</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18685,22 +18685,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>735</v>
+        <v>999</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>736</v>
+        <v>1000</v>
       </c>
       <c r="D534" s="4">
-        <v>4301135550</v>
+        <v>4301071109</v>
       </c>
       <c r="E534" s="3">
-        <v>4607111034199</v>
+        <v>4607111035929</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>737</v>
+        <v>1001</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18709,22 +18709,22 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="B535" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="C535" s="18" t="s">
-        <v>733</v>
-      </c>
-      <c r="D535" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E535" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F535" s="20" t="s">
-        <v>734</v>
+        <v>807</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="D535" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E535" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>737</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -18733,22 +18733,22 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B536" s="18" t="s">
-        <v>607</v>
+        <v>732</v>
       </c>
       <c r="C536" s="18" t="s">
-        <v>608</v>
+        <v>733</v>
       </c>
       <c r="D536" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E536" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F536" s="20" t="s">
-        <v>609</v>
+        <v>734</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
@@ -18757,22 +18757,22 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="B537" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="D537" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E537" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F537" s="5" t="s">
-        <v>776</v>
+        <v>809</v>
+      </c>
+      <c r="B537" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C537" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="D537" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E537" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F537" s="20" t="s">
+        <v>609</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
@@ -18781,70 +18781,70 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>893</v>
+        <v>774</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>894</v>
+        <v>775</v>
       </c>
       <c r="D538" s="4">
-        <v>4301135763</v>
+        <v>4301131047</v>
       </c>
       <c r="E538" s="3">
-        <v>4620207491027</v>
+        <v>4607111034120</v>
       </c>
       <c r="F538" s="5" t="s">
-        <v>895</v>
+        <v>776</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
-        <v>952</v>
+        <v>846</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B539" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="C539" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="D539" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E539" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F539" s="20" t="s">
-        <v>554</v>
+        <v>811</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D539" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E539" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>895</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
-        <v>846</v>
+        <v>952</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B540" s="18" t="s">
-        <v>699</v>
+        <v>552</v>
       </c>
       <c r="C540" s="18" t="s">
-        <v>700</v>
+        <v>553</v>
       </c>
       <c r="D540" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E540" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F540" s="20" t="s">
-        <v>698</v>
+        <v>554</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
@@ -18853,22 +18853,22 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>814</v>
-      </c>
-      <c r="B541" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="C541" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="D541" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E541" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F541" s="5" t="s">
-        <v>874</v>
+        <v>813</v>
+      </c>
+      <c r="B541" s="18" t="s">
+        <v>699</v>
+      </c>
+      <c r="C541" s="18" t="s">
+        <v>700</v>
+      </c>
+      <c r="D541" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E541" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F541" s="20" t="s">
+        <v>698</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18877,22 +18877,22 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="D542" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E542" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18901,22 +18901,22 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>946</v>
+        <v>878</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>947</v>
+        <v>879</v>
       </c>
       <c r="D543" s="4">
-        <v>4301135753</v>
+        <v>4301136079</v>
       </c>
       <c r="E543" s="3">
-        <v>4620207490914</v>
+        <v>4607025784319</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>948</v>
+        <v>880</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
@@ -18925,70 +18925,70 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>935</v>
+        <v>947</v>
       </c>
       <c r="D544" s="4">
-        <v>4301135778</v>
+        <v>4301135753</v>
       </c>
       <c r="E544" s="3">
-        <v>4620207490853</v>
+        <v>4620207490914</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>936</v>
+        <v>948</v>
       </c>
       <c r="G544" s="21"/>
-      <c r="H544" s="16" t="s">
-        <v>940</v>
+      <c r="H544" s="22" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>862</v>
+        <v>934</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>863</v>
+        <v>935</v>
       </c>
       <c r="D545" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E545" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>864</v>
+        <v>936</v>
       </c>
       <c r="G545" s="21"/>
-      <c r="H545" s="22" t="s">
-        <v>846</v>
+      <c r="H545" s="16" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>729</v>
+        <v>862</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>730</v>
+        <v>863</v>
       </c>
       <c r="D546" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E546" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>731</v>
+        <v>864</v>
       </c>
       <c r="G546" s="21"/>
       <c r="H546" s="22" t="s">
@@ -18997,22 +18997,22 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>820</v>
-      </c>
-      <c r="B547" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="C547" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="D547" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E547" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F547" s="20" t="s">
-        <v>375</v>
+        <v>819</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D547" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E547" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>731</v>
       </c>
       <c r="G547" s="21"/>
       <c r="H547" s="22" t="s">
@@ -19021,22 +19021,22 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
-        <v>821</v>
-      </c>
-      <c r="B548" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="C548" s="3" t="s">
-        <v>882</v>
-      </c>
-      <c r="D548" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E548" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F548" s="5" t="s">
-        <v>883</v>
+        <v>820</v>
+      </c>
+      <c r="B548" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="C548" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="D548" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E548" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F548" s="20" t="s">
+        <v>375</v>
       </c>
       <c r="G548" s="21"/>
       <c r="H548" s="22" t="s">
@@ -19045,70 +19045,70 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="D549" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E549" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="G549" s="21"/>
+      <c r="H549" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A550" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="B549" s="3" t="s">
+      <c r="B550" s="3" t="s">
         <v>919</v>
       </c>
-      <c r="C549" s="3" t="s">
+      <c r="C550" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="D549" s="4">
+      <c r="D550" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E549" s="3">
+      <c r="E550" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F549" s="5" t="s">
+      <c r="F550" s="5" t="s">
         <v>918</v>
       </c>
-      <c r="G549" s="21"/>
-      <c r="H549" s="16" t="s">
+      <c r="G550" s="21"/>
+      <c r="H550" s="16" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A550" s="17" t="s">
+    <row r="551" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A551" s="17" t="s">
         <v>824</v>
       </c>
-      <c r="B550" s="18" t="s">
+      <c r="B551" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="C550" s="18" t="s">
+      <c r="C551" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="D550" s="19">
+      <c r="D551" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E550" s="18">
+      <c r="E551" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F550" s="20" t="s">
+      <c r="F551" s="20" t="s">
         <v>487</v>
-      </c>
-      <c r="G550" s="21"/>
-      <c r="H550" s="22" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A551" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B551" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="C551" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="D551" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E551" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F551" s="20" t="s">
-        <v>365</v>
       </c>
       <c r="G551" s="21"/>
       <c r="H551" s="22" t="s">
@@ -19116,71 +19116,71 @@
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A552" s="10" t="s">
+      <c r="A552" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="B552" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="C552" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="D552" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E552" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F552" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G552" s="21"/>
+      <c r="H552" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A553" s="10" t="s">
         <v>890</v>
       </c>
-      <c r="B552" s="3" t="s">
+      <c r="B553" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="C552" s="3" t="s">
+      <c r="C553" s="3" t="s">
         <v>850</v>
       </c>
-      <c r="D552" s="4">
+      <c r="D553" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E552" s="3">
+      <c r="E553" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F552" s="5" t="s">
+      <c r="F553" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="G552" s="1"/>
-      <c r="H552" s="16" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A553" s="17" t="s">
-        <v>826</v>
-      </c>
-      <c r="B553" s="18" t="s">
-        <v>849</v>
-      </c>
-      <c r="C553" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="D553" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E553" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F553" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="G553" s="21"/>
-      <c r="H553" s="22" t="s">
+      <c r="G553" s="1"/>
+      <c r="H553" s="16" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="17" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B554" s="18" t="s">
-        <v>152</v>
+        <v>849</v>
       </c>
       <c r="C554" s="18" t="s">
-        <v>153</v>
+        <v>850</v>
       </c>
       <c r="D554" s="19">
-        <v>4301070921</v>
+        <v>4301070990</v>
       </c>
       <c r="E554" s="18">
-        <v>4607111035905</v>
+        <v>4607111038494</v>
       </c>
       <c r="F554" s="20" t="s">
-        <v>154</v>
+        <v>851</v>
       </c>
       <c r="G554" s="21"/>
       <c r="H554" s="22" t="s">
@@ -19189,22 +19189,22 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D555" s="4">
-        <v>4301135824</v>
-      </c>
-      <c r="E555" s="3">
-        <v>4607111039095</v>
-      </c>
-      <c r="F555" s="5" t="s">
-        <v>1009</v>
+        <v>827</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C555" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D555" s="19">
+        <v>4301070921</v>
+      </c>
+      <c r="E555" s="18">
+        <v>4607111035905</v>
+      </c>
+      <c r="F555" s="20" t="s">
+        <v>154</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
@@ -19213,22 +19213,22 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B556" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="C556" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="D556" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E556" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F556" s="20" t="s">
-        <v>184</v>
+        <v>828</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D556" s="4">
+        <v>4301135824</v>
+      </c>
+      <c r="E556" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>1009</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19237,22 +19237,22 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>705</v>
-      </c>
-      <c r="B557" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="C557" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="D557" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E557" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F557" s="5" t="s">
-        <v>705</v>
+        <v>829</v>
+      </c>
+      <c r="B557" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C557" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="D557" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E557" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F557" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
@@ -19261,22 +19261,22 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B558" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C558" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D558" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E558" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F558" s="20" t="s">
-        <v>127</v>
+        <v>705</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D558" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E558" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>705</v>
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
@@ -19285,22 +19285,22 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>831</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="C559" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="D559" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E559" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F559" s="5" t="s">
-        <v>719</v>
+        <v>830</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C559" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D559" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E559" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F559" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
@@ -19309,22 +19309,22 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>832</v>
-      </c>
-      <c r="B560" s="18" t="s">
-        <v>661</v>
-      </c>
-      <c r="C560" s="18" t="s">
-        <v>662</v>
-      </c>
-      <c r="D560" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E560" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F560" s="20" t="s">
-        <v>663</v>
+        <v>831</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="D560" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E560" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>719</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
@@ -19333,22 +19333,22 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B561" s="18" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="C561" s="18" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="D561" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E561" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F561" s="20" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
@@ -19357,22 +19357,22 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B562" s="18" t="s">
-        <v>179</v>
+        <v>678</v>
       </c>
       <c r="C562" s="18" t="s">
-        <v>180</v>
+        <v>679</v>
       </c>
       <c r="D562" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E562" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F562" s="20" t="s">
-        <v>181</v>
+        <v>680</v>
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
@@ -19381,22 +19381,22 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>835</v>
-      </c>
-      <c r="B563" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C563" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D563" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E563" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F563" s="5" t="s">
-        <v>168</v>
+        <v>834</v>
+      </c>
+      <c r="B563" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C563" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D563" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E563" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F563" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
@@ -19405,46 +19405,46 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>836</v>
-      </c>
-      <c r="B564" s="18" t="s">
-        <v>603</v>
-      </c>
-      <c r="C564" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D564" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E564" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F564" s="20" t="s">
-        <v>605</v>
+        <v>835</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D564" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E564" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B565" s="18" t="s">
-        <v>852</v>
+        <v>603</v>
       </c>
       <c r="C565" s="18" t="s">
-        <v>853</v>
+        <v>604</v>
       </c>
       <c r="D565" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E565" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F565" s="20" t="s">
-        <v>854</v>
+        <v>605</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
@@ -19453,46 +19453,46 @@
     </row>
     <row r="566" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D566" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E566" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>252</v>
+        <v>855</v>
       </c>
       <c r="C567" s="18" t="s">
-        <v>253</v>
+        <v>856</v>
       </c>
       <c r="D567" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E567" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F567" s="20" t="s">
-        <v>150</v>
+        <v>857</v>
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
@@ -19501,22 +19501,22 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>692</v>
+        <v>252</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>693</v>
+        <v>253</v>
       </c>
       <c r="D568" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E568" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>694</v>
+        <v>150</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
@@ -19525,22 +19525,22 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>722</v>
+        <v>693</v>
       </c>
       <c r="D569" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E569" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>723</v>
+        <v>694</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
@@ -19549,22 +19549,22 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>665</v>
+        <v>721</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>666</v>
+        <v>722</v>
       </c>
       <c r="D570" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E570" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>667</v>
+        <v>723</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
@@ -19573,22 +19573,22 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B571" s="18" t="s">
-        <v>481</v>
+        <v>665</v>
       </c>
       <c r="C571" s="18" t="s">
-        <v>482</v>
+        <v>666</v>
       </c>
       <c r="D571" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E571" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>483</v>
+        <v>667</v>
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
@@ -19597,22 +19597,22 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B572" s="18" t="s">
-        <v>585</v>
+        <v>481</v>
       </c>
       <c r="C572" s="18" t="s">
-        <v>586</v>
+        <v>482</v>
       </c>
       <c r="D572" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E572" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F572" s="20" t="s">
-        <v>587</v>
+        <v>483</v>
       </c>
       <c r="G572" s="21"/>
       <c r="H572" s="22" t="s">
@@ -19621,31 +19621,55 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B573" s="18" t="s">
-        <v>338</v>
+        <v>585</v>
       </c>
       <c r="C573" s="18" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="D573" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E573" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F573" s="20" t="s">
-        <v>556</v>
+        <v>587</v>
       </c>
       <c r="G573" s="21"/>
       <c r="H573" s="22" t="s">
         <v>846</v>
       </c>
     </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="B574" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="C574" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D574" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E574" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F574" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="G574" s="21"/>
+      <c r="H574" s="22" t="s">
+        <v>846</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F573" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F254">
+  <autoFilter ref="A1:F574" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F255">
       <sortCondition ref="A1:A185"/>
     </sortState>
   </autoFilter>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\KSK_Simf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9744D1-99A0-44FC-822F-6AD9CA90FEFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29AC6E9-0C1D-4703-920A-D703D714C814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1014">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1015">
   <si>
     <t>1С</t>
   </si>
@@ -3020,12 +3020,6 @@
     <t>Снеки «Жареные вареники с картофелем и беконом Добросельские» Фикс.вес 0,2 ТМ «Стародворье»</t>
   </si>
   <si>
-    <t>SU003708</t>
-  </si>
-  <si>
-    <t>P004806</t>
-  </si>
-  <si>
     <t>Жареные вареники с картофелем и беконом Добросельские 0,2 кг. ТМ Стародворье  ПОКОМ</t>
   </si>
   <si>
@@ -3081,6 +3075,15 @@
   </si>
   <si>
     <t>Пельмени «Отборные из говядины» 0,9 псевдозащип ТМ «Медвежье ушко»</t>
+  </si>
+  <si>
+    <t>SU004012</t>
+  </si>
+  <si>
+    <t>P005129</t>
+  </si>
+  <si>
+    <t>Снеки «Жареные вареники с картофелем и беконом» Фикс.вес 0,2 ТМ «Стародворье»</t>
   </si>
 </sst>
 </file>
@@ -6340,7 +6343,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11027,10 +11030,10 @@
         <v>109</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D194" s="4">
         <v>4301071109</v>
@@ -11039,7 +11042,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="G194" s="1">
         <f>VLOOKUP(E194,[1]Лист1!$D:$M,10,0)</f>
@@ -11051,10 +11054,10 @@
         <v>88</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D195" s="4">
         <v>4301071109</v>
@@ -11063,7 +11066,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="G195" s="1">
         <f>VLOOKUP(E195,[1]Лист1!$D:$M,10,0)</f>
@@ -11075,10 +11078,10 @@
         <v>151</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D196" s="4">
         <v>4301071105</v>
@@ -11087,7 +11090,7 @@
         <v>4607111035110</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G196" s="1" t="e">
         <f>VLOOKUP(E196,[1]Лист1!$D:$M,10,0)</f>
@@ -11099,10 +11102,10 @@
         <v>763</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D197" s="4">
         <v>4301071105</v>
@@ -11111,7 +11114,7 @@
         <v>4607111035110</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G197" s="1" t="e">
         <f>VLOOKUP(E197,[1]Лист1!$D:$M,10,0)</f>
@@ -11123,10 +11126,10 @@
         <v>152</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D198" s="4">
         <v>4301071105</v>
@@ -11135,7 +11138,7 @@
         <v>4607111035110</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G198" s="1" t="e">
         <f>VLOOKUP(E198,[1]Лист1!$D:$M,10,0)</f>
@@ -11411,10 +11414,10 @@
         <v>518</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D210" s="4">
         <v>4301071100</v>
@@ -11423,7 +11426,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G210" s="1"/>
     </row>
@@ -11432,10 +11435,10 @@
         <v>154</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D211" s="4">
         <v>4301071100</v>
@@ -11444,7 +11447,7 @@
         <v>4607111038708</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G211" s="1"/>
     </row>
@@ -11554,7 +11557,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>629</v>
@@ -13111,7 +13114,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>879</v>
@@ -14801,10 +14804,10 @@
         <v>571</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D355" s="4">
         <v>4301135824</v>
@@ -14813,7 +14816,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G355" s="1"/>
     </row>
@@ -14822,10 +14825,10 @@
         <v>756</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D356" s="4">
         <v>4301135824</v>
@@ -14834,7 +14837,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F356" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G356" s="1"/>
     </row>
@@ -14843,10 +14846,10 @@
         <v>545</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D357" s="4">
         <v>4301135824</v>
@@ -14855,7 +14858,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G357" s="1"/>
     </row>
@@ -15578,10 +15581,10 @@
         <v>640</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D392" s="4">
         <v>4301135829</v>
@@ -15599,10 +15602,10 @@
         <v>666</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D393" s="4">
         <v>4301135829</v>
@@ -15620,10 +15623,10 @@
         <v>639</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D394" s="4">
         <v>4301135829</v>
@@ -16637,10 +16640,10 @@
         <v>875</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D441" s="4">
         <v>4301135826</v>
@@ -16660,10 +16663,10 @@
         <v>886</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D442" s="4">
         <v>4301135826</v>
@@ -16683,10 +16686,10 @@
         <v>887</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D443" s="4">
         <v>4301135826</v>
@@ -16706,10 +16709,10 @@
         <v>866</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D444" s="4">
         <v>4301135826</v>
@@ -18124,10 +18127,10 @@
         <v>989</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D510" s="4">
         <v>4301071100</v>
@@ -18136,28 +18139,28 @@
         <v>4607111038708</v>
       </c>
       <c r="F510" s="5" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G510" s="1"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="10" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>994</v>
+        <v>1013</v>
       </c>
       <c r="D511" s="4">
-        <v>4301135692</v>
+        <v>4301135834</v>
       </c>
       <c r="E511" s="3">
-        <v>4620207490570</v>
+        <v>4620207491188</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="G511" s="1"/>
     </row>
@@ -18166,19 +18169,19 @@
         <v>992</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>994</v>
+        <v>1013</v>
       </c>
       <c r="D512" s="4">
-        <v>4301135692</v>
+        <v>4301135834</v>
       </c>
       <c r="E512" s="3">
-        <v>4620207490570</v>
+        <v>4620207491188</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="G512" s="1"/>
     </row>
@@ -18691,10 +18694,10 @@
         <v>804</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="D534" s="4">
         <v>4301071109</v>
@@ -18703,7 +18706,7 @@
         <v>4607111035929</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -19195,10 +19198,10 @@
         <v>825</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D555" s="4">
         <v>4301071105</v>
@@ -19207,7 +19210,7 @@
         <v>4607111035110</v>
       </c>
       <c r="F555" s="5" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
@@ -19219,10 +19222,10 @@
         <v>826</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D556" s="4">
         <v>4301135824</v>
@@ -19231,7 +19234,7 @@
         <v>4607111039095</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\KSK_Simf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29AC6E9-0C1D-4703-920A-D703D714C814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1105E-9CEC-4156-92D6-3AA23B41BADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$574</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$513</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$575</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$514</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1019">
   <si>
     <t>1С</t>
   </si>
@@ -3084,6 +3084,18 @@
   </si>
   <si>
     <t>Снеки «Жареные вареники с картофелем и беконом» Фикс.вес 0,2 ТМ «Стародворье»</t>
+  </si>
+  <si>
+    <t>Пельмени Бульмени мини с мясом и cыром ТМ Горячая штучка ТС Бульмени ГШ флоу-пак сфера 0,4 кг  ПОКОМ</t>
+  </si>
+  <si>
+    <t>SU004078</t>
+  </si>
+  <si>
+    <t>P005209</t>
+  </si>
+  <si>
+    <t>Пельмени «Бульмени мини с мясом и сыром» Фикс.вес 0,4 сфера ТМ «Горячая штучка»</t>
   </si>
 </sst>
 </file>
@@ -6339,11 +6351,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H574"/>
+  <dimension ref="A1:H575"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18186,47 +18198,44 @@
       <c r="G512" s="1"/>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A513" s="17" t="s">
-        <v>783</v>
-      </c>
-      <c r="B513" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="C513" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="D513" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E513" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F513" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="G513" s="21"/>
-      <c r="H513" s="22" t="s">
-        <v>844</v>
-      </c>
+      <c r="A513" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D513" s="4">
+        <v>4301071121</v>
+      </c>
+      <c r="E513" s="3">
+        <v>4620207491393</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G513" s="1"/>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>106</v>
+        <v>613</v>
       </c>
       <c r="C514" s="18" t="s">
-        <v>257</v>
+        <v>614</v>
       </c>
       <c r="D514" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E514" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F514" s="20" t="s">
-        <v>258</v>
+        <v>615</v>
       </c>
       <c r="G514" s="21"/>
       <c r="H514" s="22" t="s">
@@ -18235,22 +18244,22 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>621</v>
+        <v>106</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>622</v>
+        <v>257</v>
       </c>
       <c r="D515" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>623</v>
+        <v>258</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18259,22 +18268,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D516" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18283,22 +18292,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>289</v>
+        <v>609</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>290</v>
+        <v>610</v>
       </c>
       <c r="D517" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E517" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>291</v>
+        <v>611</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18307,22 +18316,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B518" s="18" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="C518" s="18" t="s">
-        <v>517</v>
+        <v>290</v>
       </c>
       <c r="D518" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E518" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F518" s="20" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18331,22 +18340,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>789</v>
-      </c>
-      <c r="B519" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C519" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D519" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E519" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F519" s="5" t="s">
-        <v>300</v>
+        <v>788</v>
+      </c>
+      <c r="B519" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C519" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D519" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E519" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F519" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18355,22 +18364,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="B520" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C520" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D520" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E520" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F520" s="20" t="s">
-        <v>316</v>
+        <v>789</v>
+      </c>
+      <c r="B520" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C520" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D520" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E520" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18379,22 +18388,22 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B521" s="18" t="s">
-        <v>546</v>
+        <v>314</v>
       </c>
       <c r="C521" s="18" t="s">
-        <v>547</v>
+        <v>315</v>
       </c>
       <c r="D521" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E521" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F521" s="20" t="s">
-        <v>548</v>
+        <v>316</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="22" t="s">
@@ -18403,70 +18412,70 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B522" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="C522" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="D522" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E522" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F522" s="5" t="s">
-        <v>937</v>
+        <v>791</v>
+      </c>
+      <c r="B522" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C522" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D522" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E522" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F522" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="G522" s="21"/>
-      <c r="H522" s="16" t="s">
-        <v>931</v>
+      <c r="H522" s="22" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="B523" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C523" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="D523" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E523" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F523" s="20" t="s">
-        <v>625</v>
+        <v>792</v>
+      </c>
+      <c r="B523" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="C523" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="D523" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E523" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>937</v>
       </c>
       <c r="G523" s="21"/>
-      <c r="H523" s="22" t="s">
-        <v>844</v>
+      <c r="H523" s="16" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B524" s="18" t="s">
-        <v>617</v>
+        <v>110</v>
       </c>
       <c r="C524" s="18" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D524" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E524" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F524" s="20" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="G524" s="21"/>
       <c r="H524" s="22" t="s">
@@ -18475,22 +18484,22 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B525" s="18" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="C525" s="18" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="D525" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E525" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F525" s="20" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
@@ -18499,22 +18508,22 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="B526" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D526" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E526" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F526" s="5" t="s">
-        <v>647</v>
+        <v>795</v>
+      </c>
+      <c r="B526" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="C526" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="D526" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E526" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F526" s="20" t="s">
+        <v>644</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="22" t="s">
@@ -18523,70 +18532,70 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>928</v>
+        <v>645</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>929</v>
+        <v>646</v>
       </c>
       <c r="D527" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E527" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F527" s="5" t="s">
-        <v>930</v>
+        <v>647</v>
       </c>
       <c r="G527" s="21"/>
-      <c r="H527" s="16" t="s">
-        <v>931</v>
+      <c r="H527" s="22" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>378</v>
+        <v>928</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>379</v>
+        <v>929</v>
       </c>
       <c r="D528" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E528" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F528" s="5" t="s">
-        <v>380</v>
+        <v>930</v>
       </c>
       <c r="G528" s="21"/>
-      <c r="H528" s="22" t="s">
-        <v>844</v>
+      <c r="H528" s="16" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>542</v>
+        <v>378</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>543</v>
+        <v>379</v>
       </c>
       <c r="D529" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E529" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F529" s="5" t="s">
-        <v>544</v>
+        <v>380</v>
       </c>
       <c r="G529" s="21"/>
       <c r="H529" s="22" t="s">
@@ -18595,22 +18604,22 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="B530" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="C530" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="D530" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E530" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F530" s="20" t="s">
-        <v>594</v>
+        <v>799</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D530" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E530" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18619,22 +18628,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B531" s="18" t="s">
-        <v>845</v>
+        <v>592</v>
       </c>
       <c r="C531" s="18" t="s">
-        <v>846</v>
+        <v>593</v>
       </c>
       <c r="D531" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E531" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F531" s="20" t="s">
-        <v>421</v>
+        <v>594</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18643,22 +18652,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B532" s="18" t="s">
-        <v>160</v>
+        <v>845</v>
       </c>
       <c r="C532" s="18" t="s">
-        <v>627</v>
+        <v>846</v>
       </c>
       <c r="D532" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E532" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F532" s="20" t="s">
-        <v>628</v>
+        <v>421</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18667,22 +18676,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="B533" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D533" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E533" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F533" s="5" t="s">
-        <v>297</v>
+        <v>802</v>
+      </c>
+      <c r="B533" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C533" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="D533" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E533" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F533" s="20" t="s">
+        <v>628</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18691,22 +18700,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>995</v>
+        <v>295</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>996</v>
+        <v>296</v>
       </c>
       <c r="D534" s="4">
-        <v>4301071109</v>
+        <v>4301136051</v>
       </c>
       <c r="E534" s="3">
-        <v>4607111035929</v>
+        <v>4640242180304</v>
       </c>
       <c r="F534" s="5" t="s">
-        <v>997</v>
+        <v>297</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18715,22 +18724,22 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>733</v>
+        <v>995</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>734</v>
+        <v>996</v>
       </c>
       <c r="D535" s="4">
-        <v>4301135550</v>
+        <v>4301071109</v>
       </c>
       <c r="E535" s="3">
-        <v>4607111034199</v>
+        <v>4607111035929</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>735</v>
+        <v>997</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -18739,22 +18748,22 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="B536" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="C536" s="18" t="s">
-        <v>731</v>
-      </c>
-      <c r="D536" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E536" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F536" s="20" t="s">
-        <v>732</v>
+        <v>805</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D536" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E536" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
@@ -18763,22 +18772,22 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B537" s="18" t="s">
-        <v>605</v>
+        <v>730</v>
       </c>
       <c r="C537" s="18" t="s">
-        <v>606</v>
+        <v>731</v>
       </c>
       <c r="D537" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E537" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F537" s="20" t="s">
-        <v>607</v>
+        <v>732</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
@@ -18787,22 +18796,22 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="B538" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="D538" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E538" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F538" s="5" t="s">
-        <v>774</v>
+        <v>807</v>
+      </c>
+      <c r="B538" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="C538" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D538" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E538" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F538" s="20" t="s">
+        <v>607</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
@@ -18811,70 +18820,70 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>891</v>
+        <v>772</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>892</v>
+        <v>773</v>
       </c>
       <c r="D539" s="4">
-        <v>4301135763</v>
+        <v>4301131047</v>
       </c>
       <c r="E539" s="3">
-        <v>4620207491027</v>
+        <v>4607111034120</v>
       </c>
       <c r="F539" s="5" t="s">
-        <v>893</v>
+        <v>774</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
-        <v>950</v>
+        <v>844</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="B540" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="C540" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="D540" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E540" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F540" s="20" t="s">
-        <v>552</v>
+        <v>809</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D540" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E540" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>893</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
-        <v>844</v>
+        <v>950</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B541" s="18" t="s">
-        <v>697</v>
+        <v>550</v>
       </c>
       <c r="C541" s="18" t="s">
-        <v>698</v>
+        <v>551</v>
       </c>
       <c r="D541" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E541" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F541" s="20" t="s">
-        <v>696</v>
+        <v>552</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
@@ -18883,22 +18892,22 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B542" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="C542" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="D542" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E542" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F542" s="5" t="s">
-        <v>872</v>
+        <v>811</v>
+      </c>
+      <c r="B542" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="C542" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="D542" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E542" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F542" s="20" t="s">
+        <v>696</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18907,22 +18916,22 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D543" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E543" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F543" s="5" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
@@ -18931,22 +18940,22 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>944</v>
+        <v>876</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>945</v>
+        <v>877</v>
       </c>
       <c r="D544" s="4">
-        <v>4301135753</v>
+        <v>4301136079</v>
       </c>
       <c r="E544" s="3">
-        <v>4620207490914</v>
+        <v>4607025784319</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>946</v>
+        <v>878</v>
       </c>
       <c r="G544" s="21"/>
       <c r="H544" s="22" t="s">
@@ -18955,70 +18964,70 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="D545" s="4">
-        <v>4301135778</v>
+        <v>4301135753</v>
       </c>
       <c r="E545" s="3">
-        <v>4620207490853</v>
+        <v>4620207490914</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="G545" s="21"/>
-      <c r="H545" s="16" t="s">
-        <v>938</v>
+      <c r="H545" s="22" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>860</v>
+        <v>932</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>861</v>
+        <v>933</v>
       </c>
       <c r="D546" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E546" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>862</v>
+        <v>934</v>
       </c>
       <c r="G546" s="21"/>
-      <c r="H546" s="22" t="s">
-        <v>844</v>
+      <c r="H546" s="16" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>727</v>
+        <v>860</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>728</v>
+        <v>861</v>
       </c>
       <c r="D547" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E547" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>729</v>
+        <v>862</v>
       </c>
       <c r="G547" s="21"/>
       <c r="H547" s="22" t="s">
@@ -19027,22 +19036,22 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="B548" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C548" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="D548" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E548" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F548" s="20" t="s">
-        <v>373</v>
+        <v>817</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D548" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E548" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="G548" s="21"/>
       <c r="H548" s="22" t="s">
@@ -19051,22 +19060,22 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B549" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="C549" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="D549" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E549" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F549" s="5" t="s">
-        <v>881</v>
+        <v>818</v>
+      </c>
+      <c r="B549" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C549" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D549" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E549" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F549" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="G549" s="21"/>
       <c r="H549" s="22" t="s">
@@ -19075,70 +19084,70 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D550" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E550" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G550" s="21"/>
+      <c r="H550" s="22" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A551" s="17" t="s">
         <v>820</v>
       </c>
-      <c r="B550" s="3" t="s">
+      <c r="B551" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="C550" s="3" t="s">
+      <c r="C551" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="D550" s="4">
+      <c r="D551" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E550" s="3">
+      <c r="E551" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F550" s="5" t="s">
+      <c r="F551" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="G550" s="21"/>
-      <c r="H550" s="16" t="s">
+      <c r="G551" s="21"/>
+      <c r="H551" s="16" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A551" s="17" t="s">
+    <row r="552" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A552" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="B551" s="18" t="s">
+      <c r="B552" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="C551" s="18" t="s">
+      <c r="C552" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="D551" s="19">
+      <c r="D552" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E551" s="18">
+      <c r="E552" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F551" s="20" t="s">
+      <c r="F552" s="20" t="s">
         <v>485</v>
-      </c>
-      <c r="G551" s="21"/>
-      <c r="H551" s="22" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A552" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="B552" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C552" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D552" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E552" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F552" s="20" t="s">
-        <v>363</v>
       </c>
       <c r="G552" s="21"/>
       <c r="H552" s="22" t="s">
@@ -19146,71 +19155,71 @@
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A553" s="10" t="s">
+      <c r="A553" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="B553" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C553" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D553" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E553" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F553" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G553" s="21"/>
+      <c r="H553" s="22" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A554" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="B553" s="3" t="s">
+      <c r="B554" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C553" s="3" t="s">
+      <c r="C554" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="D553" s="4">
+      <c r="D554" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E553" s="3">
+      <c r="E554" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F553" s="5" t="s">
+      <c r="F554" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="G553" s="1"/>
-      <c r="H553" s="16" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A554" s="17" t="s">
-        <v>824</v>
-      </c>
-      <c r="B554" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="C554" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="D554" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E554" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F554" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="G554" s="21"/>
-      <c r="H554" s="22" t="s">
+      <c r="G554" s="1"/>
+      <c r="H554" s="16" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B555" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C555" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D555" s="4">
-        <v>4301071105</v>
-      </c>
-      <c r="E555" s="3">
-        <v>4607111035110</v>
-      </c>
-      <c r="F555" s="5" t="s">
-        <v>1011</v>
+        <v>824</v>
+      </c>
+      <c r="B555" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="C555" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="D555" s="19">
+        <v>4301070990</v>
+      </c>
+      <c r="E555" s="18">
+        <v>4607111038494</v>
+      </c>
+      <c r="F555" s="20" t="s">
+        <v>849</v>
       </c>
       <c r="G555" s="21"/>
       <c r="H555" s="22" t="s">
@@ -19219,22 +19228,22 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="D556" s="4">
-        <v>4301135824</v>
+        <v>4301071105</v>
       </c>
       <c r="E556" s="3">
-        <v>4607111039095</v>
+        <v>4607111035110</v>
       </c>
       <c r="F556" s="5" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19243,22 +19252,22 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="B557" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C557" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="D557" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E557" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F557" s="20" t="s">
-        <v>182</v>
+        <v>826</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D557" s="4">
+        <v>4301135824</v>
+      </c>
+      <c r="E557" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>1005</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
@@ -19267,22 +19276,22 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="B558" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C558" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D558" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E558" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F558" s="5" t="s">
-        <v>703</v>
+        <v>827</v>
+      </c>
+      <c r="B558" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C558" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D558" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E558" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F558" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
@@ -19291,22 +19300,22 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B559" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C559" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D559" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E559" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F559" s="20" t="s">
-        <v>127</v>
+        <v>703</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D559" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E559" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>703</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
@@ -19315,22 +19324,22 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B560" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C560" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="D560" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E560" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F560" s="5" t="s">
-        <v>717</v>
+        <v>828</v>
+      </c>
+      <c r="B560" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C560" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D560" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E560" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F560" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
@@ -19339,22 +19348,22 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B561" s="18" t="s">
-        <v>659</v>
-      </c>
-      <c r="C561" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="D561" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E561" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F561" s="20" t="s">
-        <v>661</v>
+        <v>829</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D561" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E561" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F561" s="5" t="s">
+        <v>717</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
@@ -19363,22 +19372,22 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B562" s="18" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="C562" s="18" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="D562" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E562" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F562" s="20" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
@@ -19387,22 +19396,22 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B563" s="18" t="s">
-        <v>177</v>
+        <v>676</v>
       </c>
       <c r="C563" s="18" t="s">
-        <v>178</v>
+        <v>677</v>
       </c>
       <c r="D563" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E563" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F563" s="20" t="s">
-        <v>179</v>
+        <v>678</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
@@ -19411,22 +19420,22 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B564" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C564" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D564" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E564" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F564" s="5" t="s">
-        <v>166</v>
+        <v>832</v>
+      </c>
+      <c r="B564" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C564" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D564" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E564" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F564" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
@@ -19435,46 +19444,46 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B565" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="C565" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="D565" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E565" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F565" s="20" t="s">
-        <v>603</v>
+        <v>833</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D565" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E565" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B566" s="18" t="s">
-        <v>850</v>
+        <v>601</v>
       </c>
       <c r="C566" s="18" t="s">
-        <v>851</v>
+        <v>602</v>
       </c>
       <c r="D566" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E566" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F566" s="20" t="s">
-        <v>852</v>
+        <v>603</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
@@ -19483,46 +19492,46 @@
     </row>
     <row r="567" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C567" s="18" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D567" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E567" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F567" s="20" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>250</v>
+        <v>853</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>251</v>
+        <v>854</v>
       </c>
       <c r="D568" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E568" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>150</v>
+        <v>855</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
@@ -19531,22 +19540,22 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>690</v>
+        <v>250</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>691</v>
+        <v>251</v>
       </c>
       <c r="D569" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E569" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>692</v>
+        <v>150</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
@@ -19555,22 +19564,22 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D570" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E570" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
@@ -19579,22 +19588,22 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B571" s="18" t="s">
-        <v>663</v>
+        <v>719</v>
       </c>
       <c r="C571" s="18" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="D571" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E571" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>665</v>
+        <v>721</v>
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
@@ -19603,22 +19612,22 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B572" s="18" t="s">
-        <v>479</v>
+        <v>663</v>
       </c>
       <c r="C572" s="18" t="s">
-        <v>480</v>
+        <v>664</v>
       </c>
       <c r="D572" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E572" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F572" s="20" t="s">
-        <v>481</v>
+        <v>665</v>
       </c>
       <c r="G572" s="21"/>
       <c r="H572" s="22" t="s">
@@ -19627,22 +19636,22 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B573" s="18" t="s">
-        <v>583</v>
+        <v>479</v>
       </c>
       <c r="C573" s="18" t="s">
-        <v>584</v>
+        <v>480</v>
       </c>
       <c r="D573" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E573" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F573" s="20" t="s">
-        <v>585</v>
+        <v>481</v>
       </c>
       <c r="G573" s="21"/>
       <c r="H573" s="22" t="s">
@@ -19651,30 +19660,54 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B574" s="18" t="s">
-        <v>336</v>
+        <v>583</v>
       </c>
       <c r="C574" s="18" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="D574" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E574" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F574" s="20" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="G574" s="21"/>
       <c r="H574" s="22" t="s">
         <v>844</v>
       </c>
     </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="B575" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C575" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="D575" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E575" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F575" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="G575" s="21"/>
+      <c r="H575" s="22" t="s">
+        <v>844</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F574" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F575" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F255">
       <sortCondition ref="A1:A185"/>
     </sortState>

--- a/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
+++ b/в бланки заводов/ПОКОМ ЗПФ/pokom_zpf/KSK_Simf/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\ПОКОМ ЗПФ\pokom_zpf\KSK_Simf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D1105E-9CEC-4156-92D6-3AA23B41BADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E760F701-CEDC-400F-AFB3-45BECD95EA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,8 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$575</definedName>
-    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$514</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$F$576</definedName>
+    <definedName name="OLE_LINK1" localSheetId="0">Лист1!$A$515</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2482" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1020">
   <si>
     <t>1С</t>
   </si>
@@ -3096,6 +3096,9 @@
   </si>
   <si>
     <t>Пельмени «Бульмени мини с мясом и сыром» Фикс.вес 0,4 сфера ТМ «Горячая штучка»</t>
+  </si>
+  <si>
+    <t>Жареные вареники с картофелем и беконом ТМ Стародворье 0,2 кг  ПОКОМ</t>
   </si>
 </sst>
 </file>
@@ -6351,11 +6354,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H575"/>
+  <dimension ref="A1:H576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18178,7 +18181,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="10" t="s">
-        <v>992</v>
+        <v>1019</v>
       </c>
       <c r="B512" s="3" t="s">
         <v>1012</v>
@@ -18199,67 +18202,64 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="B513" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D513" s="4">
+        <v>4301135834</v>
+      </c>
+      <c r="E513" s="3">
+        <v>4620207491188</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G513" s="1"/>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A514" s="10" t="s">
         <v>1015</v>
       </c>
-      <c r="B513" s="3" t="s">
+      <c r="B514" s="3" t="s">
         <v>1016</v>
       </c>
-      <c r="C513" s="3" t="s">
+      <c r="C514" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="D513" s="4">
+      <c r="D514" s="4">
         <v>4301071121</v>
       </c>
-      <c r="E513" s="3">
+      <c r="E514" s="3">
         <v>4620207491393</v>
       </c>
-      <c r="F513" s="5" t="s">
+      <c r="F514" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="G513" s="1"/>
-    </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A514" s="17" t="s">
-        <v>783</v>
-      </c>
-      <c r="B514" s="18" t="s">
-        <v>613</v>
-      </c>
-      <c r="C514" s="18" t="s">
-        <v>614</v>
-      </c>
-      <c r="D514" s="19">
-        <v>4301071038</v>
-      </c>
-      <c r="E514" s="18">
-        <v>4607111039248</v>
-      </c>
-      <c r="F514" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="G514" s="21"/>
-      <c r="H514" s="22" t="s">
-        <v>844</v>
-      </c>
+      <c r="G514" s="1"/>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B515" s="18" t="s">
-        <v>106</v>
+        <v>613</v>
       </c>
       <c r="C515" s="18" t="s">
-        <v>257</v>
+        <v>614</v>
       </c>
       <c r="D515" s="19">
-        <v>4301070981</v>
+        <v>4301071038</v>
       </c>
       <c r="E515" s="18">
-        <v>4607111036728</v>
+        <v>4607111039248</v>
       </c>
       <c r="F515" s="20" t="s">
-        <v>258</v>
+        <v>615</v>
       </c>
       <c r="G515" s="21"/>
       <c r="H515" s="22" t="s">
@@ -18268,22 +18268,22 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="17" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B516" s="18" t="s">
-        <v>621</v>
+        <v>106</v>
       </c>
       <c r="C516" s="18" t="s">
-        <v>622</v>
+        <v>257</v>
       </c>
       <c r="D516" s="19">
-        <v>4301071039</v>
+        <v>4301070981</v>
       </c>
       <c r="E516" s="18">
-        <v>4607111039279</v>
+        <v>4607111036728</v>
       </c>
       <c r="F516" s="20" t="s">
-        <v>623</v>
+        <v>258</v>
       </c>
       <c r="G516" s="21"/>
       <c r="H516" s="22" t="s">
@@ -18292,22 +18292,22 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C517" s="18" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="D517" s="19">
-        <v>4301071051</v>
+        <v>4301071039</v>
       </c>
       <c r="E517" s="18">
-        <v>4607111039262</v>
+        <v>4607111039279</v>
       </c>
       <c r="F517" s="20" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="G517" s="21"/>
       <c r="H517" s="22" t="s">
@@ -18316,22 +18316,22 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B518" s="18" t="s">
-        <v>289</v>
+        <v>609</v>
       </c>
       <c r="C518" s="18" t="s">
-        <v>290</v>
+        <v>610</v>
       </c>
       <c r="D518" s="19">
-        <v>4301132080</v>
+        <v>4301071051</v>
       </c>
       <c r="E518" s="18">
-        <v>4640242180397</v>
+        <v>4607111039262</v>
       </c>
       <c r="F518" s="20" t="s">
-        <v>291</v>
+        <v>611</v>
       </c>
       <c r="G518" s="21"/>
       <c r="H518" s="22" t="s">
@@ -18340,22 +18340,22 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B519" s="18" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="C519" s="18" t="s">
-        <v>517</v>
+        <v>290</v>
       </c>
       <c r="D519" s="19">
-        <v>4301071029</v>
+        <v>4301132080</v>
       </c>
       <c r="E519" s="18">
-        <v>4607111035899</v>
+        <v>4640242180397</v>
       </c>
       <c r="F519" s="20" t="s">
-        <v>112</v>
+        <v>291</v>
       </c>
       <c r="G519" s="21"/>
       <c r="H519" s="22" t="s">
@@ -18364,22 +18364,22 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="17" t="s">
-        <v>789</v>
-      </c>
-      <c r="B520" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C520" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D520" s="4">
-        <v>4301136053</v>
-      </c>
-      <c r="E520" s="3">
-        <v>4640242180236</v>
-      </c>
-      <c r="F520" s="5" t="s">
-        <v>300</v>
+        <v>788</v>
+      </c>
+      <c r="B520" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C520" s="18" t="s">
+        <v>517</v>
+      </c>
+      <c r="D520" s="19">
+        <v>4301071029</v>
+      </c>
+      <c r="E520" s="18">
+        <v>4607111035899</v>
+      </c>
+      <c r="F520" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="G520" s="21"/>
       <c r="H520" s="22" t="s">
@@ -18388,22 +18388,22 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="s">
-        <v>790</v>
-      </c>
-      <c r="B521" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C521" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="D521" s="19">
-        <v>4301070977</v>
-      </c>
-      <c r="E521" s="18">
-        <v>4607111037411</v>
-      </c>
-      <c r="F521" s="20" t="s">
-        <v>316</v>
+        <v>789</v>
+      </c>
+      <c r="B521" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C521" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D521" s="4">
+        <v>4301136053</v>
+      </c>
+      <c r="E521" s="3">
+        <v>4640242180236</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="G521" s="21"/>
       <c r="H521" s="22" t="s">
@@ -18412,22 +18412,22 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="17" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B522" s="18" t="s">
-        <v>546</v>
+        <v>314</v>
       </c>
       <c r="C522" s="18" t="s">
-        <v>547</v>
+        <v>315</v>
       </c>
       <c r="D522" s="19">
-        <v>4301135375</v>
+        <v>4301070977</v>
       </c>
       <c r="E522" s="18">
-        <v>4640242181486</v>
+        <v>4607111037411</v>
       </c>
       <c r="F522" s="20" t="s">
-        <v>548</v>
+        <v>316</v>
       </c>
       <c r="G522" s="21"/>
       <c r="H522" s="22" t="s">
@@ -18436,70 +18436,70 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="s">
-        <v>792</v>
-      </c>
-      <c r="B523" s="3" t="s">
-        <v>935</v>
-      </c>
-      <c r="C523" s="3" t="s">
-        <v>936</v>
-      </c>
-      <c r="D523" s="4">
-        <v>4301135760</v>
-      </c>
-      <c r="E523" s="3">
-        <v>4620207491010</v>
-      </c>
-      <c r="F523" s="5" t="s">
-        <v>937</v>
+        <v>791</v>
+      </c>
+      <c r="B523" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C523" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D523" s="19">
+        <v>4301135375</v>
+      </c>
+      <c r="E523" s="18">
+        <v>4640242181486</v>
+      </c>
+      <c r="F523" s="20" t="s">
+        <v>548</v>
       </c>
       <c r="G523" s="21"/>
-      <c r="H523" s="16" t="s">
-        <v>931</v>
+      <c r="H523" s="22" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="17" t="s">
-        <v>793</v>
-      </c>
-      <c r="B524" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C524" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="D524" s="19">
-        <v>4301071050</v>
-      </c>
-      <c r="E524" s="18">
-        <v>4607111036216</v>
-      </c>
-      <c r="F524" s="20" t="s">
-        <v>625</v>
+        <v>792</v>
+      </c>
+      <c r="B524" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="D524" s="4">
+        <v>4301135760</v>
+      </c>
+      <c r="E524" s="3">
+        <v>4620207491010</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>937</v>
       </c>
       <c r="G524" s="21"/>
-      <c r="H524" s="22" t="s">
-        <v>844</v>
+      <c r="H524" s="16" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B525" s="18" t="s">
-        <v>617</v>
+        <v>110</v>
       </c>
       <c r="C525" s="18" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="D525" s="19">
-        <v>4301071049</v>
+        <v>4301071050</v>
       </c>
       <c r="E525" s="18">
-        <v>4607111039293</v>
+        <v>4607111036216</v>
       </c>
       <c r="F525" s="20" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="G525" s="21"/>
       <c r="H525" s="22" t="s">
@@ -18508,22 +18508,22 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B526" s="18" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="C526" s="18" t="s">
-        <v>643</v>
+        <v>618</v>
       </c>
       <c r="D526" s="19">
-        <v>4301135532</v>
+        <v>4301071049</v>
       </c>
       <c r="E526" s="18">
-        <v>4607111033994</v>
+        <v>4607111039293</v>
       </c>
       <c r="F526" s="20" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="G526" s="21"/>
       <c r="H526" s="22" t="s">
@@ -18532,22 +18532,22 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="s">
-        <v>796</v>
-      </c>
-      <c r="B527" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="C527" s="3" t="s">
-        <v>646</v>
-      </c>
-      <c r="D527" s="4">
-        <v>4301135555</v>
-      </c>
-      <c r="E527" s="3">
-        <v>4607111034014</v>
-      </c>
-      <c r="F527" s="5" t="s">
-        <v>647</v>
+        <v>795</v>
+      </c>
+      <c r="B527" s="18" t="s">
+        <v>642</v>
+      </c>
+      <c r="C527" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="D527" s="19">
+        <v>4301135532</v>
+      </c>
+      <c r="E527" s="18">
+        <v>4607111033994</v>
+      </c>
+      <c r="F527" s="20" t="s">
+        <v>644</v>
       </c>
       <c r="G527" s="21"/>
       <c r="H527" s="22" t="s">
@@ -18556,70 +18556,70 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>928</v>
+        <v>645</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>929</v>
+        <v>646</v>
       </c>
       <c r="D528" s="4">
-        <v>4301135793</v>
+        <v>4301135555</v>
       </c>
       <c r="E528" s="3">
-        <v>4620207491003</v>
+        <v>4607111034014</v>
       </c>
       <c r="F528" s="5" t="s">
-        <v>930</v>
+        <v>647</v>
       </c>
       <c r="G528" s="21"/>
-      <c r="H528" s="16" t="s">
-        <v>931</v>
+      <c r="H528" s="22" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>378</v>
+        <v>928</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>379</v>
+        <v>929</v>
       </c>
       <c r="D529" s="4">
-        <v>4301136052</v>
+        <v>4301135793</v>
       </c>
       <c r="E529" s="3">
-        <v>4640242180410</v>
+        <v>4620207491003</v>
       </c>
       <c r="F529" s="5" t="s">
-        <v>380</v>
+        <v>930</v>
       </c>
       <c r="G529" s="21"/>
-      <c r="H529" s="22" t="s">
-        <v>844</v>
+      <c r="H529" s="16" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="17" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>542</v>
+        <v>378</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>543</v>
+        <v>379</v>
       </c>
       <c r="D530" s="4">
-        <v>4301135518</v>
+        <v>4301136052</v>
       </c>
       <c r="E530" s="3">
-        <v>4640242181561</v>
+        <v>4640242180410</v>
       </c>
       <c r="F530" s="5" t="s">
-        <v>544</v>
+        <v>380</v>
       </c>
       <c r="G530" s="21"/>
       <c r="H530" s="22" t="s">
@@ -18628,22 +18628,22 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="s">
-        <v>800</v>
-      </c>
-      <c r="B531" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="C531" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="D531" s="19">
-        <v>4301135374</v>
-      </c>
-      <c r="E531" s="18">
-        <v>4640242181424</v>
-      </c>
-      <c r="F531" s="20" t="s">
-        <v>594</v>
+        <v>799</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="D531" s="4">
+        <v>4301135518</v>
+      </c>
+      <c r="E531" s="3">
+        <v>4640242181561</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>544</v>
       </c>
       <c r="G531" s="21"/>
       <c r="H531" s="22" t="s">
@@ -18652,22 +18652,22 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="17" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B532" s="18" t="s">
-        <v>845</v>
+        <v>592</v>
       </c>
       <c r="C532" s="18" t="s">
-        <v>846</v>
+        <v>593</v>
       </c>
       <c r="D532" s="19">
-        <v>4301132079</v>
+        <v>4301135374</v>
       </c>
       <c r="E532" s="18">
-        <v>4607111038487</v>
+        <v>4640242181424</v>
       </c>
       <c r="F532" s="20" t="s">
-        <v>421</v>
+        <v>594</v>
       </c>
       <c r="G532" s="21"/>
       <c r="H532" s="22" t="s">
@@ -18676,22 +18676,22 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B533" s="18" t="s">
-        <v>160</v>
+        <v>845</v>
       </c>
       <c r="C533" s="18" t="s">
-        <v>627</v>
+        <v>846</v>
       </c>
       <c r="D533" s="19">
-        <v>4301071056</v>
+        <v>4301132079</v>
       </c>
       <c r="E533" s="18">
-        <v>4640242180250</v>
+        <v>4607111038487</v>
       </c>
       <c r="F533" s="20" t="s">
-        <v>628</v>
+        <v>421</v>
       </c>
       <c r="G533" s="21"/>
       <c r="H533" s="22" t="s">
@@ -18700,22 +18700,22 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="17" t="s">
-        <v>803</v>
-      </c>
-      <c r="B534" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C534" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D534" s="4">
-        <v>4301136051</v>
-      </c>
-      <c r="E534" s="3">
-        <v>4640242180304</v>
-      </c>
-      <c r="F534" s="5" t="s">
-        <v>297</v>
+        <v>802</v>
+      </c>
+      <c r="B534" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C534" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="D534" s="19">
+        <v>4301071056</v>
+      </c>
+      <c r="E534" s="18">
+        <v>4640242180250</v>
+      </c>
+      <c r="F534" s="20" t="s">
+        <v>628</v>
       </c>
       <c r="G534" s="21"/>
       <c r="H534" s="22" t="s">
@@ -18724,22 +18724,22 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>995</v>
+        <v>295</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>996</v>
+        <v>296</v>
       </c>
       <c r="D535" s="4">
-        <v>4301071109</v>
+        <v>4301136051</v>
       </c>
       <c r="E535" s="3">
-        <v>4607111035929</v>
+        <v>4640242180304</v>
       </c>
       <c r="F535" s="5" t="s">
-        <v>997</v>
+        <v>297</v>
       </c>
       <c r="G535" s="21"/>
       <c r="H535" s="22" t="s">
@@ -18748,22 +18748,22 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="17" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>733</v>
+        <v>995</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>734</v>
+        <v>996</v>
       </c>
       <c r="D536" s="4">
-        <v>4301135550</v>
+        <v>4301071109</v>
       </c>
       <c r="E536" s="3">
-        <v>4607111034199</v>
+        <v>4607111035929</v>
       </c>
       <c r="F536" s="5" t="s">
-        <v>735</v>
+        <v>997</v>
       </c>
       <c r="G536" s="21"/>
       <c r="H536" s="22" t="s">
@@ -18772,22 +18772,22 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="B537" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="C537" s="18" t="s">
-        <v>731</v>
-      </c>
-      <c r="D537" s="19">
-        <v>4301132186</v>
-      </c>
-      <c r="E537" s="18">
-        <v>4607111036520</v>
-      </c>
-      <c r="F537" s="20" t="s">
-        <v>732</v>
+        <v>805</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="D537" s="4">
+        <v>4301135550</v>
+      </c>
+      <c r="E537" s="3">
+        <v>4607111034199</v>
+      </c>
+      <c r="F537" s="5" t="s">
+        <v>735</v>
       </c>
       <c r="G537" s="21"/>
       <c r="H537" s="22" t="s">
@@ -18796,22 +18796,22 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="17" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B538" s="18" t="s">
-        <v>605</v>
+        <v>730</v>
       </c>
       <c r="C538" s="18" t="s">
-        <v>606</v>
+        <v>731</v>
       </c>
       <c r="D538" s="19">
-        <v>4301071047</v>
+        <v>4301132186</v>
       </c>
       <c r="E538" s="18">
-        <v>4607111039330</v>
+        <v>4607111036520</v>
       </c>
       <c r="F538" s="20" t="s">
-        <v>607</v>
+        <v>732</v>
       </c>
       <c r="G538" s="21"/>
       <c r="H538" s="22" t="s">
@@ -18820,22 +18820,22 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>808</v>
-      </c>
-      <c r="B539" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>773</v>
-      </c>
-      <c r="D539" s="4">
-        <v>4301131047</v>
-      </c>
-      <c r="E539" s="3">
-        <v>4607111034120</v>
-      </c>
-      <c r="F539" s="5" t="s">
-        <v>774</v>
+        <v>807</v>
+      </c>
+      <c r="B539" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="C539" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D539" s="19">
+        <v>4301071047</v>
+      </c>
+      <c r="E539" s="18">
+        <v>4607111039330</v>
+      </c>
+      <c r="F539" s="20" t="s">
+        <v>607</v>
       </c>
       <c r="G539" s="21"/>
       <c r="H539" s="22" t="s">
@@ -18844,70 +18844,70 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>891</v>
+        <v>772</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>892</v>
+        <v>773</v>
       </c>
       <c r="D540" s="4">
-        <v>4301135763</v>
+        <v>4301131047</v>
       </c>
       <c r="E540" s="3">
-        <v>4620207491027</v>
+        <v>4607111034120</v>
       </c>
       <c r="F540" s="5" t="s">
-        <v>893</v>
+        <v>774</v>
       </c>
       <c r="G540" s="21"/>
       <c r="H540" s="22" t="s">
-        <v>950</v>
+        <v>844</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="17" t="s">
-        <v>810</v>
-      </c>
-      <c r="B541" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="C541" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="D541" s="19">
-        <v>4301135405</v>
-      </c>
-      <c r="E541" s="18">
-        <v>4640242181523</v>
-      </c>
-      <c r="F541" s="20" t="s">
-        <v>552</v>
+        <v>809</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D541" s="4">
+        <v>4301135763</v>
+      </c>
+      <c r="E541" s="3">
+        <v>4620207491027</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>893</v>
       </c>
       <c r="G541" s="21"/>
       <c r="H541" s="22" t="s">
-        <v>844</v>
+        <v>950</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B542" s="18" t="s">
-        <v>697</v>
+        <v>550</v>
       </c>
       <c r="C542" s="18" t="s">
-        <v>698</v>
+        <v>551</v>
       </c>
       <c r="D542" s="19">
-        <v>4301135402</v>
+        <v>4301135405</v>
       </c>
       <c r="E542" s="18">
-        <v>4640242181493</v>
+        <v>4640242181523</v>
       </c>
       <c r="F542" s="20" t="s">
-        <v>696</v>
+        <v>552</v>
       </c>
       <c r="G542" s="21"/>
       <c r="H542" s="22" t="s">
@@ -18916,22 +18916,22 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="17" t="s">
-        <v>812</v>
-      </c>
-      <c r="B543" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="D543" s="4">
-        <v>4301131046</v>
-      </c>
-      <c r="E543" s="3">
-        <v>4607111034137</v>
-      </c>
-      <c r="F543" s="5" t="s">
-        <v>872</v>
+        <v>811</v>
+      </c>
+      <c r="B543" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="C543" s="18" t="s">
+        <v>698</v>
+      </c>
+      <c r="D543" s="19">
+        <v>4301135402</v>
+      </c>
+      <c r="E543" s="18">
+        <v>4640242181493</v>
+      </c>
+      <c r="F543" s="20" t="s">
+        <v>696</v>
       </c>
       <c r="G543" s="21"/>
       <c r="H543" s="22" t="s">
@@ -18940,22 +18940,22 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="D544" s="4">
-        <v>4301136079</v>
+        <v>4301131046</v>
       </c>
       <c r="E544" s="3">
-        <v>4607025784319</v>
+        <v>4607111034137</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="G544" s="21"/>
       <c r="H544" s="22" t="s">
@@ -18964,22 +18964,22 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="17" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>944</v>
+        <v>876</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>945</v>
+        <v>877</v>
       </c>
       <c r="D545" s="4">
-        <v>4301135753</v>
+        <v>4301136079</v>
       </c>
       <c r="E545" s="3">
-        <v>4620207490914</v>
+        <v>4607025784319</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>946</v>
+        <v>878</v>
       </c>
       <c r="G545" s="21"/>
       <c r="H545" s="22" t="s">
@@ -18988,70 +18988,70 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="17" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>932</v>
+        <v>944</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>933</v>
+        <v>945</v>
       </c>
       <c r="D546" s="4">
-        <v>4301135778</v>
+        <v>4301135753</v>
       </c>
       <c r="E546" s="3">
-        <v>4620207490853</v>
+        <v>4620207490914</v>
       </c>
       <c r="F546" s="5" t="s">
-        <v>934</v>
+        <v>946</v>
       </c>
       <c r="G546" s="21"/>
-      <c r="H546" s="16" t="s">
-        <v>938</v>
+      <c r="H546" s="22" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>860</v>
+        <v>932</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>861</v>
+        <v>933</v>
       </c>
       <c r="D547" s="4">
-        <v>4301132179</v>
+        <v>4301135778</v>
       </c>
       <c r="E547" s="3">
-        <v>4607111035691</v>
+        <v>4620207490853</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>862</v>
+        <v>934</v>
       </c>
       <c r="G547" s="21"/>
-      <c r="H547" s="22" t="s">
-        <v>844</v>
+      <c r="H547" s="16" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>727</v>
+        <v>860</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>728</v>
+        <v>861</v>
       </c>
       <c r="D548" s="4">
-        <v>4301132190</v>
+        <v>4301132179</v>
       </c>
       <c r="E548" s="3">
-        <v>4607111036537</v>
+        <v>4607111035691</v>
       </c>
       <c r="F548" s="5" t="s">
-        <v>729</v>
+        <v>862</v>
       </c>
       <c r="G548" s="21"/>
       <c r="H548" s="22" t="s">
@@ -19060,22 +19060,22 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="17" t="s">
-        <v>818</v>
-      </c>
-      <c r="B549" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="C549" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="D549" s="19">
-        <v>4301131019</v>
-      </c>
-      <c r="E549" s="18">
-        <v>4640242180427</v>
-      </c>
-      <c r="F549" s="20" t="s">
-        <v>373</v>
+        <v>817</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D549" s="4">
+        <v>4301132190</v>
+      </c>
+      <c r="E549" s="3">
+        <v>4607111036537</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>729</v>
       </c>
       <c r="G549" s="21"/>
       <c r="H549" s="22" t="s">
@@ -19084,22 +19084,22 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="17" t="s">
-        <v>819</v>
-      </c>
-      <c r="B550" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="C550" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="D550" s="4">
-        <v>4301135571</v>
-      </c>
-      <c r="E550" s="3">
-        <v>4607111035028</v>
-      </c>
-      <c r="F550" s="5" t="s">
-        <v>881</v>
+        <v>818</v>
+      </c>
+      <c r="B550" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C550" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D550" s="19">
+        <v>4301131019</v>
+      </c>
+      <c r="E550" s="18">
+        <v>4640242180427</v>
+      </c>
+      <c r="F550" s="20" t="s">
+        <v>373</v>
       </c>
       <c r="G550" s="21"/>
       <c r="H550" s="22" t="s">
@@ -19108,70 +19108,70 @@
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D551" s="4">
+        <v>4301135571</v>
+      </c>
+      <c r="E551" s="3">
+        <v>4607111035028</v>
+      </c>
+      <c r="F551" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="G551" s="21"/>
+      <c r="H551" s="22" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A552" s="17" t="s">
         <v>820</v>
       </c>
-      <c r="B551" s="3" t="s">
+      <c r="B552" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="C551" s="3" t="s">
+      <c r="C552" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="D551" s="4">
+      <c r="D552" s="4">
         <v>4301135768</v>
       </c>
-      <c r="E551" s="3">
+      <c r="E552" s="3">
         <v>4620207491034</v>
       </c>
-      <c r="F551" s="5" t="s">
+      <c r="F552" s="5" t="s">
         <v>916</v>
       </c>
-      <c r="G551" s="21"/>
-      <c r="H551" s="16" t="s">
+      <c r="G552" s="21"/>
+      <c r="H552" s="16" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A552" s="17" t="s">
+    <row r="553" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A553" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="B552" s="18" t="s">
+      <c r="B553" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="C552" s="18" t="s">
+      <c r="C553" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="D552" s="19">
+      <c r="D553" s="19">
         <v>4301070960</v>
       </c>
-      <c r="E552" s="18">
+      <c r="E553" s="18">
         <v>4607111038623</v>
       </c>
-      <c r="F552" s="20" t="s">
+      <c r="F553" s="20" t="s">
         <v>485</v>
-      </c>
-      <c r="G552" s="21"/>
-      <c r="H552" s="22" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A553" s="17" t="s">
-        <v>823</v>
-      </c>
-      <c r="B553" s="18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C553" s="18" t="s">
-        <v>365</v>
-      </c>
-      <c r="D553" s="19">
-        <v>4301070966</v>
-      </c>
-      <c r="E553" s="18">
-        <v>4607111038135</v>
-      </c>
-      <c r="F553" s="20" t="s">
-        <v>363</v>
       </c>
       <c r="G553" s="21"/>
       <c r="H553" s="22" t="s">
@@ -19179,71 +19179,71 @@
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A554" s="10" t="s">
+      <c r="A554" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="B554" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C554" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D554" s="19">
+        <v>4301070966</v>
+      </c>
+      <c r="E554" s="18">
+        <v>4607111038135</v>
+      </c>
+      <c r="F554" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G554" s="21"/>
+      <c r="H554" s="22" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A555" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="B554" s="3" t="s">
+      <c r="B555" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="C554" s="3" t="s">
+      <c r="C555" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="D554" s="4">
+      <c r="D555" s="4">
         <v>4301070990</v>
       </c>
-      <c r="E554" s="3">
+      <c r="E555" s="3">
         <v>4607111038494</v>
       </c>
-      <c r="F554" s="5" t="s">
+      <c r="F555" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="G554" s="1"/>
-      <c r="H554" s="16" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A555" s="17" t="s">
-        <v>824</v>
-      </c>
-      <c r="B555" s="18" t="s">
-        <v>847</v>
-      </c>
-      <c r="C555" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="D555" s="19">
-        <v>4301070990</v>
-      </c>
-      <c r="E555" s="18">
-        <v>4607111038494</v>
-      </c>
-      <c r="F555" s="20" t="s">
-        <v>849</v>
-      </c>
-      <c r="G555" s="21"/>
-      <c r="H555" s="22" t="s">
+      <c r="G555" s="1"/>
+      <c r="H555" s="16" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="17" t="s">
-        <v>825</v>
-      </c>
-      <c r="B556" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C556" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D556" s="4">
-        <v>4301071105</v>
-      </c>
-      <c r="E556" s="3">
-        <v>4607111035110</v>
-      </c>
-      <c r="F556" s="5" t="s">
-        <v>1011</v>
+        <v>824</v>
+      </c>
+      <c r="B556" s="18" t="s">
+        <v>847</v>
+      </c>
+      <c r="C556" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="D556" s="19">
+        <v>4301070990</v>
+      </c>
+      <c r="E556" s="18">
+        <v>4607111038494</v>
+      </c>
+      <c r="F556" s="20" t="s">
+        <v>849</v>
       </c>
       <c r="G556" s="21"/>
       <c r="H556" s="22" t="s">
@@ -19252,22 +19252,22 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="D557" s="4">
-        <v>4301135824</v>
+        <v>4301071105</v>
       </c>
       <c r="E557" s="3">
-        <v>4607111039095</v>
+        <v>4607111035110</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="G557" s="21"/>
       <c r="H557" s="22" t="s">
@@ -19276,22 +19276,22 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="17" t="s">
-        <v>827</v>
-      </c>
-      <c r="B558" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="C558" s="18" t="s">
-        <v>519</v>
-      </c>
-      <c r="D558" s="19">
-        <v>4301135285</v>
-      </c>
-      <c r="E558" s="18">
-        <v>4607111036407</v>
-      </c>
-      <c r="F558" s="20" t="s">
-        <v>182</v>
+        <v>826</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D558" s="4">
+        <v>4301135824</v>
+      </c>
+      <c r="E558" s="3">
+        <v>4607111039095</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>1005</v>
       </c>
       <c r="G558" s="21"/>
       <c r="H558" s="22" t="s">
@@ -19300,22 +19300,22 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="17" t="s">
-        <v>703</v>
-      </c>
-      <c r="B559" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C559" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="D559" s="4">
-        <v>4301135607</v>
-      </c>
-      <c r="E559" s="3">
-        <v>4607111039613</v>
-      </c>
-      <c r="F559" s="5" t="s">
-        <v>703</v>
+        <v>827</v>
+      </c>
+      <c r="B559" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C559" s="18" t="s">
+        <v>519</v>
+      </c>
+      <c r="D559" s="19">
+        <v>4301135285</v>
+      </c>
+      <c r="E559" s="18">
+        <v>4607111036407</v>
+      </c>
+      <c r="F559" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="G559" s="21"/>
       <c r="H559" s="22" t="s">
@@ -19324,22 +19324,22 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="17" t="s">
-        <v>828</v>
-      </c>
-      <c r="B560" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C560" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D560" s="19">
-        <v>4301080153</v>
-      </c>
-      <c r="E560" s="18">
-        <v>4607111036827</v>
-      </c>
-      <c r="F560" s="20" t="s">
-        <v>127</v>
+        <v>703</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="D560" s="4">
+        <v>4301135607</v>
+      </c>
+      <c r="E560" s="3">
+        <v>4607111039613</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>703</v>
       </c>
       <c r="G560" s="21"/>
       <c r="H560" s="22" t="s">
@@ -19348,22 +19348,22 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
-        <v>829</v>
-      </c>
-      <c r="B561" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="D561" s="4">
-        <v>4301135574</v>
-      </c>
-      <c r="E561" s="3">
-        <v>4607111033659</v>
-      </c>
-      <c r="F561" s="5" t="s">
-        <v>717</v>
+        <v>828</v>
+      </c>
+      <c r="B561" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C561" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D561" s="19">
+        <v>4301080153</v>
+      </c>
+      <c r="E561" s="18">
+        <v>4607111036827</v>
+      </c>
+      <c r="F561" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="G561" s="21"/>
       <c r="H561" s="22" t="s">
@@ -19372,22 +19372,22 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="17" t="s">
-        <v>830</v>
-      </c>
-      <c r="B562" s="18" t="s">
-        <v>659</v>
-      </c>
-      <c r="C562" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="D562" s="19">
-        <v>4301071044</v>
-      </c>
-      <c r="E562" s="18">
-        <v>4607111039385</v>
-      </c>
-      <c r="F562" s="20" t="s">
-        <v>661</v>
+        <v>829</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D562" s="4">
+        <v>4301135574</v>
+      </c>
+      <c r="E562" s="3">
+        <v>4607111033659</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>717</v>
       </c>
       <c r="G562" s="21"/>
       <c r="H562" s="22" t="s">
@@ -19396,22 +19396,22 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B563" s="18" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="C563" s="18" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="D563" s="19">
-        <v>4301071031</v>
+        <v>4301071044</v>
       </c>
       <c r="E563" s="18">
-        <v>4607111038982</v>
+        <v>4607111039385</v>
       </c>
       <c r="F563" s="20" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G563" s="21"/>
       <c r="H563" s="22" t="s">
@@ -19420,22 +19420,22 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B564" s="18" t="s">
-        <v>177</v>
+        <v>676</v>
       </c>
       <c r="C564" s="18" t="s">
-        <v>178</v>
+        <v>677</v>
       </c>
       <c r="D564" s="19">
-        <v>4301070917</v>
+        <v>4301071031</v>
       </c>
       <c r="E564" s="18">
-        <v>4607111035912</v>
+        <v>4607111038982</v>
       </c>
       <c r="F564" s="20" t="s">
-        <v>179</v>
+        <v>678</v>
       </c>
       <c r="G564" s="21"/>
       <c r="H564" s="22" t="s">
@@ -19444,22 +19444,22 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="17" t="s">
-        <v>833</v>
-      </c>
-      <c r="B565" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C565" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="D565" s="4">
-        <v>4301136070</v>
-      </c>
-      <c r="E565" s="3">
-        <v>4607025784012</v>
-      </c>
-      <c r="F565" s="5" t="s">
-        <v>166</v>
+        <v>832</v>
+      </c>
+      <c r="B565" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C565" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D565" s="19">
+        <v>4301070917</v>
+      </c>
+      <c r="E565" s="18">
+        <v>4607111035912</v>
+      </c>
+      <c r="F565" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="G565" s="21"/>
       <c r="H565" s="22" t="s">
@@ -19468,46 +19468,46 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="B566" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="C566" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="D566" s="19">
-        <v>4301071046</v>
-      </c>
-      <c r="E566" s="18">
-        <v>4607111039354</v>
-      </c>
-      <c r="F566" s="20" t="s">
-        <v>603</v>
+        <v>833</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D566" s="4">
+        <v>4301136070</v>
+      </c>
+      <c r="E566" s="3">
+        <v>4607025784012</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="G566" s="21"/>
       <c r="H566" s="22" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>850</v>
+        <v>601</v>
       </c>
       <c r="C567" s="18" t="s">
-        <v>851</v>
+        <v>602</v>
       </c>
       <c r="D567" s="19">
-        <v>4301070959</v>
+        <v>4301071046</v>
       </c>
       <c r="E567" s="18">
-        <v>4607111038616</v>
+        <v>4607111039354</v>
       </c>
       <c r="F567" s="20" t="s">
-        <v>852</v>
+        <v>603</v>
       </c>
       <c r="G567" s="21"/>
       <c r="H567" s="22" t="s">
@@ -19516,46 +19516,46 @@
     </row>
     <row r="568" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A568" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C568" s="18" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="D568" s="19">
-        <v>4301070962</v>
+        <v>4301070959</v>
       </c>
       <c r="E568" s="18">
-        <v>4607111038609</v>
+        <v>4607111038616</v>
       </c>
       <c r="F568" s="20" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G568" s="21"/>
       <c r="H568" s="22" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A569" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>250</v>
+        <v>853</v>
       </c>
       <c r="C569" s="18" t="s">
-        <v>251</v>
+        <v>854</v>
       </c>
       <c r="D569" s="19">
-        <v>4301070948</v>
+        <v>4301070962</v>
       </c>
       <c r="E569" s="18">
-        <v>4607111037022</v>
+        <v>4607111038609</v>
       </c>
       <c r="F569" s="20" t="s">
-        <v>150</v>
+        <v>855</v>
       </c>
       <c r="G569" s="21"/>
       <c r="H569" s="22" t="s">
@@ -19564,22 +19564,22 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="17" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B570" s="18" t="s">
-        <v>690</v>
+        <v>250</v>
       </c>
       <c r="C570" s="18" t="s">
-        <v>691</v>
+        <v>251</v>
       </c>
       <c r="D570" s="19">
-        <v>4301135570</v>
+        <v>4301070948</v>
       </c>
       <c r="E570" s="18">
-        <v>4607111035806</v>
+        <v>4607111037022</v>
       </c>
       <c r="F570" s="20" t="s">
-        <v>692</v>
+        <v>150</v>
       </c>
       <c r="G570" s="21"/>
       <c r="H570" s="22" t="s">
@@ -19588,22 +19588,22 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B571" s="18" t="s">
-        <v>719</v>
+        <v>690</v>
       </c>
       <c r="C571" s="18" t="s">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="D571" s="19">
-        <v>4301071032</v>
+        <v>4301135570</v>
       </c>
       <c r="E571" s="18">
-        <v>4607111038999</v>
+        <v>4607111035806</v>
       </c>
       <c r="F571" s="20" t="s">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="G571" s="21"/>
       <c r="H571" s="22" t="s">
@@ -19612,22 +19612,22 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B572" s="18" t="s">
-        <v>663</v>
+        <v>719</v>
       </c>
       <c r="C572" s="18" t="s">
-        <v>664</v>
+        <v>720</v>
       </c>
       <c r="D572" s="19">
-        <v>4301071045</v>
+        <v>4301071032</v>
       </c>
       <c r="E572" s="18">
-        <v>4607111039392</v>
+        <v>4607111038999</v>
       </c>
       <c r="F572" s="20" t="s">
-        <v>665</v>
+        <v>721</v>
       </c>
       <c r="G572" s="21"/>
       <c r="H572" s="22" t="s">
@@ -19636,22 +19636,22 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B573" s="18" t="s">
-        <v>479</v>
+        <v>663</v>
       </c>
       <c r="C573" s="18" t="s">
-        <v>480</v>
+        <v>664</v>
       </c>
       <c r="D573" s="19">
-        <v>4301070963</v>
+        <v>4301071045</v>
       </c>
       <c r="E573" s="18">
-        <v>4607111038630</v>
+        <v>4607111039392</v>
       </c>
       <c r="F573" s="20" t="s">
-        <v>481</v>
+        <v>665</v>
       </c>
       <c r="G573" s="21"/>
       <c r="H573" s="22" t="s">
@@ -19660,22 +19660,22 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="17" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B574" s="18" t="s">
-        <v>583</v>
+        <v>479</v>
       </c>
       <c r="C574" s="18" t="s">
-        <v>584</v>
+        <v>480</v>
       </c>
       <c r="D574" s="19">
-        <v>4301071054</v>
+        <v>4301070963</v>
       </c>
       <c r="E574" s="18">
-        <v>4607111035639</v>
+        <v>4607111038630</v>
       </c>
       <c r="F574" s="20" t="s">
-        <v>585</v>
+        <v>481</v>
       </c>
       <c r="G574" s="21"/>
       <c r="H574" s="22" t="s">
@@ -19684,30 +19684,54 @@
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B575" s="18" t="s">
-        <v>336</v>
+        <v>583</v>
       </c>
       <c r="C575" s="18" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="D575" s="19">
-        <v>4301135540</v>
+        <v>4301071054</v>
       </c>
       <c r="E575" s="18">
-        <v>4607111035646</v>
+        <v>4607111035639</v>
       </c>
       <c r="F575" s="20" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="G575" s="21"/>
       <c r="H575" s="22" t="s">
         <v>844</v>
       </c>
     </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A576" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="B576" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="C576" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="D576" s="19">
+        <v>4301135540</v>
+      </c>
+      <c r="E576" s="18">
+        <v>4607111035646</v>
+      </c>
+      <c r="F576" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="G576" s="21"/>
+      <c r="H576" s="22" t="s">
+        <v>844</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F575" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
+  <autoFilter ref="A1:F576" xr:uid="{08353A06-E006-45C7-BD45-850F7C3953DF}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F255">
       <sortCondition ref="A1:A185"/>
     </sortState>
